--- a/GreenChannel.xlsx
+++ b/GreenChannel.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I302"/>
+  <dimension ref="A1:I602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9196,6 +9196,8706 @@
         <v>0.7898941145433732</v>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>126.4129180908203</v>
+      </c>
+      <c r="B303" t="n">
+        <v>44.71754361572533</v>
+      </c>
+      <c r="C303" t="n">
+        <v>-0.4586023226862094</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.3206539497972281</v>
+      </c>
+      <c r="E303" t="n">
+        <v>7.39672433040854</v>
+      </c>
+      <c r="F303" t="n">
+        <v>841.5121476715686</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.01091329381203964</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0.0675521518684684</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0.7898941145433732</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>133.4938659667969</v>
+      </c>
+      <c r="B304" t="n">
+        <v>36.80758277351959</v>
+      </c>
+      <c r="C304" t="n">
+        <v>-1.233129854541688</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2.372880618961505</v>
+      </c>
+      <c r="E304" t="n">
+        <v>7.016819019680836</v>
+      </c>
+      <c r="F304" t="n">
+        <v>846.4646446078434</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.01203654267575435</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0.05858996553292083</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0.6883406915433656</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>127.2600402832031</v>
+      </c>
+      <c r="B305" t="n">
+        <v>36.01494508439477</v>
+      </c>
+      <c r="C305" t="n">
+        <v>-0.6047149354561413</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.9868495202783212</v>
+      </c>
+      <c r="E305" t="n">
+        <v>7.130502807895366</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1102.544194240196</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.01047556696814152</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0.04490928151606074</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0.5759318551108371</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>129.6081390380859</v>
+      </c>
+      <c r="B306" t="n">
+        <v>42.16856664601836</v>
+      </c>
+      <c r="C306" t="n">
+        <v>-1.172757637779427</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1.19227653118622</v>
+      </c>
+      <c r="E306" t="n">
+        <v>7.062312054098127</v>
+      </c>
+      <c r="F306" t="n">
+        <v>572.820419730392</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.01454735776701356</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0.1030136545822731</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0.8388521968647333</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>151.606689453125</v>
+      </c>
+      <c r="B307" t="n">
+        <v>43.68182467637836</v>
+      </c>
+      <c r="C307" t="n">
+        <v>-1.116238698312194</v>
+      </c>
+      <c r="D307" t="n">
+        <v>1.135794114645991</v>
+      </c>
+      <c r="E307" t="n">
+        <v>7.226986676063594</v>
+      </c>
+      <c r="F307" t="n">
+        <v>604.7030330882354</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.01822937263024196</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0.1511734978589338</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0.8419483543691071</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>137.6746063232422</v>
+      </c>
+      <c r="B308" t="n">
+        <v>42.55232051700452</v>
+      </c>
+      <c r="C308" t="n">
+        <v>-0.7462077692431853</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0.554441437648169</v>
+      </c>
+      <c r="E308" t="n">
+        <v>7.254565561700843</v>
+      </c>
+      <c r="F308" t="n">
+        <v>592.7123468137254</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.01263497998798038</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0.09231054157550431</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0.8366143394236231</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>126.0905303955078</v>
+      </c>
+      <c r="B309" t="n">
+        <v>35.2648915716881</v>
+      </c>
+      <c r="C309" t="n">
+        <v>-1.248276474821722</v>
+      </c>
+      <c r="D309" t="n">
+        <v>2.18759693637024</v>
+      </c>
+      <c r="E309" t="n">
+        <v>6.913317765375234</v>
+      </c>
+      <c r="F309" t="n">
+        <v>499.5709865196079</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.01799100894908497</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0.1462365282685066</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0.7995454367557489</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>115.3318786621094</v>
+      </c>
+      <c r="B310" t="n">
+        <v>24.78352740384375</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.8238086441184762</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.8184050611066089</v>
+      </c>
+      <c r="E310" t="n">
+        <v>6.549228869835122</v>
+      </c>
+      <c r="F310" t="n">
+        <v>115.7088848039216</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.02392777453478137</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0.1873241629676672</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0.9060161519888948</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>106.3064422607422</v>
+      </c>
+      <c r="B311" t="n">
+        <v>35.20496770312032</v>
+      </c>
+      <c r="C311" t="n">
+        <v>-0.08940294276665352</v>
+      </c>
+      <c r="D311" t="n">
+        <v>-0.2359870816516048</v>
+      </c>
+      <c r="E311" t="n">
+        <v>7.158574910406904</v>
+      </c>
+      <c r="F311" t="n">
+        <v>643.2197150735295</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.01119381907473679</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0.06490702513405995</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0.7408728625866412</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>125.8225860595703</v>
+      </c>
+      <c r="B312" t="n">
+        <v>38.82060851544655</v>
+      </c>
+      <c r="C312" t="n">
+        <v>-0.2150616846851063</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.584111689315526</v>
+      </c>
+      <c r="E312" t="n">
+        <v>7.268773314294593</v>
+      </c>
+      <c r="F312" t="n">
+        <v>1381.539414828432</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.009724517599909107</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0.0428072160419723</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0.5418910088645547</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>107.0745849609375</v>
+      </c>
+      <c r="B313" t="n">
+        <v>39.81938237489837</v>
+      </c>
+      <c r="C313" t="n">
+        <v>-0.2820862262904185</v>
+      </c>
+      <c r="D313" t="n">
+        <v>-0.8399038505260865</v>
+      </c>
+      <c r="E313" t="n">
+        <v>7.261636232386278</v>
+      </c>
+      <c r="F313" t="n">
+        <v>586.8764552696081</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.01105463737709961</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0.07759243895597151</v>
+      </c>
+      <c r="I313" t="n">
+        <v>0.8149553519273181</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>120.5090026855469</v>
+      </c>
+      <c r="B314" t="n">
+        <v>44.99759730192039</v>
+      </c>
+      <c r="C314" t="n">
+        <v>-0.2828237482969447</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0.1116272148636037</v>
+      </c>
+      <c r="E314" t="n">
+        <v>7.436999960277332</v>
+      </c>
+      <c r="F314" t="n">
+        <v>2212.588541666666</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.009240929474327794</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0.04155027484601793</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0.4543346628651441</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>137.1033782958984</v>
+      </c>
+      <c r="B315" t="n">
+        <v>45.8686792846659</v>
+      </c>
+      <c r="C315" t="n">
+        <v>-0.7792810338779679</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0.5661875331958997</v>
+      </c>
+      <c r="E315" t="n">
+        <v>7.391318343167921</v>
+      </c>
+      <c r="F315" t="n">
+        <v>1147.044561887255</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.009864315931691415</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0.05670569221071127</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0.7278497628658855</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>129.14501953125</v>
+      </c>
+      <c r="B316" t="n">
+        <v>38.00690873925004</v>
+      </c>
+      <c r="C316" t="n">
+        <v>-0.2590207070849589</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0.4038480390239112</v>
+      </c>
+      <c r="E316" t="n">
+        <v>7.266452029070702</v>
+      </c>
+      <c r="F316" t="n">
+        <v>1261.255116421569</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.009440873950686905</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0.03853643131081654</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0.5642691073373954</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>135.9043731689453</v>
+      </c>
+      <c r="B317" t="n">
+        <v>53.69269373494</v>
+      </c>
+      <c r="C317" t="n">
+        <v>-0.4392507230639688</v>
+      </c>
+      <c r="D317" t="n">
+        <v>-0.6590971598560573</v>
+      </c>
+      <c r="E317" t="n">
+        <v>7.622914416613166</v>
+      </c>
+      <c r="F317" t="n">
+        <v>889.9863511029414</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.01199793784670054</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0.1002163374839713</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0.8456433199024372</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>122.9576263427734</v>
+      </c>
+      <c r="B318" t="n">
+        <v>28.89240465728666</v>
+      </c>
+      <c r="C318" t="n">
+        <v>-0.05782559801246169</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.5161368172439973</v>
+      </c>
+      <c r="E318" t="n">
+        <v>6.720543713819191</v>
+      </c>
+      <c r="F318" t="n">
+        <v>47.60686274509803</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.03077866415830163</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0.2884001195216128</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0.9715304913641494</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>124.0247344970703</v>
+      </c>
+      <c r="B319" t="n">
+        <v>46.88047118223249</v>
+      </c>
+      <c r="C319" t="n">
+        <v>-0.5004829926228634</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.10127109511967</v>
+      </c>
+      <c r="E319" t="n">
+        <v>7.476591985762616</v>
+      </c>
+      <c r="F319" t="n">
+        <v>1681.546721813726</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.009947747296969388</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0.04989041160247396</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0.6178415439342066</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>143.3235015869141</v>
+      </c>
+      <c r="B320" t="n">
+        <v>32.03211137438795</v>
+      </c>
+      <c r="C320" t="n">
+        <v>-0.2204083879151487</v>
+      </c>
+      <c r="D320" t="n">
+        <v>-0.4859882165939684</v>
+      </c>
+      <c r="E320" t="n">
+        <v>6.9517446455336</v>
+      </c>
+      <c r="F320" t="n">
+        <v>32.40531556372549</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.03115427717356364</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0.3677041059015972</v>
+      </c>
+      <c r="I320" t="n">
+        <v>0.9842375577825067</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>225.6746215820312</v>
+      </c>
+      <c r="B321" t="n">
+        <v>52.17351539310883</v>
+      </c>
+      <c r="C321" t="n">
+        <v>-2.137339949628173</v>
+      </c>
+      <c r="D321" t="n">
+        <v>3.613781064728856</v>
+      </c>
+      <c r="E321" t="n">
+        <v>5.386042654938183</v>
+      </c>
+      <c r="F321" t="n">
+        <v>1397.512898284314</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.1379375248430751</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0.2518585314777014</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0.7440214541258695</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>101.1726379394531</v>
+      </c>
+      <c r="B322" t="n">
+        <v>28.79605547445614</v>
+      </c>
+      <c r="C322" t="n">
+        <v>-0.842188273701487</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0.1616569444996951</v>
+      </c>
+      <c r="E322" t="n">
+        <v>6.690914145674649</v>
+      </c>
+      <c r="F322" t="n">
+        <v>90.58330269607843</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.02735225759476839</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0.2431636802555205</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0.945521700531315</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>130.1957702636719</v>
+      </c>
+      <c r="B323" t="n">
+        <v>47.08221359330569</v>
+      </c>
+      <c r="C323" t="n">
+        <v>-1.017298926160359</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0.4456074561307046</v>
+      </c>
+      <c r="E323" t="n">
+        <v>7.288186899994101</v>
+      </c>
+      <c r="F323" t="n">
+        <v>745.9372549019607</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.01355623232372235</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0.1088170937934534</v>
+      </c>
+      <c r="I323" t="n">
+        <v>0.8320594394901699</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>121.4798583984375</v>
+      </c>
+      <c r="B324" t="n">
+        <v>45.6472861701191</v>
+      </c>
+      <c r="C324" t="n">
+        <v>-0.169016621226885</v>
+      </c>
+      <c r="D324" t="n">
+        <v>-0.2246007331206772</v>
+      </c>
+      <c r="E324" t="n">
+        <v>7.508148406950925</v>
+      </c>
+      <c r="F324" t="n">
+        <v>1778.370848651961</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.008579224621937475</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0.04186064093130755</v>
+      </c>
+      <c r="I324" t="n">
+        <v>0.5741594664151413</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>129.0032653808594</v>
+      </c>
+      <c r="B325" t="n">
+        <v>43.78905819671458</v>
+      </c>
+      <c r="C325" t="n">
+        <v>-1.239870652680332</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1.779525716440349</v>
+      </c>
+      <c r="E325" t="n">
+        <v>7.010364199440944</v>
+      </c>
+      <c r="F325" t="n">
+        <v>582.2619485294117</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.02406023428120305</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0.1299847609224107</v>
+      </c>
+      <c r="I325" t="n">
+        <v>0.848217050046594</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>87.84986877441406</v>
+      </c>
+      <c r="B326" t="n">
+        <v>48.04153772738528</v>
+      </c>
+      <c r="C326" t="n">
+        <v>-0.5708351709523228</v>
+      </c>
+      <c r="D326" t="n">
+        <v>-0.632958027088911</v>
+      </c>
+      <c r="E326" t="n">
+        <v>6.733305210709142</v>
+      </c>
+      <c r="F326" t="n">
+        <v>550.5281556372548</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.1218350737638881</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0.1858602162773798</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0.880171448930225</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>118.3735504150391</v>
+      </c>
+      <c r="B327" t="n">
+        <v>38.03188634757428</v>
+      </c>
+      <c r="C327" t="n">
+        <v>-1.06065326045096</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0.160031790041812</v>
+      </c>
+      <c r="E327" t="n">
+        <v>6.822115825010241</v>
+      </c>
+      <c r="F327" t="n">
+        <v>328.2426317401962</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.02871877019211998</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0.2058775291996622</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0.886784724491357</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>122.5042419433594</v>
+      </c>
+      <c r="B328" t="n">
+        <v>30.69550806558435</v>
+      </c>
+      <c r="C328" t="n">
+        <v>-0.4083156630612741</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0.3401205383660457</v>
+      </c>
+      <c r="E328" t="n">
+        <v>6.947639887506218</v>
+      </c>
+      <c r="F328" t="n">
+        <v>507.2177849264706</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.01290510493943903</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0.07632316185543993</v>
+      </c>
+      <c r="I328" t="n">
+        <v>0.7311294825276365</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>101.7774200439453</v>
+      </c>
+      <c r="B329" t="n">
+        <v>38.67429684378767</v>
+      </c>
+      <c r="C329" t="n">
+        <v>-0.1198824238490856</v>
+      </c>
+      <c r="D329" t="n">
+        <v>-1.33268706591633</v>
+      </c>
+      <c r="E329" t="n">
+        <v>6.981955433913828</v>
+      </c>
+      <c r="F329" t="n">
+        <v>109.0859221813726</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.0202977883279579</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0.1789863408147467</v>
+      </c>
+      <c r="I329" t="n">
+        <v>0.9635534060565866</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>126.2908630371094</v>
+      </c>
+      <c r="B330" t="n">
+        <v>34.59065996548694</v>
+      </c>
+      <c r="C330" t="n">
+        <v>-1.081009749292934</v>
+      </c>
+      <c r="D330" t="n">
+        <v>2.352709640265782</v>
+      </c>
+      <c r="E330" t="n">
+        <v>6.967536617396502</v>
+      </c>
+      <c r="F330" t="n">
+        <v>957.1675398284316</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.01286983524811897</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0.06094700258432604</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0.6010487136717111</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>125.2912445068359</v>
+      </c>
+      <c r="B331" t="n">
+        <v>46.79935400363712</v>
+      </c>
+      <c r="C331" t="n">
+        <v>-0.5435504247807621</v>
+      </c>
+      <c r="D331" t="n">
+        <v>-0.04827030064753179</v>
+      </c>
+      <c r="E331" t="n">
+        <v>7.425679883098469</v>
+      </c>
+      <c r="F331" t="n">
+        <v>930.9759037990198</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.01096126739476808</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0.06901863123161681</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0.7877386609179855</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>107.5978698730469</v>
+      </c>
+      <c r="B332" t="n">
+        <v>48.23397865740204</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.07380137422192731</v>
+      </c>
+      <c r="D332" t="n">
+        <v>-0.4810868745244425</v>
+      </c>
+      <c r="E332" t="n">
+        <v>7.569676647550031</v>
+      </c>
+      <c r="F332" t="n">
+        <v>2182.012944240196</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.009101997922504511</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0.04938496870371939</v>
+      </c>
+      <c r="I332" t="n">
+        <v>0.531670744344052</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>130.3361663818359</v>
+      </c>
+      <c r="B333" t="n">
+        <v>40.35914681689575</v>
+      </c>
+      <c r="C333" t="n">
+        <v>-0.7447875775399678</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0.1074650501142234</v>
+      </c>
+      <c r="E333" t="n">
+        <v>7.222093324163895</v>
+      </c>
+      <c r="F333" t="n">
+        <v>577.2873621323529</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.01505494567706695</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0.1334494280386845</v>
+      </c>
+      <c r="I333" t="n">
+        <v>0.8230712682022264</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>147.0816955566406</v>
+      </c>
+      <c r="B334" t="n">
+        <v>26.19939394009359</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.1821360049624751</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0.2413843842584096</v>
+      </c>
+      <c r="E334" t="n">
+        <v>6.532660798577592</v>
+      </c>
+      <c r="F334" t="n">
+        <v>13.14707414215686</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04524553639380677</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0.4275438921983873</v>
+      </c>
+      <c r="I334" t="n">
+        <v>0.9904447423875758</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>121.6441192626953</v>
+      </c>
+      <c r="B335" t="n">
+        <v>48.71976050206276</v>
+      </c>
+      <c r="C335" t="n">
+        <v>-0.2445979579171681</v>
+      </c>
+      <c r="D335" t="n">
+        <v>-0.4293515485261388</v>
+      </c>
+      <c r="E335" t="n">
+        <v>7.541785172396784</v>
+      </c>
+      <c r="F335" t="n">
+        <v>1818.327849264705</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.01030764932580181</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0.0537210621414899</v>
+      </c>
+      <c r="I335" t="n">
+        <v>0.6177480654604968</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>133.1841583251953</v>
+      </c>
+      <c r="B336" t="n">
+        <v>34.58736655469451</v>
+      </c>
+      <c r="C336" t="n">
+        <v>-1.050247208475749</v>
+      </c>
+      <c r="D336" t="n">
+        <v>2.763044613772078</v>
+      </c>
+      <c r="E336" t="n">
+        <v>6.963717109646762</v>
+      </c>
+      <c r="F336" t="n">
+        <v>621.9663602941176</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.01729943117440145</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0.1380055350139498</v>
+      </c>
+      <c r="I336" t="n">
+        <v>0.7401044490272124</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>123.0609130859375</v>
+      </c>
+      <c r="B337" t="n">
+        <v>21.39804631342563</v>
+      </c>
+      <c r="C337" t="n">
+        <v>-0.4537652336271765</v>
+      </c>
+      <c r="D337" t="n">
+        <v>-0.04954739691253751</v>
+      </c>
+      <c r="E337" t="n">
+        <v>6.360755848627695</v>
+      </c>
+      <c r="F337" t="n">
+        <v>182.9764246323529</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.02085883000433164</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0.1154575101250777</v>
+      </c>
+      <c r="I337" t="n">
+        <v>0.8002392467224901</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>126.8279571533203</v>
+      </c>
+      <c r="B338" t="n">
+        <v>23.84717835084462</v>
+      </c>
+      <c r="C338" t="n">
+        <v>-0.6149162332717746</v>
+      </c>
+      <c r="D338" t="n">
+        <v>3.548645638223753</v>
+      </c>
+      <c r="E338" t="n">
+        <v>6.514517815454268</v>
+      </c>
+      <c r="F338" t="n">
+        <v>731.7035232843137</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.01553317887779563</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0.05711395678229668</v>
+      </c>
+      <c r="I338" t="n">
+        <v>0.3579948300302697</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>115.7298431396484</v>
+      </c>
+      <c r="B339" t="n">
+        <v>66.02525214945214</v>
+      </c>
+      <c r="C339" t="n">
+        <v>-0.3069096534677065</v>
+      </c>
+      <c r="D339" t="n">
+        <v>-1.187042062895045</v>
+      </c>
+      <c r="E339" t="n">
+        <v>7.497355292225539</v>
+      </c>
+      <c r="F339" t="n">
+        <v>633.1536305147059</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04212120068071292</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0.1930282862720432</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0.9274651014220853</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>222.0371856689453</v>
+      </c>
+      <c r="B340" t="n">
+        <v>54.7570228257945</v>
+      </c>
+      <c r="C340" t="n">
+        <v>-1.989609599159646</v>
+      </c>
+      <c r="D340" t="n">
+        <v>2.954914212113669</v>
+      </c>
+      <c r="E340" t="n">
+        <v>5.661425928062567</v>
+      </c>
+      <c r="F340" t="n">
+        <v>1315.161734068628</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.1603670592349758</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0.28061306831762</v>
+      </c>
+      <c r="I340" t="n">
+        <v>0.7813006392106414</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>126.9319915771484</v>
+      </c>
+      <c r="B341" t="n">
+        <v>30.17357720674002</v>
+      </c>
+      <c r="C341" t="n">
+        <v>-1.459030500445062</v>
+      </c>
+      <c r="D341" t="n">
+        <v>4.176637671750377</v>
+      </c>
+      <c r="E341" t="n">
+        <v>6.662298703963606</v>
+      </c>
+      <c r="F341" t="n">
+        <v>465.3345588235294</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.01922567693244295</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0.1076145954542162</v>
+      </c>
+      <c r="I341" t="n">
+        <v>0.7450871010291641</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>158.0941314697266</v>
+      </c>
+      <c r="B342" t="n">
+        <v>35.16330274373358</v>
+      </c>
+      <c r="C342" t="n">
+        <v>-1.592094539361867</v>
+      </c>
+      <c r="D342" t="n">
+        <v>3.934246342802972</v>
+      </c>
+      <c r="E342" t="n">
+        <v>6.898003870437923</v>
+      </c>
+      <c r="F342" t="n">
+        <v>820.4839767156863</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.01299409740713028</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0.05837812926016333</v>
+      </c>
+      <c r="I342" t="n">
+        <v>0.6688971556404727</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>118.5258178710938</v>
+      </c>
+      <c r="B343" t="n">
+        <v>48.81666370426062</v>
+      </c>
+      <c r="C343" t="n">
+        <v>-0.1443683965458007</v>
+      </c>
+      <c r="D343" t="n">
+        <v>-0.625403178360346</v>
+      </c>
+      <c r="E343" t="n">
+        <v>7.54220632900676</v>
+      </c>
+      <c r="F343" t="n">
+        <v>934.7684283088236</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.01021856943020985</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0.0708726792286228</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0.8041100186083929</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>101.1721649169922</v>
+      </c>
+      <c r="B344" t="n">
+        <v>50.29826571972691</v>
+      </c>
+      <c r="C344" t="n">
+        <v>-0.9317483962647607</v>
+      </c>
+      <c r="D344" t="n">
+        <v>-0.09246790719340403</v>
+      </c>
+      <c r="E344" t="n">
+        <v>6.52055165715075</v>
+      </c>
+      <c r="F344" t="n">
+        <v>624.2198835784312</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.1311975364459275</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0.1848400912822892</v>
+      </c>
+      <c r="I344" t="n">
+        <v>0.8759320502045193</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>100.3851013183594</v>
+      </c>
+      <c r="B345" t="n">
+        <v>57.72138153179844</v>
+      </c>
+      <c r="C345" t="n">
+        <v>-0.6753729963828159</v>
+      </c>
+      <c r="D345" t="n">
+        <v>-0.891536214655885</v>
+      </c>
+      <c r="E345" t="n">
+        <v>6.766935353169671</v>
+      </c>
+      <c r="F345" t="n">
+        <v>680.7329656862747</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.1214801000319797</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0.23581025648308</v>
+      </c>
+      <c r="I345" t="n">
+        <v>0.897460475828793</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>103.7749328613281</v>
+      </c>
+      <c r="B346" t="n">
+        <v>31.2903914403779</v>
+      </c>
+      <c r="C346" t="n">
+        <v>-0.06328368845843983</v>
+      </c>
+      <c r="D346" t="n">
+        <v>-0.4581240015852455</v>
+      </c>
+      <c r="E346" t="n">
+        <v>6.990209578931963</v>
+      </c>
+      <c r="F346" t="n">
+        <v>190.8277726715687</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.01589198149137099</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0.1257287947456512</v>
+      </c>
+      <c r="I346" t="n">
+        <v>0.9025137577389475</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>165.9362335205078</v>
+      </c>
+      <c r="B347" t="n">
+        <v>31.17622162870523</v>
+      </c>
+      <c r="C347" t="n">
+        <v>-1.117132206927881</v>
+      </c>
+      <c r="D347" t="n">
+        <v>3.30377778252469</v>
+      </c>
+      <c r="E347" t="n">
+        <v>6.884207571816462</v>
+      </c>
+      <c r="F347" t="n">
+        <v>957.0957261029412</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.01189899470195273</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0.04442190810802703</v>
+      </c>
+      <c r="I347" t="n">
+        <v>0.5082905626233543</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>121.1497650146484</v>
+      </c>
+      <c r="B348" t="n">
+        <v>33.42281709249529</v>
+      </c>
+      <c r="C348" t="n">
+        <v>-0.5907673766686012</v>
+      </c>
+      <c r="D348" t="n">
+        <v>-0.7055790246309503</v>
+      </c>
+      <c r="E348" t="n">
+        <v>6.80707134091106</v>
+      </c>
+      <c r="F348" t="n">
+        <v>160.2367953431373</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.02108616719580787</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0.1634810017781755</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0.9282523779138789</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>125.5103302001953</v>
+      </c>
+      <c r="B349" t="n">
+        <v>43.55416637273273</v>
+      </c>
+      <c r="C349" t="n">
+        <v>-0.6542897011308523</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0.2790217125802315</v>
+      </c>
+      <c r="E349" t="n">
+        <v>7.346860607533865</v>
+      </c>
+      <c r="F349" t="n">
+        <v>1356.829610906863</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.009969213982885654</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0.04911701516906192</v>
+      </c>
+      <c r="I349" t="n">
+        <v>0.6432492799236434</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>113.0219268798828</v>
+      </c>
+      <c r="B350" t="n">
+        <v>29.08963248837321</v>
+      </c>
+      <c r="C350" t="n">
+        <v>-0.2927348134100219</v>
+      </c>
+      <c r="D350" t="n">
+        <v>-0.4764409904777338</v>
+      </c>
+      <c r="E350" t="n">
+        <v>6.852315979622947</v>
+      </c>
+      <c r="F350" t="n">
+        <v>483.875337009804</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.01331515682506036</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0.07290741548769622</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0.7143827194164709</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>146.3970794677734</v>
+      </c>
+      <c r="B351" t="n">
+        <v>46.06874782075425</v>
+      </c>
+      <c r="C351" t="n">
+        <v>-0.6502814643321552</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0.5898504899752632</v>
+      </c>
+      <c r="E351" t="n">
+        <v>7.412829855642474</v>
+      </c>
+      <c r="F351" t="n">
+        <v>878.8802849264706</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.01078405260936114</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0.06290635891387232</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0.7933208950737115</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>109.881103515625</v>
+      </c>
+      <c r="B352" t="n">
+        <v>44.47923009415273</v>
+      </c>
+      <c r="C352" t="n">
+        <v>-0.1098458462090767</v>
+      </c>
+      <c r="D352" t="n">
+        <v>-0.9047493825875819</v>
+      </c>
+      <c r="E352" t="n">
+        <v>7.328597568046432</v>
+      </c>
+      <c r="F352" t="n">
+        <v>216.3477787990196</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.01814561094444056</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0.1941897517762739</v>
+      </c>
+      <c r="I352" t="n">
+        <v>0.9453272679973513</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>117.6090240478516</v>
+      </c>
+      <c r="B353" t="n">
+        <v>51.68974519229225</v>
+      </c>
+      <c r="C353" t="n">
+        <v>-0.2669139641484087</v>
+      </c>
+      <c r="D353" t="n">
+        <v>-0.6501249721635802</v>
+      </c>
+      <c r="E353" t="n">
+        <v>7.530060923332438</v>
+      </c>
+      <c r="F353" t="n">
+        <v>1687.985324754902</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.01681681126288568</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0.07967019974029291</v>
+      </c>
+      <c r="I353" t="n">
+        <v>0.684718772277164</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>110.0086822509766</v>
+      </c>
+      <c r="B354" t="n">
+        <v>22.65479388498287</v>
+      </c>
+      <c r="C354" t="n">
+        <v>-0.1324720184978072</v>
+      </c>
+      <c r="D354" t="n">
+        <v>-0.2665965436764957</v>
+      </c>
+      <c r="E354" t="n">
+        <v>6.516083826019954</v>
+      </c>
+      <c r="F354" t="n">
+        <v>167.0221200980392</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.0213281399082331</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0.165668408694222</v>
+      </c>
+      <c r="I354" t="n">
+        <v>0.8375121146028986</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>120.0487060546875</v>
+      </c>
+      <c r="B355" t="n">
+        <v>48.58066175514588</v>
+      </c>
+      <c r="C355" t="n">
+        <v>-0.5288845497539006</v>
+      </c>
+      <c r="D355" t="n">
+        <v>-0.4292326011561496</v>
+      </c>
+      <c r="E355" t="n">
+        <v>7.507748937264931</v>
+      </c>
+      <c r="F355" t="n">
+        <v>490.1231004901962</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.01222967685734905</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0.1160076719413662</v>
+      </c>
+      <c r="I355" t="n">
+        <v>0.8960169338392455</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>126.1659851074219</v>
+      </c>
+      <c r="B356" t="n">
+        <v>53.99117777976025</v>
+      </c>
+      <c r="C356" t="n">
+        <v>-0.601240115025133</v>
+      </c>
+      <c r="D356" t="n">
+        <v>-0.4926392295790114</v>
+      </c>
+      <c r="E356" t="n">
+        <v>7.543866392543608</v>
+      </c>
+      <c r="F356" t="n">
+        <v>706.9443627450981</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.01337267921046143</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0.1181391218615702</v>
+      </c>
+      <c r="I356" t="n">
+        <v>0.8789775668088826</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>111.6400604248047</v>
+      </c>
+      <c r="B357" t="n">
+        <v>52.98898292841957</v>
+      </c>
+      <c r="C357" t="n">
+        <v>-0.171635060361642</v>
+      </c>
+      <c r="D357" t="n">
+        <v>-1.007332307011885</v>
+      </c>
+      <c r="E357" t="n">
+        <v>7.585219871297718</v>
+      </c>
+      <c r="F357" t="n">
+        <v>726.3467524509803</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.01247389728818079</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0.1159042556078071</v>
+      </c>
+      <c r="I357" t="n">
+        <v>0.8707564108607165</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>123.1078948974609</v>
+      </c>
+      <c r="B358" t="n">
+        <v>42.83785996078939</v>
+      </c>
+      <c r="C358" t="n">
+        <v>-1.118587912595614</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0.8336213255568672</v>
+      </c>
+      <c r="E358" t="n">
+        <v>7.142517344181673</v>
+      </c>
+      <c r="F358" t="n">
+        <v>696.7075520833333</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.01254770459035564</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0.06671323562588911</v>
+      </c>
+      <c r="I358" t="n">
+        <v>0.8104822442407166</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>132.3296051025391</v>
+      </c>
+      <c r="B359" t="n">
+        <v>39.17335816277232</v>
+      </c>
+      <c r="C359" t="n">
+        <v>-0.1080451143976577</v>
+      </c>
+      <c r="D359" t="n">
+        <v>-1.18586178921472</v>
+      </c>
+      <c r="E359" t="n">
+        <v>7.137397376919638</v>
+      </c>
+      <c r="F359" t="n">
+        <v>52.09996936274511</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.02188638945959314</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0.2404451404746704</v>
+      </c>
+      <c r="I359" t="n">
+        <v>0.983052930097652</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>127.9660949707031</v>
+      </c>
+      <c r="B360" t="n">
+        <v>29.08585898222957</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.03032373591589558</v>
+      </c>
+      <c r="D360" t="n">
+        <v>1.043580335346671</v>
+      </c>
+      <c r="E360" t="n">
+        <v>6.743667542085431</v>
+      </c>
+      <c r="F360" t="n">
+        <v>54.99083946078431</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.02968024292105678</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0.2779318094787717</v>
+      </c>
+      <c r="I360" t="n">
+        <v>0.9675792434561301</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>112.2174224853516</v>
+      </c>
+      <c r="B361" t="n">
+        <v>45.86958450608328</v>
+      </c>
+      <c r="C361" t="n">
+        <v>-0.4259356667949837</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0.09032835080643187</v>
+      </c>
+      <c r="E361" t="n">
+        <v>7.391359057255634</v>
+      </c>
+      <c r="F361" t="n">
+        <v>1421.869515931373</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.01367564835403464</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0.06589137024127525</v>
+      </c>
+      <c r="I361" t="n">
+        <v>0.6622572007493767</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>113.2694549560547</v>
+      </c>
+      <c r="B362" t="n">
+        <v>35.04543531244222</v>
+      </c>
+      <c r="C362" t="n">
+        <v>-0.3641946289032276</v>
+      </c>
+      <c r="D362" t="n">
+        <v>-0.0649274721294586</v>
+      </c>
+      <c r="E362" t="n">
+        <v>7.117848466075726</v>
+      </c>
+      <c r="F362" t="n">
+        <v>315.3767922794119</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.01454125905068648</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0.1207078099490756</v>
+      </c>
+      <c r="I362" t="n">
+        <v>0.8717829505368113</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>123.5894775390625</v>
+      </c>
+      <c r="B363" t="n">
+        <v>33.74340785403851</v>
+      </c>
+      <c r="C363" t="n">
+        <v>-0.7464503418581724</v>
+      </c>
+      <c r="D363" t="n">
+        <v>0.334714081493428</v>
+      </c>
+      <c r="E363" t="n">
+        <v>6.948844398315422</v>
+      </c>
+      <c r="F363" t="n">
+        <v>41.14693627450981</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.03296483206488589</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0.3545139487784804</v>
+      </c>
+      <c r="I363" t="n">
+        <v>0.98198268875592</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>115.7027587890625</v>
+      </c>
+      <c r="B364" t="n">
+        <v>24.57324783154733</v>
+      </c>
+      <c r="C364" t="n">
+        <v>-0.5752566034212281</v>
+      </c>
+      <c r="D364" t="n">
+        <v>0.7506488199786636</v>
+      </c>
+      <c r="E364" t="n">
+        <v>6.593731610922995</v>
+      </c>
+      <c r="F364" t="n">
+        <v>326.2875306372549</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.01915924931150392</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0.1148933429940314</v>
+      </c>
+      <c r="I364" t="n">
+        <v>0.7299219215213069</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>95.54367065429688</v>
+      </c>
+      <c r="B365" t="n">
+        <v>43.97394570906235</v>
+      </c>
+      <c r="C365" t="n">
+        <v>-0.1709076353315188</v>
+      </c>
+      <c r="D365" t="n">
+        <v>-0.8734381818239232</v>
+      </c>
+      <c r="E365" t="n">
+        <v>7.320278495194167</v>
+      </c>
+      <c r="F365" t="n">
+        <v>857.0904258578431</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.01240627256141924</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0.08453021662259497</v>
+      </c>
+      <c r="I365" t="n">
+        <v>0.7786273211366704</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>119.6289520263672</v>
+      </c>
+      <c r="B366" t="n">
+        <v>44.21702428487551</v>
+      </c>
+      <c r="C366" t="n">
+        <v>-0.4570847897414578</v>
+      </c>
+      <c r="D366" t="n">
+        <v>-0.2681802590922033</v>
+      </c>
+      <c r="E366" t="n">
+        <v>7.400346861395383</v>
+      </c>
+      <c r="F366" t="n">
+        <v>1157.547549019608</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.00996690694290633</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0.06065134390525014</v>
+      </c>
+      <c r="I366" t="n">
+        <v>0.7044193714672207</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>143.3977813720703</v>
+      </c>
+      <c r="B367" t="n">
+        <v>30.75296905261869</v>
+      </c>
+      <c r="C367" t="n">
+        <v>-0.3989991153580859</v>
+      </c>
+      <c r="D367" t="n">
+        <v>-0.2876479823381786</v>
+      </c>
+      <c r="E367" t="n">
+        <v>6.837668070098404</v>
+      </c>
+      <c r="F367" t="n">
+        <v>30.48612132352942</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.03279810791819774</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0.3382886077718582</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0.9838989350558266</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>121.5296478271484</v>
+      </c>
+      <c r="B368" t="n">
+        <v>50.60875939017084</v>
+      </c>
+      <c r="C368" t="n">
+        <v>-0.5772228037549993</v>
+      </c>
+      <c r="D368" t="n">
+        <v>-0.4458163249160796</v>
+      </c>
+      <c r="E368" t="n">
+        <v>7.500158817909068</v>
+      </c>
+      <c r="F368" t="n">
+        <v>1170.139338235294</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.01117420111815986</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0.06395417487322802</v>
+      </c>
+      <c r="I368" t="n">
+        <v>0.7720634394118142</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>134.2993774414062</v>
+      </c>
+      <c r="B369" t="n">
+        <v>37.32238213663023</v>
+      </c>
+      <c r="C369" t="n">
+        <v>-0.1907037224688166</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0.1238940445383694</v>
+      </c>
+      <c r="E369" t="n">
+        <v>7.229573393995914</v>
+      </c>
+      <c r="F369" t="n">
+        <v>1059.292677696078</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.01010349128677791</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0.04842364520305133</v>
+      </c>
+      <c r="I369" t="n">
+        <v>0.6202144943151873</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>113.1158905029297</v>
+      </c>
+      <c r="B370" t="n">
+        <v>34.08221252898384</v>
+      </c>
+      <c r="C370" t="n">
+        <v>-0.3651075019170754</v>
+      </c>
+      <c r="D370" t="n">
+        <v>-0.4308854604171208</v>
+      </c>
+      <c r="E370" t="n">
+        <v>7.066082844842846</v>
+      </c>
+      <c r="F370" t="n">
+        <v>417.8502604166666</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.01290741404101019</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0.08107903830287078</v>
+      </c>
+      <c r="I370" t="n">
+        <v>0.8203388420188092</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>114.5829162597656</v>
+      </c>
+      <c r="B371" t="n">
+        <v>28.1338824496503</v>
+      </c>
+      <c r="C371" t="n">
+        <v>-0.72034164248674</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0.5079445443348778</v>
+      </c>
+      <c r="E371" t="n">
+        <v>6.784490661359079</v>
+      </c>
+      <c r="F371" t="n">
+        <v>200.3688265931373</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.01766891953863274</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0.1311218467110645</v>
+      </c>
+      <c r="I371" t="n">
+        <v>0.8736716436418304</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>115.7843933105469</v>
+      </c>
+      <c r="B372" t="n">
+        <v>36.74409229308792</v>
+      </c>
+      <c r="C372" t="n">
+        <v>-1.17443411594116</v>
+      </c>
+      <c r="D372" t="n">
+        <v>1.151526632874855</v>
+      </c>
+      <c r="E372" t="n">
+        <v>6.82285826351958</v>
+      </c>
+      <c r="F372" t="n">
+        <v>436.1789215686275</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.01879532539852165</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0.09940810726461237</v>
+      </c>
+      <c r="I372" t="n">
+        <v>0.8388882296064742</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>88.91566467285156</v>
+      </c>
+      <c r="B373" t="n">
+        <v>48.96760373756985</v>
+      </c>
+      <c r="C373" t="n">
+        <v>-0.4159297623101786</v>
+      </c>
+      <c r="D373" t="n">
+        <v>-0.4260949197863972</v>
+      </c>
+      <c r="E373" t="n">
+        <v>6.785609943583782</v>
+      </c>
+      <c r="F373" t="n">
+        <v>1055.970235906863</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.1244744876674146</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0.1666712340164442</v>
+      </c>
+      <c r="I373" t="n">
+        <v>0.77875381450253</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>124.4808654785156</v>
+      </c>
+      <c r="B374" t="n">
+        <v>30.64734168052717</v>
+      </c>
+      <c r="C374" t="n">
+        <v>-0.07428037048167828</v>
+      </c>
+      <c r="D374" t="n">
+        <v>-0.1412575181771278</v>
+      </c>
+      <c r="E374" t="n">
+        <v>6.934775457520869</v>
+      </c>
+      <c r="F374" t="n">
+        <v>20.17651654411765</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.03210368432830882</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0.3652042726088943</v>
+      </c>
+      <c r="I374" t="n">
+        <v>0.9892781562712548</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>229.4714660644531</v>
+      </c>
+      <c r="B375" t="n">
+        <v>55.31280988414316</v>
+      </c>
+      <c r="C375" t="n">
+        <v>-2.500263994402417</v>
+      </c>
+      <c r="D375" t="n">
+        <v>5.166855036565554</v>
+      </c>
+      <c r="E375" t="n">
+        <v>4.699582925174342</v>
+      </c>
+      <c r="F375" t="n">
+        <v>1052.162025122549</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.2353346895630601</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0.4256956867610663</v>
+      </c>
+      <c r="I375" t="n">
+        <v>0.8286017664416337</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>114.3783874511719</v>
+      </c>
+      <c r="B376" t="n">
+        <v>29.45869392291225</v>
+      </c>
+      <c r="C376" t="n">
+        <v>-0.02875443501979746</v>
+      </c>
+      <c r="D376" t="n">
+        <v>-0.9457101934392091</v>
+      </c>
+      <c r="E376" t="n">
+        <v>6.770037876067408</v>
+      </c>
+      <c r="F376" t="n">
+        <v>38.30001531862745</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.02741489121778066</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0.2744173393904464</v>
+      </c>
+      <c r="I376" t="n">
+        <v>0.9779658399992279</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>105.9386444091797</v>
+      </c>
+      <c r="B377" t="n">
+        <v>53.80331690453621</v>
+      </c>
+      <c r="C377" t="n">
+        <v>-0.9338298799117134</v>
+      </c>
+      <c r="D377" t="n">
+        <v>-0.1594280972422637</v>
+      </c>
+      <c r="E377" t="n">
+        <v>6.632992251969854</v>
+      </c>
+      <c r="F377" t="n">
+        <v>977.3144301470585</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.1210376122883443</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0.1731411103491917</v>
+      </c>
+      <c r="I377" t="n">
+        <v>0.8302689231720958</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>118.9984588623047</v>
+      </c>
+      <c r="B378" t="n">
+        <v>23.24661881481227</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0.09376471129425032</v>
+      </c>
+      <c r="D378" t="n">
+        <v>2.464755920423979</v>
+      </c>
+      <c r="E378" t="n">
+        <v>6.355885364385377</v>
+      </c>
+      <c r="F378" t="n">
+        <v>22.12141544117647</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.05611509103249292</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0.4126327276119729</v>
+      </c>
+      <c r="I378" t="n">
+        <v>0.9795943728063071</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>136.9919586181641</v>
+      </c>
+      <c r="B379" t="n">
+        <v>39.56907327044299</v>
+      </c>
+      <c r="C379" t="n">
+        <v>-0.3177767890991996</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0.6929738790861544</v>
+      </c>
+      <c r="E379" t="n">
+        <v>7.208201294550276</v>
+      </c>
+      <c r="F379" t="n">
+        <v>43.99347426470589</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.02970702522442772</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0.2845124283322478</v>
+      </c>
+      <c r="I379" t="n">
+        <v>0.9860016544714508</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>188.6625061035156</v>
+      </c>
+      <c r="B380" t="n">
+        <v>45.01896934132747</v>
+      </c>
+      <c r="C380" t="n">
+        <v>-0.7574094398658061</v>
+      </c>
+      <c r="D380" t="n">
+        <v>0.8607425000862676</v>
+      </c>
+      <c r="E380" t="n">
+        <v>7.192614465824033</v>
+      </c>
+      <c r="F380" t="n">
+        <v>1847.85143995098</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.02633858806494847</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0.06526121050285238</v>
+      </c>
+      <c r="I380" t="n">
+        <v>0.5451334259148649</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>105.6718902587891</v>
+      </c>
+      <c r="B381" t="n">
+        <v>41.01949194126852</v>
+      </c>
+      <c r="C381" t="n">
+        <v>-0.5708546691479829</v>
+      </c>
+      <c r="D381" t="n">
+        <v>-0.8919057538035116</v>
+      </c>
+      <c r="E381" t="n">
+        <v>7.07295942759768</v>
+      </c>
+      <c r="F381" t="n">
+        <v>186.1744178921569</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.02271746769756095</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0.2214611395367765</v>
+      </c>
+      <c r="I381" t="n">
+        <v>0.944697680088103</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>132.4586486816406</v>
+      </c>
+      <c r="B382" t="n">
+        <v>47.88378314738686</v>
+      </c>
+      <c r="C382" t="n">
+        <v>-1.166109279075705</v>
+      </c>
+      <c r="D382" t="n">
+        <v>0.8010283441516761</v>
+      </c>
+      <c r="E382" t="n">
+        <v>7.210211922010624</v>
+      </c>
+      <c r="F382" t="n">
+        <v>666.0005055147061</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.01609488464074547</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0.1217278168449749</v>
+      </c>
+      <c r="I382" t="n">
+        <v>0.8551477356907506</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>131.4387969970703</v>
+      </c>
+      <c r="B383" t="n">
+        <v>21.74138760752486</v>
+      </c>
+      <c r="C383" t="n">
+        <v>-0.3407367107705025</v>
+      </c>
+      <c r="D383" t="n">
+        <v>-0.3813342383054463</v>
+      </c>
+      <c r="E383" t="n">
+        <v>6.381854760514613</v>
+      </c>
+      <c r="F383" t="n">
+        <v>99.36346507352944</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.02549701674218193</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0.1805872110625281</v>
+      </c>
+      <c r="I383" t="n">
+        <v>0.8950757594769644</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>121.1373443603516</v>
+      </c>
+      <c r="B384" t="n">
+        <v>45.7615386525833</v>
+      </c>
+      <c r="C384" t="n">
+        <v>-0.8294261702413356</v>
+      </c>
+      <c r="D384" t="n">
+        <v>0.3195955478253776</v>
+      </c>
+      <c r="E384" t="n">
+        <v>7.255755773425708</v>
+      </c>
+      <c r="F384" t="n">
+        <v>711.680193014706</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.01709446263600648</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0.1274051771480393</v>
+      </c>
+      <c r="I384" t="n">
+        <v>0.8300753447744538</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>176.6921844482422</v>
+      </c>
+      <c r="B385" t="n">
+        <v>26.7969346291458</v>
+      </c>
+      <c r="C385" t="n">
+        <v>-0.3423354119017801</v>
+      </c>
+      <c r="D385" t="n">
+        <v>-0.207724929982203</v>
+      </c>
+      <c r="E385" t="n">
+        <v>6.758175519727218</v>
+      </c>
+      <c r="F385" t="n">
+        <v>99.47395833333333</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.0218265231172408</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0.1926193894246184</v>
+      </c>
+      <c r="I385" t="n">
+        <v>0.9308056065015065</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>126.9910430908203</v>
+      </c>
+      <c r="B386" t="n">
+        <v>32.87379453177459</v>
+      </c>
+      <c r="C386" t="n">
+        <v>-0.4199627175363324</v>
+      </c>
+      <c r="D386" t="n">
+        <v>-0.323925825887736</v>
+      </c>
+      <c r="E386" t="n">
+        <v>6.969423771618023</v>
+      </c>
+      <c r="F386" t="n">
+        <v>26.84811580882353</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.0277126968676507</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0.3119866988858273</v>
+      </c>
+      <c r="I386" t="n">
+        <v>0.9876028100524095</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>120.4929656982422</v>
+      </c>
+      <c r="B387" t="n">
+        <v>28.22789412823924</v>
+      </c>
+      <c r="C387" t="n">
+        <v>-0.7957994654693056</v>
+      </c>
+      <c r="D387" t="n">
+        <v>0.2223025114574781</v>
+      </c>
+      <c r="E387" t="n">
+        <v>6.708446253307646</v>
+      </c>
+      <c r="F387" t="n">
+        <v>63.78149509803922</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.0266527918146449</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0.243799498286268</v>
+      </c>
+      <c r="I387" t="n">
+        <v>0.9599679899410373</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>116.3505096435547</v>
+      </c>
+      <c r="B388" t="n">
+        <v>29.28745563237759</v>
+      </c>
+      <c r="C388" t="n">
+        <v>-0.3008721785011979</v>
+      </c>
+      <c r="D388" t="n">
+        <v>-0.2921797279263489</v>
+      </c>
+      <c r="E388" t="n">
+        <v>6.853187102635323</v>
+      </c>
+      <c r="F388" t="n">
+        <v>587.784037990196</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.01330471959212688</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0.07021950624156602</v>
+      </c>
+      <c r="I388" t="n">
+        <v>0.6573075871058316</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>118.6697692871094</v>
+      </c>
+      <c r="B389" t="n">
+        <v>25.6288443747442</v>
+      </c>
+      <c r="C389" t="n">
+        <v>-0.1834714827338856</v>
+      </c>
+      <c r="D389" t="n">
+        <v>0.1495989587285536</v>
+      </c>
+      <c r="E389" t="n">
+        <v>6.703967350646798</v>
+      </c>
+      <c r="F389" t="n">
+        <v>536.6893075980392</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.01403975396738921</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0.06751307608014624</v>
+      </c>
+      <c r="I389" t="n">
+        <v>0.5913596270936614</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>121.2773284912109</v>
+      </c>
+      <c r="B390" t="n">
+        <v>29.0897004334081</v>
+      </c>
+      <c r="C390" t="n">
+        <v>-0.3052764690356628</v>
+      </c>
+      <c r="D390" t="n">
+        <v>0.4438878469665979</v>
+      </c>
+      <c r="E390" t="n">
+        <v>6.867601715593131</v>
+      </c>
+      <c r="F390" t="n">
+        <v>358.0909620098039</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.01690357613813389</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0.1207252120984237</v>
+      </c>
+      <c r="I390" t="n">
+        <v>0.7889370659281923</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>118.6845855712891</v>
+      </c>
+      <c r="B391" t="n">
+        <v>33.45959839199494</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0.2334473674832212</v>
+      </c>
+      <c r="D391" t="n">
+        <v>-0.4767021886757767</v>
+      </c>
+      <c r="E391" t="n">
+        <v>6.969345944908481</v>
+      </c>
+      <c r="F391" t="n">
+        <v>31.29068627450981</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.03473995876534371</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0.3704402233716955</v>
+      </c>
+      <c r="I391" t="n">
+        <v>0.9860570639590893</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>100.2877349853516</v>
+      </c>
+      <c r="B392" t="n">
+        <v>35.64841549499487</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0.1812930769954654</v>
+      </c>
+      <c r="D392" t="n">
+        <v>-0.9897860100595497</v>
+      </c>
+      <c r="E392" t="n">
+        <v>7.00566807119763</v>
+      </c>
+      <c r="F392" t="n">
+        <v>124.879243259804</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.01996695975229599</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0.1827982550762966</v>
+      </c>
+      <c r="I392" t="n">
+        <v>0.9508437221579288</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>119.9146118164062</v>
+      </c>
+      <c r="B393" t="n">
+        <v>32.47242768393181</v>
+      </c>
+      <c r="C393" t="n">
+        <v>-0.3243008287983832</v>
+      </c>
+      <c r="D393" t="n">
+        <v>-0.4510502745049059</v>
+      </c>
+      <c r="E393" t="n">
+        <v>6.875971413937343</v>
+      </c>
+      <c r="F393" t="n">
+        <v>22.38728553921569</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.0383299670542677</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0.3801177417108542</v>
+      </c>
+      <c r="I393" t="n">
+        <v>0.9894075669873564</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>111.9990386962891</v>
+      </c>
+      <c r="B394" t="n">
+        <v>43.73455693880427</v>
+      </c>
+      <c r="C394" t="n">
+        <v>-0.5206906259419156</v>
+      </c>
+      <c r="D394" t="n">
+        <v>-0.697430324100714</v>
+      </c>
+      <c r="E394" t="n">
+        <v>7.232546004035943</v>
+      </c>
+      <c r="F394" t="n">
+        <v>135.2812346813725</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.02167891593996203</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0.2093256174759349</v>
+      </c>
+      <c r="I394" t="n">
+        <v>0.9646703430523317</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>129.6004638671875</v>
+      </c>
+      <c r="B395" t="n">
+        <v>42.17289108781551</v>
+      </c>
+      <c r="C395" t="n">
+        <v>-1.172557500741717</v>
+      </c>
+      <c r="D395" t="n">
+        <v>1.191105166526119</v>
+      </c>
+      <c r="E395" t="n">
+        <v>7.06250679059575</v>
+      </c>
+      <c r="F395" t="n">
+        <v>572.8066942401961</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.0145442441916916</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0.1029485282675897</v>
+      </c>
+      <c r="I395" t="n">
+        <v>0.8388893396857136</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>145.7173919677734</v>
+      </c>
+      <c r="B396" t="n">
+        <v>36.83240323394887</v>
+      </c>
+      <c r="C396" t="n">
+        <v>-0.4955466471827377</v>
+      </c>
+      <c r="D396" t="n">
+        <v>-0.5706717250187046</v>
+      </c>
+      <c r="E396" t="n">
+        <v>7.038824261116084</v>
+      </c>
+      <c r="F396" t="n">
+        <v>29.98915441176471</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.04080934679749019</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0.4712229711720319</v>
+      </c>
+      <c r="I396" t="n">
+        <v>0.9889666314619239</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>132.3353576660156</v>
+      </c>
+      <c r="B397" t="n">
+        <v>58.17541542435595</v>
+      </c>
+      <c r="C397" t="n">
+        <v>-0.6946416461081226</v>
+      </c>
+      <c r="D397" t="n">
+        <v>-0.5612988669381109</v>
+      </c>
+      <c r="E397" t="n">
+        <v>7.453357745707197</v>
+      </c>
+      <c r="F397" t="n">
+        <v>484.5321231617648</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.01813772066505831</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0.1770136689080613</v>
+      </c>
+      <c r="I397" t="n">
+        <v>0.9284363345993895</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>105.5607147216797</v>
+      </c>
+      <c r="B398" t="n">
+        <v>50.79842263966126</v>
+      </c>
+      <c r="C398" t="n">
+        <v>-1.125396457585434</v>
+      </c>
+      <c r="D398" t="n">
+        <v>0.1420196218146192</v>
+      </c>
+      <c r="E398" t="n">
+        <v>6.400082354818963</v>
+      </c>
+      <c r="F398" t="n">
+        <v>526.0717984068626</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1295883415614023</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0.1995469384473555</v>
+      </c>
+      <c r="I398" t="n">
+        <v>0.8974371693379161</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>170.1933441162109</v>
+      </c>
+      <c r="B399" t="n">
+        <v>24.78570359198618</v>
+      </c>
+      <c r="C399" t="n">
+        <v>-0.6244986741638939</v>
+      </c>
+      <c r="D399" t="n">
+        <v>0.7736760753219856</v>
+      </c>
+      <c r="E399" t="n">
+        <v>6.624583429155313</v>
+      </c>
+      <c r="F399" t="n">
+        <v>262.9468596813725</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.01621029287803749</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0.08967628465063175</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0.7862930261349881</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>129.5921936035156</v>
+      </c>
+      <c r="B400" t="n">
+        <v>44.73133212939158</v>
+      </c>
+      <c r="C400" t="n">
+        <v>-0.6163707658648534</v>
+      </c>
+      <c r="D400" t="n">
+        <v>0.0841096590784276</v>
+      </c>
+      <c r="E400" t="n">
+        <v>7.402137500108638</v>
+      </c>
+      <c r="F400" t="n">
+        <v>735.339705882353</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.01220561089030951</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0.09992970687409937</v>
+      </c>
+      <c r="I400" t="n">
+        <v>0.8166500973287523</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>98.43580627441406</v>
+      </c>
+      <c r="B401" t="n">
+        <v>41.35786787447616</v>
+      </c>
+      <c r="C401" t="n">
+        <v>-0.05939260773307015</v>
+      </c>
+      <c r="D401" t="n">
+        <v>-0.2349137700984674</v>
+      </c>
+      <c r="E401" t="n">
+        <v>7.373978849777142</v>
+      </c>
+      <c r="F401" t="n">
+        <v>1884.343305759804</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.008716204792040386</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0.03696573431159441</v>
+      </c>
+      <c r="I401" t="n">
+        <v>0.4502064385338774</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>137.6750183105469</v>
+      </c>
+      <c r="B402" t="n">
+        <v>42.55265410378676</v>
+      </c>
+      <c r="C402" t="n">
+        <v>-0.7462117003758257</v>
+      </c>
+      <c r="D402" t="n">
+        <v>0.5544029137323148</v>
+      </c>
+      <c r="E402" t="n">
+        <v>7.254475801375544</v>
+      </c>
+      <c r="F402" t="n">
+        <v>592.7888786764707</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.01263991924820959</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0.09215711512940641</v>
+      </c>
+      <c r="I402" t="n">
+        <v>0.8365956417510901</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>106.6194458007812</v>
+      </c>
+      <c r="B403" t="n">
+        <v>24.9175651942649</v>
+      </c>
+      <c r="C403" t="n">
+        <v>-0.4340760503296046</v>
+      </c>
+      <c r="D403" t="n">
+        <v>0.1737726986253896</v>
+      </c>
+      <c r="E403" t="n">
+        <v>6.656251659092535</v>
+      </c>
+      <c r="F403" t="n">
+        <v>218.5795189950981</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.01765084818128826</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0.1210382350045752</v>
+      </c>
+      <c r="I403" t="n">
+        <v>0.8239324023647128</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>108.6161499023438</v>
+      </c>
+      <c r="B404" t="n">
+        <v>60.64162015795609</v>
+      </c>
+      <c r="C404" t="n">
+        <v>-0.6678613642811486</v>
+      </c>
+      <c r="D404" t="n">
+        <v>-0.7766829409513174</v>
+      </c>
+      <c r="E404" t="n">
+        <v>6.91575000895451</v>
+      </c>
+      <c r="F404" t="n">
+        <v>899.6969515931373</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1282211211153392</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0.182420440471482</v>
+      </c>
+      <c r="I404" t="n">
+        <v>0.877160928097319</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>106.8602600097656</v>
+      </c>
+      <c r="B405" t="n">
+        <v>34.00219321440054</v>
+      </c>
+      <c r="C405" t="n">
+        <v>-0.715567244606468</v>
+      </c>
+      <c r="D405" t="n">
+        <v>-0.1100872033729954</v>
+      </c>
+      <c r="E405" t="n">
+        <v>6.942663473051203</v>
+      </c>
+      <c r="F405" t="n">
+        <v>249.5206188725491</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.01660249493121248</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0.1275123986172986</v>
+      </c>
+      <c r="I405" t="n">
+        <v>0.8923174481081908</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>92.04753112792969</v>
+      </c>
+      <c r="B406" t="n">
+        <v>51.2522455891024</v>
+      </c>
+      <c r="C406" t="n">
+        <v>-0.456254441947762</v>
+      </c>
+      <c r="D406" t="n">
+        <v>-0.5466749110903542</v>
+      </c>
+      <c r="E406" t="n">
+        <v>6.861985938169309</v>
+      </c>
+      <c r="F406" t="n">
+        <v>854.3734528186272</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1208854671761584</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0.174104371607673</v>
+      </c>
+      <c r="I406" t="n">
+        <v>0.8366216080263725</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>89.84454345703125</v>
+      </c>
+      <c r="B407" t="n">
+        <v>48.14972892973946</v>
+      </c>
+      <c r="C407" t="n">
+        <v>-0.1236024863325451</v>
+      </c>
+      <c r="D407" t="n">
+        <v>-1.436378367124535</v>
+      </c>
+      <c r="E407" t="n">
+        <v>7.211678416454727</v>
+      </c>
+      <c r="F407" t="n">
+        <v>133.184543504902</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.02199000575578409</v>
+      </c>
+      <c r="H407" t="n">
+        <v>0.2185677959687364</v>
+      </c>
+      <c r="I407" t="n">
+        <v>0.9712907099572876</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>121.8116302490234</v>
+      </c>
+      <c r="B408" t="n">
+        <v>55.99638703481795</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0.03361021613726106</v>
+      </c>
+      <c r="D408" t="n">
+        <v>-0.6859033850052811</v>
+      </c>
+      <c r="E408" t="n">
+        <v>7.658008534640938</v>
+      </c>
+      <c r="F408" t="n">
+        <v>585.9188878676472</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.01444071336847145</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0.1564651313785048</v>
+      </c>
+      <c r="I408" t="n">
+        <v>0.9065316197359549</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>122.1652984619141</v>
+      </c>
+      <c r="B409" t="n">
+        <v>22.35734477762069</v>
+      </c>
+      <c r="C409" t="n">
+        <v>-0.2301711683031963</v>
+      </c>
+      <c r="D409" t="n">
+        <v>0.003984743689508186</v>
+      </c>
+      <c r="E409" t="n">
+        <v>6.498866817561177</v>
+      </c>
+      <c r="F409" t="n">
+        <v>289.3272212009804</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.0171209905973909</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0.09019008226757344</v>
+      </c>
+      <c r="I409" t="n">
+        <v>0.710966500747279</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>105.7758026123047</v>
+      </c>
+      <c r="B410" t="n">
+        <v>42.308714545277</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0.3763172661900706</v>
+      </c>
+      <c r="D410" t="n">
+        <v>-0.3938663164109886</v>
+      </c>
+      <c r="E410" t="n">
+        <v>7.346346666362394</v>
+      </c>
+      <c r="F410" t="n">
+        <v>247.6685049019608</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.01567853849050176</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0.1733930487743296</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0.9305750975125587</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>136.07763671875</v>
+      </c>
+      <c r="B411" t="n">
+        <v>64.14291482385602</v>
+      </c>
+      <c r="C411" t="n">
+        <v>-0.5954664915561096</v>
+      </c>
+      <c r="D411" t="n">
+        <v>-0.8802996258147546</v>
+      </c>
+      <c r="E411" t="n">
+        <v>7.650024009323106</v>
+      </c>
+      <c r="F411" t="n">
+        <v>439.1246936274511</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.01800441236695745</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0.2091588744213448</v>
+      </c>
+      <c r="I411" t="n">
+        <v>0.9466102834415659</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>122.5366363525391</v>
+      </c>
+      <c r="B412" t="n">
+        <v>25.97737781736166</v>
+      </c>
+      <c r="C412" t="n">
+        <v>-0.2739570062184573</v>
+      </c>
+      <c r="D412" t="n">
+        <v>0.06224446217440427</v>
+      </c>
+      <c r="E412" t="n">
+        <v>6.703362704774605</v>
+      </c>
+      <c r="F412" t="n">
+        <v>589.6434589460786</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.01387940349457065</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0.06171521180936004</v>
+      </c>
+      <c r="I412" t="n">
+        <v>0.5633332031465172</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>126.8395080566406</v>
+      </c>
+      <c r="B413" t="n">
+        <v>34.2990976522414</v>
+      </c>
+      <c r="C413" t="n">
+        <v>-1.250535765116197</v>
+      </c>
+      <c r="D413" t="n">
+        <v>1.91073194031081</v>
+      </c>
+      <c r="E413" t="n">
+        <v>6.886231227964337</v>
+      </c>
+      <c r="F413" t="n">
+        <v>296.5336397058824</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.02033300690509104</v>
+      </c>
+      <c r="H413" t="n">
+        <v>0.1674230765357309</v>
+      </c>
+      <c r="I413" t="n">
+        <v>0.8743049878465912</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>137.0093841552734</v>
+      </c>
+      <c r="B414" t="n">
+        <v>61.12912494228991</v>
+      </c>
+      <c r="C414" t="n">
+        <v>-0.5736860508676954</v>
+      </c>
+      <c r="D414" t="n">
+        <v>-0.9210069438704953</v>
+      </c>
+      <c r="E414" t="n">
+        <v>7.628175322813013</v>
+      </c>
+      <c r="F414" t="n">
+        <v>389.9195772058824</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.01504027122649113</v>
+      </c>
+      <c r="H414" t="n">
+        <v>0.1562974263120519</v>
+      </c>
+      <c r="I414" t="n">
+        <v>0.9477883816302478</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>116.6852874755859</v>
+      </c>
+      <c r="B415" t="n">
+        <v>29.6374382733868</v>
+      </c>
+      <c r="C415" t="n">
+        <v>-0.1915535157498585</v>
+      </c>
+      <c r="D415" t="n">
+        <v>0.4943445801471156</v>
+      </c>
+      <c r="E415" t="n">
+        <v>6.913127163217553</v>
+      </c>
+      <c r="F415" t="n">
+        <v>572.7870863970588</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.01242460622882547</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0.05783683419334278</v>
+      </c>
+      <c r="I415" t="n">
+        <v>0.6745051704582822</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>107.1766967773438</v>
+      </c>
+      <c r="B416" t="n">
+        <v>40.53547336596407</v>
+      </c>
+      <c r="C416" t="n">
+        <v>-0.6847344356715411</v>
+      </c>
+      <c r="D416" t="n">
+        <v>0.03197641982985377</v>
+      </c>
+      <c r="E416" t="n">
+        <v>7.142451815484087</v>
+      </c>
+      <c r="F416" t="n">
+        <v>542.6609221813727</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.01537964257944702</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0.1033331715633715</v>
+      </c>
+      <c r="I416" t="n">
+        <v>0.8351289109883913</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>136.9646606445312</v>
+      </c>
+      <c r="B417" t="n">
+        <v>35.87527096828571</v>
+      </c>
+      <c r="C417" t="n">
+        <v>-1.684925275439205</v>
+      </c>
+      <c r="D417" t="n">
+        <v>3.368016003597141</v>
+      </c>
+      <c r="E417" t="n">
+        <v>6.785252730250203</v>
+      </c>
+      <c r="F417" t="n">
+        <v>432.5077971813726</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.02018459223642432</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0.1334539030668039</v>
+      </c>
+      <c r="I417" t="n">
+        <v>0.832044823920006</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>134.8856201171875</v>
+      </c>
+      <c r="B418" t="n">
+        <v>29.76179299080558</v>
+      </c>
+      <c r="C418" t="n">
+        <v>0.02948245949217583</v>
+      </c>
+      <c r="D418" t="n">
+        <v>0.1102122233520069</v>
+      </c>
+      <c r="E418" t="n">
+        <v>6.845880164540386</v>
+      </c>
+      <c r="F418" t="n">
+        <v>18.39269301470589</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.03907200240054061</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0.404957308835626</v>
+      </c>
+      <c r="I418" t="n">
+        <v>0.9896457762156007</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>232.4337005615234</v>
+      </c>
+      <c r="B419" t="n">
+        <v>39.36498429647599</v>
+      </c>
+      <c r="C419" t="n">
+        <v>-2.781838242935655</v>
+      </c>
+      <c r="D419" t="n">
+        <v>8.221551411023031</v>
+      </c>
+      <c r="E419" t="n">
+        <v>5.495494129103522</v>
+      </c>
+      <c r="F419" t="n">
+        <v>924.3154718137255</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1175432273087564</v>
+      </c>
+      <c r="H419" t="n">
+        <v>0.2515410034886733</v>
+      </c>
+      <c r="I419" t="n">
+        <v>0.7025433378060991</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>133.2546539306641</v>
+      </c>
+      <c r="B420" t="n">
+        <v>25.67668279184405</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0.4655403063616388</v>
+      </c>
+      <c r="D420" t="n">
+        <v>0.1772156021362821</v>
+      </c>
+      <c r="E420" t="n">
+        <v>6.677591008035743</v>
+      </c>
+      <c r="F420" t="n">
+        <v>40.0125</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.0319749846632859</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0.3097459736619897</v>
+      </c>
+      <c r="I420" t="n">
+        <v>0.9696981428764493</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>122.8805389404297</v>
+      </c>
+      <c r="B421" t="n">
+        <v>48.85474207955394</v>
+      </c>
+      <c r="C421" t="n">
+        <v>-0.9339050645327318</v>
+      </c>
+      <c r="D421" t="n">
+        <v>0.2207216896155653</v>
+      </c>
+      <c r="E421" t="n">
+        <v>7.281937796182111</v>
+      </c>
+      <c r="F421" t="n">
+        <v>559.2510110294118</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.01729844092822221</v>
+      </c>
+      <c r="H421" t="n">
+        <v>0.1491143947640686</v>
+      </c>
+      <c r="I421" t="n">
+        <v>0.8831355506933362</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>162.8961944580078</v>
+      </c>
+      <c r="B422" t="n">
+        <v>49.95531615580903</v>
+      </c>
+      <c r="C422" t="n">
+        <v>-0.6240081052091703</v>
+      </c>
+      <c r="D422" t="n">
+        <v>-0.4286038374812002</v>
+      </c>
+      <c r="E422" t="n">
+        <v>7.471933460843553</v>
+      </c>
+      <c r="F422" t="n">
+        <v>508.0278952205883</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.01800712312902299</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0.1636367651302561</v>
+      </c>
+      <c r="I422" t="n">
+        <v>0.8982788277636296</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>116.730712890625</v>
+      </c>
+      <c r="B423" t="n">
+        <v>31.6103335955053</v>
+      </c>
+      <c r="C423" t="n">
+        <v>-0.7248277316012445</v>
+      </c>
+      <c r="D423" t="n">
+        <v>0.3798026343132075</v>
+      </c>
+      <c r="E423" t="n">
+        <v>6.921819437263042</v>
+      </c>
+      <c r="F423" t="n">
+        <v>217.0174325980392</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.01666882070945495</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0.1183803145232712</v>
+      </c>
+      <c r="I423" t="n">
+        <v>0.8914789934253423</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>118.4481964111328</v>
+      </c>
+      <c r="B424" t="n">
+        <v>30.67392460009895</v>
+      </c>
+      <c r="C424" t="n">
+        <v>0.609314152356496</v>
+      </c>
+      <c r="D424" t="n">
+        <v>-0.4543607764477167</v>
+      </c>
+      <c r="E424" t="n">
+        <v>6.722598260172456</v>
+      </c>
+      <c r="F424" t="n">
+        <v>182.131556372549</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.02287040810346969</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0.1941790200576758</v>
+      </c>
+      <c r="I424" t="n">
+        <v>0.9033875344271347</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>118.7644195556641</v>
+      </c>
+      <c r="B425" t="n">
+        <v>46.38980300166145</v>
+      </c>
+      <c r="C425" t="n">
+        <v>-0.5080518031237952</v>
+      </c>
+      <c r="D425" t="n">
+        <v>-0.6086829364750548</v>
+      </c>
+      <c r="E425" t="n">
+        <v>7.385160941313659</v>
+      </c>
+      <c r="F425" t="n">
+        <v>939.3807598039216</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.01034360188529862</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0.06502636689462735</v>
+      </c>
+      <c r="I425" t="n">
+        <v>0.7822270636288711</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>110.6005859375</v>
+      </c>
+      <c r="B426" t="n">
+        <v>51.16307428756715</v>
+      </c>
+      <c r="C426" t="n">
+        <v>-0.3881903246603866</v>
+      </c>
+      <c r="D426" t="n">
+        <v>-0.7048495085700459</v>
+      </c>
+      <c r="E426" t="n">
+        <v>7.331806218185879</v>
+      </c>
+      <c r="F426" t="n">
+        <v>1085.280208333333</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.0207655846777914</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0.1058343776935775</v>
+      </c>
+      <c r="I426" t="n">
+        <v>0.7929757113199644</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>228.5311737060547</v>
+      </c>
+      <c r="B427" t="n">
+        <v>60.32527015168584</v>
+      </c>
+      <c r="C427" t="n">
+        <v>-2.438142557851051</v>
+      </c>
+      <c r="D427" t="n">
+        <v>4.657967537597034</v>
+      </c>
+      <c r="E427" t="n">
+        <v>3.879137820310321</v>
+      </c>
+      <c r="F427" t="n">
+        <v>752.1609375</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.468909538382358</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0.5827824493580561</v>
+      </c>
+      <c r="I427" t="n">
+        <v>0.8969860082635525</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>118.8392181396484</v>
+      </c>
+      <c r="B428" t="n">
+        <v>44.08802051441985</v>
+      </c>
+      <c r="C428" t="n">
+        <v>-0.4865531811897263</v>
+      </c>
+      <c r="D428" t="n">
+        <v>-0.18317490176603</v>
+      </c>
+      <c r="E428" t="n">
+        <v>7.377942767430981</v>
+      </c>
+      <c r="F428" t="n">
+        <v>792.5073682598039</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.01082557766811211</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0.07395869468298652</v>
+      </c>
+      <c r="I428" t="n">
+        <v>0.7964370383472209</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>124.3042602539062</v>
+      </c>
+      <c r="B429" t="n">
+        <v>41.73316278909959</v>
+      </c>
+      <c r="C429" t="n">
+        <v>-1.124751940207631</v>
+      </c>
+      <c r="D429" t="n">
+        <v>1.316415362475865</v>
+      </c>
+      <c r="E429" t="n">
+        <v>7.101461425952018</v>
+      </c>
+      <c r="F429" t="n">
+        <v>711.3898131127453</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.01645544329979775</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0.1239832156688309</v>
+      </c>
+      <c r="I429" t="n">
+        <v>0.7961397845689726</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>119.4949493408203</v>
+      </c>
+      <c r="B430" t="n">
+        <v>60.55018745074965</v>
+      </c>
+      <c r="C430" t="n">
+        <v>-0.5632327809089883</v>
+      </c>
+      <c r="D430" t="n">
+        <v>-0.8824583788224722</v>
+      </c>
+      <c r="E430" t="n">
+        <v>7.486127380383949</v>
+      </c>
+      <c r="F430" t="n">
+        <v>559.6947457107843</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.02075090020767932</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0.1995110866455028</v>
+      </c>
+      <c r="I430" t="n">
+        <v>0.9236650642840417</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>129.9545135498047</v>
+      </c>
+      <c r="B431" t="n">
+        <v>47.36928995469481</v>
+      </c>
+      <c r="C431" t="n">
+        <v>-0.6053313521338007</v>
+      </c>
+      <c r="D431" t="n">
+        <v>-0.2291849179284284</v>
+      </c>
+      <c r="E431" t="n">
+        <v>7.390632478566721</v>
+      </c>
+      <c r="F431" t="n">
+        <v>486.812362132353</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.01416737029894836</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0.1339146174288208</v>
+      </c>
+      <c r="I431" t="n">
+        <v>0.8915115944380819</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>119.7513275146484</v>
+      </c>
+      <c r="B432" t="n">
+        <v>29.86410729535942</v>
+      </c>
+      <c r="C432" t="n">
+        <v>-1.374155438295903</v>
+      </c>
+      <c r="D432" t="n">
+        <v>2.621346228730741</v>
+      </c>
+      <c r="E432" t="n">
+        <v>6.687514275404618</v>
+      </c>
+      <c r="F432" t="n">
+        <v>484.3305147058825</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.015009784960878</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0.06756110486561789</v>
+      </c>
+      <c r="I432" t="n">
+        <v>0.7291108377468449</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>116.9570617675781</v>
+      </c>
+      <c r="B433" t="n">
+        <v>47.53346040389183</v>
+      </c>
+      <c r="C433" t="n">
+        <v>-0.5514322473974839</v>
+      </c>
+      <c r="D433" t="n">
+        <v>-0.4015714759894586</v>
+      </c>
+      <c r="E433" t="n">
+        <v>7.312630913996552</v>
+      </c>
+      <c r="F433" t="n">
+        <v>1035.577022058824</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.0141857603419245</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0.08518283054057184</v>
+      </c>
+      <c r="I433" t="n">
+        <v>0.7712680570529846</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>168.2598876953125</v>
+      </c>
+      <c r="B434" t="n">
+        <v>38.28626473706575</v>
+      </c>
+      <c r="C434" t="n">
+        <v>-0.8794556721789797</v>
+      </c>
+      <c r="D434" t="n">
+        <v>0.233594861084232</v>
+      </c>
+      <c r="E434" t="n">
+        <v>7.096588907336343</v>
+      </c>
+      <c r="F434" t="n">
+        <v>298.1652113970589</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.02063930243877136</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0.1498405199199601</v>
+      </c>
+      <c r="I434" t="n">
+        <v>0.8985346378060286</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>119.4916534423828</v>
+      </c>
+      <c r="B435" t="n">
+        <v>60.55932400174119</v>
+      </c>
+      <c r="C435" t="n">
+        <v>-0.5635856090295639</v>
+      </c>
+      <c r="D435" t="n">
+        <v>-0.8820040427104376</v>
+      </c>
+      <c r="E435" t="n">
+        <v>7.486235629981362</v>
+      </c>
+      <c r="F435" t="n">
+        <v>559.5209865196077</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.02073036522518408</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0.1992731185744196</v>
+      </c>
+      <c r="I435" t="n">
+        <v>0.9237115605670677</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>140.5998229980469</v>
+      </c>
+      <c r="B436" t="n">
+        <v>26.46066213445291</v>
+      </c>
+      <c r="C436" t="n">
+        <v>0.07618334880649202</v>
+      </c>
+      <c r="D436" t="n">
+        <v>-1.043376264149637</v>
+      </c>
+      <c r="E436" t="n">
+        <v>6.554212708582876</v>
+      </c>
+      <c r="F436" t="n">
+        <v>24.38491115196079</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.03258431578942123</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0.3165452815473576</v>
+      </c>
+      <c r="I436" t="n">
+        <v>0.982622313728265</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>115.7751770019531</v>
+      </c>
+      <c r="B437" t="n">
+        <v>39.46196943290902</v>
+      </c>
+      <c r="C437" t="n">
+        <v>-0.9998409195688592</v>
+      </c>
+      <c r="D437" t="n">
+        <v>1.014238087791282</v>
+      </c>
+      <c r="E437" t="n">
+        <v>7.097622204512108</v>
+      </c>
+      <c r="F437" t="n">
+        <v>509.1030637254901</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.01478992656114505</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0.112323029093973</v>
+      </c>
+      <c r="I437" t="n">
+        <v>0.8369282298168488</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>104.9645843505859</v>
+      </c>
+      <c r="B438" t="n">
+        <v>36.64649240074246</v>
+      </c>
+      <c r="C438" t="n">
+        <v>-0.5314250585679064</v>
+      </c>
+      <c r="D438" t="n">
+        <v>0.1470655161831242</v>
+      </c>
+      <c r="E438" t="n">
+        <v>7.133690432465425</v>
+      </c>
+      <c r="F438" t="n">
+        <v>410.2554534313726</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.01296536990769185</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0.09187279014034937</v>
+      </c>
+      <c r="I438" t="n">
+        <v>0.8474510800074827</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>129.1790771484375</v>
+      </c>
+      <c r="B439" t="n">
+        <v>41.29063723023433</v>
+      </c>
+      <c r="C439" t="n">
+        <v>-0.6568717730232958</v>
+      </c>
+      <c r="D439" t="n">
+        <v>0.1958371373133314</v>
+      </c>
+      <c r="E439" t="n">
+        <v>7.265077447332391</v>
+      </c>
+      <c r="F439" t="n">
+        <v>866.9079044117648</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.01099700355096394</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0.06518783886766057</v>
+      </c>
+      <c r="I439" t="n">
+        <v>0.7461619450716271</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>134.0792388916016</v>
+      </c>
+      <c r="B440" t="n">
+        <v>37.98866695507034</v>
+      </c>
+      <c r="C440" t="n">
+        <v>-0.3752933021771033</v>
+      </c>
+      <c r="D440" t="n">
+        <v>0.2597480085067119</v>
+      </c>
+      <c r="E440" t="n">
+        <v>7.232884556721855</v>
+      </c>
+      <c r="F440" t="n">
+        <v>810.1808210784313</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.01094481359396503</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0.06298821007910063</v>
+      </c>
+      <c r="I440" t="n">
+        <v>0.7196741642563318</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>137.0952911376953</v>
+      </c>
+      <c r="B441" t="n">
+        <v>43.96351704650232</v>
+      </c>
+      <c r="C441" t="n">
+        <v>-0.4278368456332353</v>
+      </c>
+      <c r="D441" t="n">
+        <v>-0.1051248147059134</v>
+      </c>
+      <c r="E441" t="n">
+        <v>7.447457638495772</v>
+      </c>
+      <c r="F441" t="n">
+        <v>1110.274264705883</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.00905930728007656</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0.05046937423580293</v>
+      </c>
+      <c r="I441" t="n">
+        <v>0.7132602354176394</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>137.8029632568359</v>
+      </c>
+      <c r="B442" t="n">
+        <v>36.12868064731659</v>
+      </c>
+      <c r="C442" t="n">
+        <v>-1.179953750671316</v>
+      </c>
+      <c r="D442" t="n">
+        <v>2.365311437625135</v>
+      </c>
+      <c r="E442" t="n">
+        <v>6.99306074122919</v>
+      </c>
+      <c r="F442" t="n">
+        <v>593.0929381127452</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.01592058694105447</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0.1094961621052966</v>
+      </c>
+      <c r="I442" t="n">
+        <v>0.7730304431131336</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>112.9045562744141</v>
+      </c>
+      <c r="B443" t="n">
+        <v>47.13208602117204</v>
+      </c>
+      <c r="C443" t="n">
+        <v>-0.5243009717868317</v>
+      </c>
+      <c r="D443" t="n">
+        <v>-0.5138976278733494</v>
+      </c>
+      <c r="E443" t="n">
+        <v>7.383452817663101</v>
+      </c>
+      <c r="F443" t="n">
+        <v>922.3090533088234</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.0123051016871653</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0.07938494806659188</v>
+      </c>
+      <c r="I443" t="n">
+        <v>0.7927095158224979</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>129.6007537841797</v>
+      </c>
+      <c r="B444" t="n">
+        <v>42.1739573754494</v>
+      </c>
+      <c r="C444" t="n">
+        <v>-1.172530426479483</v>
+      </c>
+      <c r="D444" t="n">
+        <v>1.191078111602858</v>
+      </c>
+      <c r="E444" t="n">
+        <v>7.062498275719927</v>
+      </c>
+      <c r="F444" t="n">
+        <v>572.926531862745</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.0145623355587688</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0.1031099687388105</v>
+      </c>
+      <c r="I444" t="n">
+        <v>0.838862405455009</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>124.5915985107422</v>
+      </c>
+      <c r="B445" t="n">
+        <v>39.51720510255156</v>
+      </c>
+      <c r="C445" t="n">
+        <v>-1.472182121244984</v>
+      </c>
+      <c r="D445" t="n">
+        <v>1.866614599690006</v>
+      </c>
+      <c r="E445" t="n">
+        <v>6.887936921862219</v>
+      </c>
+      <c r="F445" t="n">
+        <v>555.3369332107843</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.01511725795372481</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0.07576627270034544</v>
+      </c>
+      <c r="I445" t="n">
+        <v>0.8226533785980314</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>191.8729858398438</v>
+      </c>
+      <c r="B446" t="n">
+        <v>48.91353385476184</v>
+      </c>
+      <c r="C446" t="n">
+        <v>-0.4869680728890156</v>
+      </c>
+      <c r="D446" t="n">
+        <v>-0.9862411499820518</v>
+      </c>
+      <c r="E446" t="n">
+        <v>7.183859054857119</v>
+      </c>
+      <c r="F446" t="n">
+        <v>890.3904718137255</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.02495791344025061</v>
+      </c>
+      <c r="H446" t="n">
+        <v>0.08127189863257012</v>
+      </c>
+      <c r="I446" t="n">
+        <v>0.8139503365665588</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>117.1371002197266</v>
+      </c>
+      <c r="B447" t="n">
+        <v>50.81875765578309</v>
+      </c>
+      <c r="C447" t="n">
+        <v>-0.641021902586808</v>
+      </c>
+      <c r="D447" t="n">
+        <v>-0.8147489678579882</v>
+      </c>
+      <c r="E447" t="n">
+        <v>7.376501542133159</v>
+      </c>
+      <c r="F447" t="n">
+        <v>521.5790900735295</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.01397443415953061</v>
+      </c>
+      <c r="H447" t="n">
+        <v>0.1140401631880799</v>
+      </c>
+      <c r="I447" t="n">
+        <v>0.8991059903360055</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>122.38427734375</v>
+      </c>
+      <c r="B448" t="n">
+        <v>61.5971017774226</v>
+      </c>
+      <c r="C448" t="n">
+        <v>-0.3378656556023754</v>
+      </c>
+      <c r="D448" t="n">
+        <v>-1.072229878740857</v>
+      </c>
+      <c r="E448" t="n">
+        <v>7.653240755197486</v>
+      </c>
+      <c r="F448" t="n">
+        <v>517.5691176470589</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.01688172517268553</v>
+      </c>
+      <c r="H448" t="n">
+        <v>0.1919677778872821</v>
+      </c>
+      <c r="I448" t="n">
+        <v>0.9316892868983416</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>97.81233215332031</v>
+      </c>
+      <c r="B449" t="n">
+        <v>25.2345790412228</v>
+      </c>
+      <c r="C449" t="n">
+        <v>0.3135273087462967</v>
+      </c>
+      <c r="D449" t="n">
+        <v>-0.5578120623026392</v>
+      </c>
+      <c r="E449" t="n">
+        <v>6.570458426562745</v>
+      </c>
+      <c r="F449" t="n">
+        <v>81.70107230392159</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.02462273881676195</v>
+      </c>
+      <c r="H449" t="n">
+        <v>0.2158246613862907</v>
+      </c>
+      <c r="I449" t="n">
+        <v>0.9357519064423774</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>106.2232971191406</v>
+      </c>
+      <c r="B450" t="n">
+        <v>23.67806175275516</v>
+      </c>
+      <c r="C450" t="n">
+        <v>-0.1803958264648803</v>
+      </c>
+      <c r="D450" t="n">
+        <v>-0.1603558882091067</v>
+      </c>
+      <c r="E450" t="n">
+        <v>6.568496901505373</v>
+      </c>
+      <c r="F450" t="n">
+        <v>373.77578125</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.01576245825179594</v>
+      </c>
+      <c r="H450" t="n">
+        <v>0.08018600344299476</v>
+      </c>
+      <c r="I450" t="n">
+        <v>0.667130466884215</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>139.7759094238281</v>
+      </c>
+      <c r="B451" t="n">
+        <v>50.93941279926176</v>
+      </c>
+      <c r="C451" t="n">
+        <v>-0.3296678711189334</v>
+      </c>
+      <c r="D451" t="n">
+        <v>-0.4563315289792897</v>
+      </c>
+      <c r="E451" t="n">
+        <v>7.595076036877026</v>
+      </c>
+      <c r="F451" t="n">
+        <v>333.7429993872549</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.01379467705957832</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0.1444656494521396</v>
+      </c>
+      <c r="I451" t="n">
+        <v>0.9356256790878409</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>164.4815521240234</v>
+      </c>
+      <c r="B452" t="n">
+        <v>27.55795221406178</v>
+      </c>
+      <c r="C452" t="n">
+        <v>-0.203093993933303</v>
+      </c>
+      <c r="D452" t="n">
+        <v>0.5829195102438427</v>
+      </c>
+      <c r="E452" t="n">
+        <v>6.741730420669921</v>
+      </c>
+      <c r="F452" t="n">
+        <v>44.55510110294117</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.03791953496374065</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0.3119130437773692</v>
+      </c>
+      <c r="I452" t="n">
+        <v>0.9707043132122211</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>156.0648193359375</v>
+      </c>
+      <c r="B453" t="n">
+        <v>60.11894625730273</v>
+      </c>
+      <c r="C453" t="n">
+        <v>-0.7899619888475298</v>
+      </c>
+      <c r="D453" t="n">
+        <v>-0.3391852098182033</v>
+      </c>
+      <c r="E453" t="n">
+        <v>7.551020464040819</v>
+      </c>
+      <c r="F453" t="n">
+        <v>246.6340073529412</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.02231440857543321</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0.2104992998174253</v>
+      </c>
+      <c r="I453" t="n">
+        <v>0.9659390606257472</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>143.5903778076172</v>
+      </c>
+      <c r="B454" t="n">
+        <v>35.98290624467162</v>
+      </c>
+      <c r="C454" t="n">
+        <v>-1.017090599963505</v>
+      </c>
+      <c r="D454" t="n">
+        <v>1.481599611479674</v>
+      </c>
+      <c r="E454" t="n">
+        <v>7.044430415768288</v>
+      </c>
+      <c r="F454" t="n">
+        <v>430.9781556372549</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.0146308691144631</v>
+      </c>
+      <c r="H454" t="n">
+        <v>0.1061689031917886</v>
+      </c>
+      <c r="I454" t="n">
+        <v>0.8339758162446105</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>136.6104888916016</v>
+      </c>
+      <c r="B455" t="n">
+        <v>37.0400161758651</v>
+      </c>
+      <c r="C455" t="n">
+        <v>-1.420259035344816</v>
+      </c>
+      <c r="D455" t="n">
+        <v>2.742841299534295</v>
+      </c>
+      <c r="E455" t="n">
+        <v>6.973199323148444</v>
+      </c>
+      <c r="F455" t="n">
+        <v>452.1842830882353</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.01459513934501759</v>
+      </c>
+      <c r="H455" t="n">
+        <v>0.09215490667012101</v>
+      </c>
+      <c r="I455" t="n">
+        <v>0.8354332282285103</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>89.41184997558594</v>
+      </c>
+      <c r="B456" t="n">
+        <v>24.65731588976482</v>
+      </c>
+      <c r="C456" t="n">
+        <v>-0.3218589591504629</v>
+      </c>
+      <c r="D456" t="n">
+        <v>-0.3104741206911421</v>
+      </c>
+      <c r="E456" t="n">
+        <v>6.636368936562321</v>
+      </c>
+      <c r="F456" t="n">
+        <v>100.5046262254902</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.02275994425665582</v>
+      </c>
+      <c r="H456" t="n">
+        <v>0.1957953825336814</v>
+      </c>
+      <c r="I456" t="n">
+        <v>0.9173238842817498</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>122.7458648681641</v>
+      </c>
+      <c r="B457" t="n">
+        <v>66.93976314982369</v>
+      </c>
+      <c r="C457" t="n">
+        <v>-0.4502087954561164</v>
+      </c>
+      <c r="D457" t="n">
+        <v>-1.140005929695905</v>
+      </c>
+      <c r="E457" t="n">
+        <v>7.6341695827538</v>
+      </c>
+      <c r="F457" t="n">
+        <v>696.9642769607846</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.01488530821949482</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0.154760414156915</v>
+      </c>
+      <c r="I457" t="n">
+        <v>0.9222878150838399</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>122.5978393554688</v>
+      </c>
+      <c r="B458" t="n">
+        <v>30.53911762465564</v>
+      </c>
+      <c r="C458" t="n">
+        <v>-1.412352173813089</v>
+      </c>
+      <c r="D458" t="n">
+        <v>1.500580771105813</v>
+      </c>
+      <c r="E458" t="n">
+        <v>6.556308019757379</v>
+      </c>
+      <c r="F458" t="n">
+        <v>187.2180606617647</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.02426208494027315</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0.147499031756235</v>
+      </c>
+      <c r="I458" t="n">
+        <v>0.8998183679605332</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>127.5079498291016</v>
+      </c>
+      <c r="B459" t="n">
+        <v>37.01944115885976</v>
+      </c>
+      <c r="C459" t="n">
+        <v>-1.303222526362431</v>
+      </c>
+      <c r="D459" t="n">
+        <v>2.491828056707915</v>
+      </c>
+      <c r="E459" t="n">
+        <v>6.949171028092397</v>
+      </c>
+      <c r="F459" t="n">
+        <v>674.8260416666668</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.01543628224451702</v>
+      </c>
+      <c r="H459" t="n">
+        <v>0.1025043571173658</v>
+      </c>
+      <c r="I459" t="n">
+        <v>0.754073927897422</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>117.4163970947266</v>
+      </c>
+      <c r="B460" t="n">
+        <v>30.95196748305038</v>
+      </c>
+      <c r="C460" t="n">
+        <v>-0.5369158409951519</v>
+      </c>
+      <c r="D460" t="n">
+        <v>0.2580329834310837</v>
+      </c>
+      <c r="E460" t="n">
+        <v>6.951798004069724</v>
+      </c>
+      <c r="F460" t="n">
+        <v>781.1973345588237</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.01142547815305984</v>
+      </c>
+      <c r="H460" t="n">
+        <v>0.04872690772162535</v>
+      </c>
+      <c r="I460" t="n">
+        <v>0.5927282978797537</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>111.9371490478516</v>
+      </c>
+      <c r="B461" t="n">
+        <v>32.41923514218222</v>
+      </c>
+      <c r="C461" t="n">
+        <v>-0.516934211460698</v>
+      </c>
+      <c r="D461" t="n">
+        <v>-0.6692907689962042</v>
+      </c>
+      <c r="E461" t="n">
+        <v>6.911257175718697</v>
+      </c>
+      <c r="F461" t="n">
+        <v>261.2255514705883</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.01571410459202448</v>
+      </c>
+      <c r="H461" t="n">
+        <v>0.1100848576356942</v>
+      </c>
+      <c r="I461" t="n">
+        <v>0.8757007000163605</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>137.0997009277344</v>
+      </c>
+      <c r="B462" t="n">
+        <v>45.87098390286823</v>
+      </c>
+      <c r="C462" t="n">
+        <v>-0.7792064741392613</v>
+      </c>
+      <c r="D462" t="n">
+        <v>0.5660356755468161</v>
+      </c>
+      <c r="E462" t="n">
+        <v>7.391345722774926</v>
+      </c>
+      <c r="F462" t="n">
+        <v>1147.155897671569</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.009864315931691417</v>
+      </c>
+      <c r="H462" t="n">
+        <v>0.05673131881815498</v>
+      </c>
+      <c r="I462" t="n">
+        <v>0.7278514136166091</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>129.5795288085938</v>
+      </c>
+      <c r="B463" t="n">
+        <v>50.11108136635761</v>
+      </c>
+      <c r="C463" t="n">
+        <v>-0.808211960523011</v>
+      </c>
+      <c r="D463" t="n">
+        <v>-0.02326930154752915</v>
+      </c>
+      <c r="E463" t="n">
+        <v>7.349879500251597</v>
+      </c>
+      <c r="F463" t="n">
+        <v>817.0599877450979</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.01513698992409581</v>
+      </c>
+      <c r="H463" t="n">
+        <v>0.1182542033082137</v>
+      </c>
+      <c r="I463" t="n">
+        <v>0.8375729940348929</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>114.7081146240234</v>
+      </c>
+      <c r="B464" t="n">
+        <v>40.68636769764865</v>
+      </c>
+      <c r="C464" t="n">
+        <v>-0.6177847828814693</v>
+      </c>
+      <c r="D464" t="n">
+        <v>0.2062529311881058</v>
+      </c>
+      <c r="E464" t="n">
+        <v>7.174684543272909</v>
+      </c>
+      <c r="F464" t="n">
+        <v>831.7042892156865</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.01367207881775357</v>
+      </c>
+      <c r="H464" t="n">
+        <v>0.08504179404128001</v>
+      </c>
+      <c r="I464" t="n">
+        <v>0.74935776245837</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>107.3435821533203</v>
+      </c>
+      <c r="B465" t="n">
+        <v>49.66875699222352</v>
+      </c>
+      <c r="C465" t="n">
+        <v>-0.3647929995012367</v>
+      </c>
+      <c r="D465" t="n">
+        <v>-0.6085274972210493</v>
+      </c>
+      <c r="E465" t="n">
+        <v>7.508999732116698</v>
+      </c>
+      <c r="F465" t="n">
+        <v>750.6927236519605</v>
+      </c>
+      <c r="G465" t="n">
+        <v>0.01170389252633182</v>
+      </c>
+      <c r="H465" t="n">
+        <v>0.09147987475092553</v>
+      </c>
+      <c r="I465" t="n">
+        <v>0.8474875635032871</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>100.4167938232422</v>
+      </c>
+      <c r="B466" t="n">
+        <v>58.57769679527841</v>
+      </c>
+      <c r="C466" t="n">
+        <v>-0.2604892000095879</v>
+      </c>
+      <c r="D466" t="n">
+        <v>-1.225001141586036</v>
+      </c>
+      <c r="E466" t="n">
+        <v>7.470020567320926</v>
+      </c>
+      <c r="F466" t="n">
+        <v>440.2375000000001</v>
+      </c>
+      <c r="G466" t="n">
+        <v>0.02675992785372007</v>
+      </c>
+      <c r="H466" t="n">
+        <v>0.1826942151807423</v>
+      </c>
+      <c r="I466" t="n">
+        <v>0.9358743816993724</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>114.7514801025391</v>
+      </c>
+      <c r="B467" t="n">
+        <v>32.39159904083294</v>
+      </c>
+      <c r="C467" t="n">
+        <v>-0.7367109462798204</v>
+      </c>
+      <c r="D467" t="n">
+        <v>-0.4087649639421018</v>
+      </c>
+      <c r="E467" t="n">
+        <v>6.798932377774256</v>
+      </c>
+      <c r="F467" t="n">
+        <v>31.44784007352942</v>
+      </c>
+      <c r="G467" t="n">
+        <v>0.03259058060956377</v>
+      </c>
+      <c r="H467" t="n">
+        <v>0.3418832671685928</v>
+      </c>
+      <c r="I467" t="n">
+        <v>0.9850360359270409</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>115.1348876953125</v>
+      </c>
+      <c r="B468" t="n">
+        <v>44.18717567383501</v>
+      </c>
+      <c r="C468" t="n">
+        <v>-0.2813914881977876</v>
+      </c>
+      <c r="D468" t="n">
+        <v>-0.6792122056395442</v>
+      </c>
+      <c r="E468" t="n">
+        <v>7.38441420692552</v>
+      </c>
+      <c r="F468" t="n">
+        <v>697.6888020833336</v>
+      </c>
+      <c r="G468" t="n">
+        <v>0.01082976041943046</v>
+      </c>
+      <c r="H468" t="n">
+        <v>0.08184085603159558</v>
+      </c>
+      <c r="I468" t="n">
+        <v>0.8215263815638697</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>109.3414459228516</v>
+      </c>
+      <c r="B469" t="n">
+        <v>49.77984865670352</v>
+      </c>
+      <c r="C469" t="n">
+        <v>-0.3680689451089663</v>
+      </c>
+      <c r="D469" t="n">
+        <v>-0.8698178308555642</v>
+      </c>
+      <c r="E469" t="n">
+        <v>7.478547491104626</v>
+      </c>
+      <c r="F469" t="n">
+        <v>197.6137101715687</v>
+      </c>
+      <c r="G469" t="n">
+        <v>0.01690371496046443</v>
+      </c>
+      <c r="H469" t="n">
+        <v>0.1903668295431589</v>
+      </c>
+      <c r="I469" t="n">
+        <v>0.96017097115429</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>126.8410034179688</v>
+      </c>
+      <c r="B470" t="n">
+        <v>34.29955126757805</v>
+      </c>
+      <c r="C470" t="n">
+        <v>-1.250520602341538</v>
+      </c>
+      <c r="D470" t="n">
+        <v>1.910739619324342</v>
+      </c>
+      <c r="E470" t="n">
+        <v>6.886279447162567</v>
+      </c>
+      <c r="F470" t="n">
+        <v>296.5053615196079</v>
+      </c>
+      <c r="G470" t="n">
+        <v>0.02032840158117672</v>
+      </c>
+      <c r="H470" t="n">
+        <v>0.1671973381713</v>
+      </c>
+      <c r="I470" t="n">
+        <v>0.8743205320097754</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>109.2727203369141</v>
+      </c>
+      <c r="B471" t="n">
+        <v>36.21052004491924</v>
+      </c>
+      <c r="C471" t="n">
+        <v>0.06339158381161807</v>
+      </c>
+      <c r="D471" t="n">
+        <v>-0.5176106287496363</v>
+      </c>
+      <c r="E471" t="n">
+        <v>7.085689593442948</v>
+      </c>
+      <c r="F471" t="n">
+        <v>28.00606617647059</v>
+      </c>
+      <c r="G471" t="n">
+        <v>0.03839830848481358</v>
+      </c>
+      <c r="H471" t="n">
+        <v>0.386364265113555</v>
+      </c>
+      <c r="I471" t="n">
+        <v>0.989342994757504</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>145.1121063232422</v>
+      </c>
+      <c r="B472" t="n">
+        <v>31.0517670980501</v>
+      </c>
+      <c r="C472" t="n">
+        <v>-0.9326253038445923</v>
+      </c>
+      <c r="D472" t="n">
+        <v>0.1147273549387791</v>
+      </c>
+      <c r="E472" t="n">
+        <v>6.702014272298222</v>
+      </c>
+      <c r="F472" t="n">
+        <v>161.8443627450981</v>
+      </c>
+      <c r="G472" t="n">
+        <v>0.0251080855663737</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0.1861247149269119</v>
+      </c>
+      <c r="I472" t="n">
+        <v>0.9160220361266181</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>158.6514129638672</v>
+      </c>
+      <c r="B473" t="n">
+        <v>59.74331659954603</v>
+      </c>
+      <c r="C473" t="n">
+        <v>-0.6856843317530714</v>
+      </c>
+      <c r="D473" t="n">
+        <v>-0.6067237827913057</v>
+      </c>
+      <c r="E473" t="n">
+        <v>7.572525514525268</v>
+      </c>
+      <c r="F473" t="n">
+        <v>469.817800245098</v>
+      </c>
+      <c r="G473" t="n">
+        <v>0.01779286109544076</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0.1761429370020253</v>
+      </c>
+      <c r="I473" t="n">
+        <v>0.9342587797803987</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>131.7844848632812</v>
+      </c>
+      <c r="B474" t="n">
+        <v>18.62659424550775</v>
+      </c>
+      <c r="C474" t="n">
+        <v>-0.9189025135576577</v>
+      </c>
+      <c r="D474" t="n">
+        <v>2.481048658820057</v>
+      </c>
+      <c r="E474" t="n">
+        <v>6.119078838780377</v>
+      </c>
+      <c r="F474" t="n">
+        <v>109.0360447303921</v>
+      </c>
+      <c r="G474" t="n">
+        <v>0.03718419406851312</v>
+      </c>
+      <c r="H474" t="n">
+        <v>0.2729555805299484</v>
+      </c>
+      <c r="I474" t="n">
+        <v>0.8429452911839401</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>105.2342987060547</v>
+      </c>
+      <c r="B475" t="n">
+        <v>26.32609162660043</v>
+      </c>
+      <c r="C475" t="n">
+        <v>-0.4362364801629555</v>
+      </c>
+      <c r="D475" t="n">
+        <v>-0.4388960245732227</v>
+      </c>
+      <c r="E475" t="n">
+        <v>6.640136508760121</v>
+      </c>
+      <c r="F475" t="n">
+        <v>132.6996170343138</v>
+      </c>
+      <c r="G475" t="n">
+        <v>0.02129574629975488</v>
+      </c>
+      <c r="H475" t="n">
+        <v>0.1630058409013054</v>
+      </c>
+      <c r="I475" t="n">
+        <v>0.9043832727790855</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>121.6776275634766</v>
+      </c>
+      <c r="B476" t="n">
+        <v>25.05026265614899</v>
+      </c>
+      <c r="C476" t="n">
+        <v>-0.08672262598445209</v>
+      </c>
+      <c r="D476" t="n">
+        <v>-0.1692061905552706</v>
+      </c>
+      <c r="E476" t="n">
+        <v>6.498988384664563</v>
+      </c>
+      <c r="F476" t="n">
+        <v>80.78757659313726</v>
+      </c>
+      <c r="G476" t="n">
+        <v>0.0293700556997926</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0.246323599883241</v>
+      </c>
+      <c r="I476" t="n">
+        <v>0.9356335092657371</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>240.5009155273438</v>
+      </c>
+      <c r="B477" t="n">
+        <v>41.04363291216564</v>
+      </c>
+      <c r="C477" t="n">
+        <v>-3.890785325167596</v>
+      </c>
+      <c r="D477" t="n">
+        <v>15.38977187398089</v>
+      </c>
+      <c r="E477" t="n">
+        <v>3.591954357140103</v>
+      </c>
+      <c r="F477" t="n">
+        <v>752.9970894607845</v>
+      </c>
+      <c r="G477" t="n">
+        <v>0.4559007158789516</v>
+      </c>
+      <c r="H477" t="n">
+        <v>0.5651493361456551</v>
+      </c>
+      <c r="I477" t="n">
+        <v>0.7772165092658223</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>125.0782928466797</v>
+      </c>
+      <c r="B478" t="n">
+        <v>44.11784832702663</v>
+      </c>
+      <c r="C478" t="n">
+        <v>-0.62663620793776</v>
+      </c>
+      <c r="D478" t="n">
+        <v>0.6332394563743629</v>
+      </c>
+      <c r="E478" t="n">
+        <v>7.321475037635401</v>
+      </c>
+      <c r="F478" t="n">
+        <v>696.4615042892157</v>
+      </c>
+      <c r="G478" t="n">
+        <v>0.01323765198337379</v>
+      </c>
+      <c r="H478" t="n">
+        <v>0.09321354316609684</v>
+      </c>
+      <c r="I478" t="n">
+        <v>0.8215113166165164</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>118.9046020507812</v>
+      </c>
+      <c r="B479" t="n">
+        <v>40.28664034995178</v>
+      </c>
+      <c r="C479" t="n">
+        <v>-0.909012493977112</v>
+      </c>
+      <c r="D479" t="n">
+        <v>0.6903100174374766</v>
+      </c>
+      <c r="E479" t="n">
+        <v>7.172978258223745</v>
+      </c>
+      <c r="F479" t="n">
+        <v>667.6560202205885</v>
+      </c>
+      <c r="G479" t="n">
+        <v>0.01519885776686326</v>
+      </c>
+      <c r="H479" t="n">
+        <v>0.1208162240292198</v>
+      </c>
+      <c r="I479" t="n">
+        <v>0.7945854779573335</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>223.7677307128906</v>
+      </c>
+      <c r="B480" t="n">
+        <v>56.5732425697451</v>
+      </c>
+      <c r="C480" t="n">
+        <v>-1.898178927225674</v>
+      </c>
+      <c r="D480" t="n">
+        <v>2.396939705736322</v>
+      </c>
+      <c r="E480" t="n">
+        <v>4.951605245224251</v>
+      </c>
+      <c r="F480" t="n">
+        <v>1520.037346813725</v>
+      </c>
+      <c r="G480" t="n">
+        <v>0.262121411603394</v>
+      </c>
+      <c r="H480" t="n">
+        <v>0.3855933948013407</v>
+      </c>
+      <c r="I480" t="n">
+        <v>0.7632133223000001</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>109.1810150146484</v>
+      </c>
+      <c r="B481" t="n">
+        <v>36.11256646020595</v>
+      </c>
+      <c r="C481" t="n">
+        <v>-0.1162410073636664</v>
+      </c>
+      <c r="D481" t="n">
+        <v>0.1380531058323484</v>
+      </c>
+      <c r="E481" t="n">
+        <v>7.193909080811075</v>
+      </c>
+      <c r="F481" t="n">
+        <v>1006.657184436275</v>
+      </c>
+      <c r="G481" t="n">
+        <v>0.01034482688492308</v>
+      </c>
+      <c r="H481" t="n">
+        <v>0.04919250099837187</v>
+      </c>
+      <c r="I481" t="n">
+        <v>0.6140438651260669</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>76.20191955566406</v>
+      </c>
+      <c r="B482" t="n">
+        <v>45.93893808178316</v>
+      </c>
+      <c r="C482" t="n">
+        <v>-0.305205655528026</v>
+      </c>
+      <c r="D482" t="n">
+        <v>-0.9497416556692992</v>
+      </c>
+      <c r="E482" t="n">
+        <v>6.771338110921625</v>
+      </c>
+      <c r="F482" t="n">
+        <v>521.9955729166668</v>
+      </c>
+      <c r="G482" t="n">
+        <v>0.1204751256387458</v>
+      </c>
+      <c r="H482" t="n">
+        <v>0.1992546897730579</v>
+      </c>
+      <c r="I482" t="n">
+        <v>0.8759130642626692</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>118.1584777832031</v>
+      </c>
+      <c r="B483" t="n">
+        <v>45.39732531256019</v>
+      </c>
+      <c r="C483" t="n">
+        <v>-0.8824542294223039</v>
+      </c>
+      <c r="D483" t="n">
+        <v>-0.09885231831184127</v>
+      </c>
+      <c r="E483" t="n">
+        <v>7.211057363784147</v>
+      </c>
+      <c r="F483" t="n">
+        <v>422.0376838235293</v>
+      </c>
+      <c r="G483" t="n">
+        <v>0.01663591656698087</v>
+      </c>
+      <c r="H483" t="n">
+        <v>0.1006118355514825</v>
+      </c>
+      <c r="I483" t="n">
+        <v>0.8977508639607792</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>116.6971740722656</v>
+      </c>
+      <c r="B484" t="n">
+        <v>27.8427652318222</v>
+      </c>
+      <c r="C484" t="n">
+        <v>0.3636696069478579</v>
+      </c>
+      <c r="D484" t="n">
+        <v>0.6498239989711525</v>
+      </c>
+      <c r="E484" t="n">
+        <v>6.705902362120196</v>
+      </c>
+      <c r="F484" t="n">
+        <v>141.7362898284314</v>
+      </c>
+      <c r="G484" t="n">
+        <v>0.02698757859735911</v>
+      </c>
+      <c r="H484" t="n">
+        <v>0.2060320878637033</v>
+      </c>
+      <c r="I484" t="n">
+        <v>0.9087368005713023</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>125.3397216796875</v>
+      </c>
+      <c r="B485" t="n">
+        <v>44.74867501225288</v>
+      </c>
+      <c r="C485" t="n">
+        <v>-0.9390169043318434</v>
+      </c>
+      <c r="D485" t="n">
+        <v>-0.1368071660031864</v>
+      </c>
+      <c r="E485" t="n">
+        <v>7.095666581224233</v>
+      </c>
+      <c r="F485" t="n">
+        <v>409.9989123774509</v>
+      </c>
+      <c r="G485" t="n">
+        <v>0.01783190882935863</v>
+      </c>
+      <c r="H485" t="n">
+        <v>0.1377727141192121</v>
+      </c>
+      <c r="I485" t="n">
+        <v>0.8978566535995446</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>121.9474945068359</v>
+      </c>
+      <c r="B486" t="n">
+        <v>60.83779582836842</v>
+      </c>
+      <c r="C486" t="n">
+        <v>-0.3025754040384077</v>
+      </c>
+      <c r="D486" t="n">
+        <v>-1.086276509470709</v>
+      </c>
+      <c r="E486" t="n">
+        <v>7.549546831361529</v>
+      </c>
+      <c r="F486" t="n">
+        <v>459.2869485294116</v>
+      </c>
+      <c r="G486" t="n">
+        <v>0.01914838235269019</v>
+      </c>
+      <c r="H486" t="n">
+        <v>0.1791751753526339</v>
+      </c>
+      <c r="I486" t="n">
+        <v>0.9380142738450232</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>98.46533203125</v>
+      </c>
+      <c r="B487" t="n">
+        <v>48.06336785563495</v>
+      </c>
+      <c r="C487" t="n">
+        <v>-0.160873066303742</v>
+      </c>
+      <c r="D487" t="n">
+        <v>-1.061503486427198</v>
+      </c>
+      <c r="E487" t="n">
+        <v>7.361651608868151</v>
+      </c>
+      <c r="F487" t="n">
+        <v>1000.684420955882</v>
+      </c>
+      <c r="G487" t="n">
+        <v>0.01359400237351185</v>
+      </c>
+      <c r="H487" t="n">
+        <v>0.09007704638387955</v>
+      </c>
+      <c r="I487" t="n">
+        <v>0.7835970110855809</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>136.8200225830078</v>
+      </c>
+      <c r="B488" t="n">
+        <v>52.08086887882457</v>
+      </c>
+      <c r="C488" t="n">
+        <v>-1.156683706331336</v>
+      </c>
+      <c r="D488" t="n">
+        <v>0.532547610644281</v>
+      </c>
+      <c r="E488" t="n">
+        <v>7.234671319927664</v>
+      </c>
+      <c r="F488" t="n">
+        <v>451.8049479166668</v>
+      </c>
+      <c r="G488" t="n">
+        <v>0.01941076229632923</v>
+      </c>
+      <c r="H488" t="n">
+        <v>0.1846191526383136</v>
+      </c>
+      <c r="I488" t="n">
+        <v>0.9168441190832983</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>115.0192565917969</v>
+      </c>
+      <c r="B489" t="n">
+        <v>46.9274426203143</v>
+      </c>
+      <c r="C489" t="n">
+        <v>-0.1020350987320869</v>
+      </c>
+      <c r="D489" t="n">
+        <v>-0.1142379666505065</v>
+      </c>
+      <c r="E489" t="n">
+        <v>7.50380077722305</v>
+      </c>
+      <c r="F489" t="n">
+        <v>1237.936289828432</v>
+      </c>
+      <c r="G489" t="n">
+        <v>0.009899057782207871</v>
+      </c>
+      <c r="H489" t="n">
+        <v>0.05958896420921845</v>
+      </c>
+      <c r="I489" t="n">
+        <v>0.7194012956849126</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>134.3478851318359</v>
+      </c>
+      <c r="B490" t="n">
+        <v>39.52036418462807</v>
+      </c>
+      <c r="C490" t="n">
+        <v>-0.8781918823243358</v>
+      </c>
+      <c r="D490" t="n">
+        <v>1.057743649869738</v>
+      </c>
+      <c r="E490" t="n">
+        <v>7.198467179380565</v>
+      </c>
+      <c r="F490" t="n">
+        <v>1047.018887867647</v>
+      </c>
+      <c r="G490" t="n">
+        <v>0.01081226012183548</v>
+      </c>
+      <c r="H490" t="n">
+        <v>0.05482117293892687</v>
+      </c>
+      <c r="I490" t="n">
+        <v>0.6653212549116352</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>78.44326782226562</v>
+      </c>
+      <c r="B491" t="n">
+        <v>22.16847537615021</v>
+      </c>
+      <c r="C491" t="n">
+        <v>0.01222786263252544</v>
+      </c>
+      <c r="D491" t="n">
+        <v>-0.3624980948097614</v>
+      </c>
+      <c r="E491" t="n">
+        <v>6.403269569846156</v>
+      </c>
+      <c r="F491" t="n">
+        <v>237.4142003676471</v>
+      </c>
+      <c r="G491" t="n">
+        <v>0.01996797043591283</v>
+      </c>
+      <c r="H491" t="n">
+        <v>0.1218135255053477</v>
+      </c>
+      <c r="I491" t="n">
+        <v>0.7585555000265236</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>137.0088806152344</v>
+      </c>
+      <c r="B492" t="n">
+        <v>61.13008790247852</v>
+      </c>
+      <c r="C492" t="n">
+        <v>-0.5736458658576847</v>
+      </c>
+      <c r="D492" t="n">
+        <v>-0.9209445049160414</v>
+      </c>
+      <c r="E492" t="n">
+        <v>7.62840843795621</v>
+      </c>
+      <c r="F492" t="n">
+        <v>390.0389552696079</v>
+      </c>
+      <c r="G492" t="n">
+        <v>0.0150284245401738</v>
+      </c>
+      <c r="H492" t="n">
+        <v>0.1559376041058148</v>
+      </c>
+      <c r="I492" t="n">
+        <v>0.9477741995565937</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>100.7856750488281</v>
+      </c>
+      <c r="B493" t="n">
+        <v>35.73469516582731</v>
+      </c>
+      <c r="C493" t="n">
+        <v>-0.1991799850787127</v>
+      </c>
+      <c r="D493" t="n">
+        <v>-1.0496819157861</v>
+      </c>
+      <c r="E493" t="n">
+        <v>7.042270006757825</v>
+      </c>
+      <c r="F493" t="n">
+        <v>131.4378676470588</v>
+      </c>
+      <c r="G493" t="n">
+        <v>0.01889283032978516</v>
+      </c>
+      <c r="H493" t="n">
+        <v>0.1927834329921727</v>
+      </c>
+      <c r="I493" t="n">
+        <v>0.9485777600264409</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>111.4165802001953</v>
+      </c>
+      <c r="B494" t="n">
+        <v>44.09257823815457</v>
+      </c>
+      <c r="C494" t="n">
+        <v>-0.1965100029973525</v>
+      </c>
+      <c r="D494" t="n">
+        <v>-1.276330921122024</v>
+      </c>
+      <c r="E494" t="n">
+        <v>7.186076584929351</v>
+      </c>
+      <c r="F494" t="n">
+        <v>122.1467830882353</v>
+      </c>
+      <c r="G494" t="n">
+        <v>0.02108367423325725</v>
+      </c>
+      <c r="H494" t="n">
+        <v>0.2084949083553414</v>
+      </c>
+      <c r="I494" t="n">
+        <v>0.9686082111271207</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>106.4759521484375</v>
+      </c>
+      <c r="B495" t="n">
+        <v>67.12861701419108</v>
+      </c>
+      <c r="C495" t="n">
+        <v>-0.1615681554846925</v>
+      </c>
+      <c r="D495" t="n">
+        <v>-1.427744689278397</v>
+      </c>
+      <c r="E495" t="n">
+        <v>7.573170766700377</v>
+      </c>
+      <c r="F495" t="n">
+        <v>682.0323529411767</v>
+      </c>
+      <c r="G495" t="n">
+        <v>0.01688111355022381</v>
+      </c>
+      <c r="H495" t="n">
+        <v>0.1634310120705773</v>
+      </c>
+      <c r="I495" t="n">
+        <v>0.9243322175787784</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>103.82763671875</v>
+      </c>
+      <c r="B496" t="n">
+        <v>43.55034573797691</v>
+      </c>
+      <c r="C496" t="n">
+        <v>-0.3996757415809702</v>
+      </c>
+      <c r="D496" t="n">
+        <v>-0.5547192602690187</v>
+      </c>
+      <c r="E496" t="n">
+        <v>7.315664322508311</v>
+      </c>
+      <c r="F496" t="n">
+        <v>807.7423406862745</v>
+      </c>
+      <c r="G496" t="n">
+        <v>0.01206658698290622</v>
+      </c>
+      <c r="H496" t="n">
+        <v>0.07875898581913039</v>
+      </c>
+      <c r="I496" t="n">
+        <v>0.7874276694535667</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>125.9006042480469</v>
+      </c>
+      <c r="B497" t="n">
+        <v>39.07290926466079</v>
+      </c>
+      <c r="C497" t="n">
+        <v>0.01682886073679042</v>
+      </c>
+      <c r="D497" t="n">
+        <v>-0.5006082539477106</v>
+      </c>
+      <c r="E497" t="n">
+        <v>6.973519509330719</v>
+      </c>
+      <c r="F497" t="n">
+        <v>35.35888480392157</v>
+      </c>
+      <c r="G497" t="n">
+        <v>0.04295417435233341</v>
+      </c>
+      <c r="H497" t="n">
+        <v>0.3877975230883716</v>
+      </c>
+      <c r="I497" t="n">
+        <v>0.9884427281393589</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>248.567138671875</v>
+      </c>
+      <c r="B498" t="n">
+        <v>23.4706486252708</v>
+      </c>
+      <c r="C498" t="n">
+        <v>-6.50366670151582</v>
+      </c>
+      <c r="D498" t="n">
+        <v>48.39247480762584</v>
+      </c>
+      <c r="E498" t="n">
+        <v>2.998048606776017</v>
+      </c>
+      <c r="F498" t="n">
+        <v>373.3529411764706</v>
+      </c>
+      <c r="G498" t="n">
+        <v>0.4677268967411657</v>
+      </c>
+      <c r="H498" t="n">
+        <v>0.6342844853537334</v>
+      </c>
+      <c r="I498" t="n">
+        <v>0.6623660094381538</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>139.6632995605469</v>
+      </c>
+      <c r="B499" t="n">
+        <v>37.14951249761113</v>
+      </c>
+      <c r="C499" t="n">
+        <v>-0.338928654173884</v>
+      </c>
+      <c r="D499" t="n">
+        <v>0.4105768226920321</v>
+      </c>
+      <c r="E499" t="n">
+        <v>7.095116890020692</v>
+      </c>
+      <c r="F499" t="n">
+        <v>35.89270833333334</v>
+      </c>
+      <c r="G499" t="n">
+        <v>0.0281282621111106</v>
+      </c>
+      <c r="H499" t="n">
+        <v>0.3079721010598836</v>
+      </c>
+      <c r="I499" t="n">
+        <v>0.9870298429905362</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>129.9739685058594</v>
+      </c>
+      <c r="B500" t="n">
+        <v>25.81430338259956</v>
+      </c>
+      <c r="C500" t="n">
+        <v>0.4668613470979741</v>
+      </c>
+      <c r="D500" t="n">
+        <v>0.9389749295488459</v>
+      </c>
+      <c r="E500" t="n">
+        <v>6.679237647461721</v>
+      </c>
+      <c r="F500" t="n">
+        <v>116.3523743872549</v>
+      </c>
+      <c r="G500" t="n">
+        <v>0.02406086822023441</v>
+      </c>
+      <c r="H500" t="n">
+        <v>0.1928624118460217</v>
+      </c>
+      <c r="I500" t="n">
+        <v>0.9129070860472757</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>101.9410400390625</v>
+      </c>
+      <c r="B501" t="n">
+        <v>54.50921555446961</v>
+      </c>
+      <c r="C501" t="n">
+        <v>-0.2779700302378589</v>
+      </c>
+      <c r="D501" t="n">
+        <v>-1.332226434082188</v>
+      </c>
+      <c r="E501" t="n">
+        <v>7.36022768808226</v>
+      </c>
+      <c r="F501" t="n">
+        <v>439.816773897059</v>
+      </c>
+      <c r="G501" t="n">
+        <v>0.02121450163158785</v>
+      </c>
+      <c r="H501" t="n">
+        <v>0.1571575389420259</v>
+      </c>
+      <c r="I501" t="n">
+        <v>0.9261303901936975</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>136.5780029296875</v>
+      </c>
+      <c r="B502" t="n">
+        <v>65.43011908078552</v>
+      </c>
+      <c r="C502" t="n">
+        <v>-0.342208855603401</v>
+      </c>
+      <c r="D502" t="n">
+        <v>-1.109680027965462</v>
+      </c>
+      <c r="E502" t="n">
+        <v>7.712404335703718</v>
+      </c>
+      <c r="F502" t="n">
+        <v>437.415012254902</v>
+      </c>
+      <c r="G502" t="n">
+        <v>0.02095017068275077</v>
+      </c>
+      <c r="H502" t="n">
+        <v>0.226127933184919</v>
+      </c>
+      <c r="I502" t="n">
+        <v>0.9489389139813046</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>125.4332122802734</v>
+      </c>
+      <c r="B503" t="n">
+        <v>20.20437405134699</v>
+      </c>
+      <c r="C503" t="n">
+        <v>-0.5861706759698213</v>
+      </c>
+      <c r="D503" t="n">
+        <v>0.5124311793999041</v>
+      </c>
+      <c r="E503" t="n">
+        <v>6.27121277215125</v>
+      </c>
+      <c r="F503" t="n">
+        <v>240.9494485294118</v>
+      </c>
+      <c r="G503" t="n">
+        <v>0.02227255735186614</v>
+      </c>
+      <c r="H503" t="n">
+        <v>0.1190921299552432</v>
+      </c>
+      <c r="I503" t="n">
+        <v>0.7050444787165165</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>114.2537078857422</v>
+      </c>
+      <c r="B504" t="n">
+        <v>26.0761708067817</v>
+      </c>
+      <c r="C504" t="n">
+        <v>-0.1990459150465769</v>
+      </c>
+      <c r="D504" t="n">
+        <v>2.703993766549194</v>
+      </c>
+      <c r="E504" t="n">
+        <v>6.635079187832162</v>
+      </c>
+      <c r="F504" t="n">
+        <v>696.2829350490193</v>
+      </c>
+      <c r="G504" t="n">
+        <v>0.01514105101979372</v>
+      </c>
+      <c r="H504" t="n">
+        <v>0.05926113243874233</v>
+      </c>
+      <c r="I504" t="n">
+        <v>0.4892011940281903</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>103.9215698242188</v>
+      </c>
+      <c r="B505" t="n">
+        <v>52.75311224829635</v>
+      </c>
+      <c r="C505" t="n">
+        <v>-0.8813463289788509</v>
+      </c>
+      <c r="D505" t="n">
+        <v>-0.2230208911038014</v>
+      </c>
+      <c r="E505" t="n">
+        <v>6.662863874157162</v>
+      </c>
+      <c r="F505" t="n">
+        <v>601.7019454656863</v>
+      </c>
+      <c r="G505" t="n">
+        <v>0.1258515950853082</v>
+      </c>
+      <c r="H505" t="n">
+        <v>0.1864606625721049</v>
+      </c>
+      <c r="I505" t="n">
+        <v>0.891322540454066</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>121.8860778808594</v>
+      </c>
+      <c r="B506" t="n">
+        <v>46.07971274893332</v>
+      </c>
+      <c r="C506" t="n">
+        <v>-0.4375803425960729</v>
+      </c>
+      <c r="D506" t="n">
+        <v>-0.4000379906209077</v>
+      </c>
+      <c r="E506" t="n">
+        <v>7.478128885796038</v>
+      </c>
+      <c r="F506" t="n">
+        <v>1438.831755514706</v>
+      </c>
+      <c r="G506" t="n">
+        <v>0.008821029142625267</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0.04906738321598626</v>
+      </c>
+      <c r="I506" t="n">
+        <v>0.6616988516313106</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>112.0876617431641</v>
+      </c>
+      <c r="B507" t="n">
+        <v>38.53078297838722</v>
+      </c>
+      <c r="C507" t="n">
+        <v>-0.5670136486469809</v>
+      </c>
+      <c r="D507" t="n">
+        <v>-0.3104025601339697</v>
+      </c>
+      <c r="E507" t="n">
+        <v>7.211985566936117</v>
+      </c>
+      <c r="F507" t="n">
+        <v>811.0399203431373</v>
+      </c>
+      <c r="G507" t="n">
+        <v>0.01055414522675638</v>
+      </c>
+      <c r="H507" t="n">
+        <v>0.0536524601684863</v>
+      </c>
+      <c r="I507" t="n">
+        <v>0.7271284143899892</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>147.3187408447266</v>
+      </c>
+      <c r="B508" t="n">
+        <v>61.40108578277893</v>
+      </c>
+      <c r="C508" t="n">
+        <v>-0.4792267135686342</v>
+      </c>
+      <c r="D508" t="n">
+        <v>-0.7700129213438633</v>
+      </c>
+      <c r="E508" t="n">
+        <v>7.74905925683588</v>
+      </c>
+      <c r="F508" t="n">
+        <v>720.4020680147059</v>
+      </c>
+      <c r="G508" t="n">
+        <v>0.0130920593721776</v>
+      </c>
+      <c r="H508" t="n">
+        <v>0.1293127132983057</v>
+      </c>
+      <c r="I508" t="n">
+        <v>0.9044967880462903</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>229.3495178222656</v>
+      </c>
+      <c r="B509" t="n">
+        <v>37.83122678883886</v>
+      </c>
+      <c r="C509" t="n">
+        <v>-1.709411644806054</v>
+      </c>
+      <c r="D509" t="n">
+        <v>2.127286466668525</v>
+      </c>
+      <c r="E509" t="n">
+        <v>5.514810625983775</v>
+      </c>
+      <c r="F509" t="n">
+        <v>1084.094806985294</v>
+      </c>
+      <c r="G509" t="n">
+        <v>0.1300275886527701</v>
+      </c>
+      <c r="H509" t="n">
+        <v>0.2149621179945534</v>
+      </c>
+      <c r="I509" t="n">
+        <v>0.6212495304797777</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>110.8969421386719</v>
+      </c>
+      <c r="B510" t="n">
+        <v>58.79385024462154</v>
+      </c>
+      <c r="C510" t="n">
+        <v>-0.4397176271288893</v>
+      </c>
+      <c r="D510" t="n">
+        <v>-1.110261750524656</v>
+      </c>
+      <c r="E510" t="n">
+        <v>7.397728987642011</v>
+      </c>
+      <c r="F510" t="n">
+        <v>436.8214460784314</v>
+      </c>
+      <c r="G510" t="n">
+        <v>0.02376129973987616</v>
+      </c>
+      <c r="H510" t="n">
+        <v>0.1938001382083231</v>
+      </c>
+      <c r="I510" t="n">
+        <v>0.936915899513008</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>115.33203125</v>
+      </c>
+      <c r="B511" t="n">
+        <v>24.78428879490666</v>
+      </c>
+      <c r="C511" t="n">
+        <v>0.8237479755327544</v>
+      </c>
+      <c r="D511" t="n">
+        <v>0.8185416543485702</v>
+      </c>
+      <c r="E511" t="n">
+        <v>6.549299939734627</v>
+      </c>
+      <c r="F511" t="n">
+        <v>115.7522671568628</v>
+      </c>
+      <c r="G511" t="n">
+        <v>0.02393159896993884</v>
+      </c>
+      <c r="H511" t="n">
+        <v>0.1873540549738255</v>
+      </c>
+      <c r="I511" t="n">
+        <v>0.9059867484112029</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>96.4959716796875</v>
+      </c>
+      <c r="B512" t="n">
+        <v>54.10653307160324</v>
+      </c>
+      <c r="C512" t="n">
+        <v>-0.6058266206550428</v>
+      </c>
+      <c r="D512" t="n">
+        <v>-0.660025715252289</v>
+      </c>
+      <c r="E512" t="n">
+        <v>6.822011658629794</v>
+      </c>
+      <c r="F512" t="n">
+        <v>944.7590226715687</v>
+      </c>
+      <c r="G512" t="n">
+        <v>0.1238769391804214</v>
+      </c>
+      <c r="H512" t="n">
+        <v>0.1770647720589274</v>
+      </c>
+      <c r="I512" t="n">
+        <v>0.8379771795383455</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>118.4503326416016</v>
+      </c>
+      <c r="B513" t="n">
+        <v>30.67682067709562</v>
+      </c>
+      <c r="C513" t="n">
+        <v>0.6095612863440726</v>
+      </c>
+      <c r="D513" t="n">
+        <v>-0.4540957303097919</v>
+      </c>
+      <c r="E513" t="n">
+        <v>6.722593448025968</v>
+      </c>
+      <c r="F513" t="n">
+        <v>182.1285539215687</v>
+      </c>
+      <c r="G513" t="n">
+        <v>0.0228715675032926</v>
+      </c>
+      <c r="H513" t="n">
+        <v>0.1942607514529266</v>
+      </c>
+      <c r="I513" t="n">
+        <v>0.9034073839071878</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>109.2440490722656</v>
+      </c>
+      <c r="B514" t="n">
+        <v>39.79196095755022</v>
+      </c>
+      <c r="C514" t="n">
+        <v>-0.5811053308975431</v>
+      </c>
+      <c r="D514" t="n">
+        <v>0.01537051629588992</v>
+      </c>
+      <c r="E514" t="n">
+        <v>7.152285551615742</v>
+      </c>
+      <c r="F514" t="n">
+        <v>623.0733609068627</v>
+      </c>
+      <c r="G514" t="n">
+        <v>0.01470924887426184</v>
+      </c>
+      <c r="H514" t="n">
+        <v>0.09423976574157186</v>
+      </c>
+      <c r="I514" t="n">
+        <v>0.8036794752320643</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>124.6571044921875</v>
+      </c>
+      <c r="B515" t="n">
+        <v>50.30812960991948</v>
+      </c>
+      <c r="C515" t="n">
+        <v>-0.419124793771504</v>
+      </c>
+      <c r="D515" t="n">
+        <v>-0.4285438467017331</v>
+      </c>
+      <c r="E515" t="n">
+        <v>7.562273439724971</v>
+      </c>
+      <c r="F515" t="n">
+        <v>1882.720036764706</v>
+      </c>
+      <c r="G515" t="n">
+        <v>0.008874233062475636</v>
+      </c>
+      <c r="H515" t="n">
+        <v>0.04917847521211861</v>
+      </c>
+      <c r="I515" t="n">
+        <v>0.6289592935347524</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>127.0529937744141</v>
+      </c>
+      <c r="B516" t="n">
+        <v>25.40136159795357</v>
+      </c>
+      <c r="C516" t="n">
+        <v>0.08465919129498213</v>
+      </c>
+      <c r="D516" t="n">
+        <v>0.9682309622600864</v>
+      </c>
+      <c r="E516" t="n">
+        <v>6.63266442385549</v>
+      </c>
+      <c r="F516" t="n">
+        <v>123.3647671568627</v>
+      </c>
+      <c r="G516" t="n">
+        <v>0.02726709662088521</v>
+      </c>
+      <c r="H516" t="n">
+        <v>0.2380274242129118</v>
+      </c>
+      <c r="I516" t="n">
+        <v>0.9045203445731194</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>118.3178405761719</v>
+      </c>
+      <c r="B517" t="n">
+        <v>45.81954745818029</v>
+      </c>
+      <c r="C517" t="n">
+        <v>-0.475672948102192</v>
+      </c>
+      <c r="D517" t="n">
+        <v>-0.1691909234963211</v>
+      </c>
+      <c r="E517" t="n">
+        <v>7.310424395799616</v>
+      </c>
+      <c r="F517" t="n">
+        <v>882.500536151961</v>
+      </c>
+      <c r="G517" t="n">
+        <v>0.01503974074453486</v>
+      </c>
+      <c r="H517" t="n">
+        <v>0.09196650863503168</v>
+      </c>
+      <c r="I517" t="n">
+        <v>0.7901648909767984</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>85.9293212890625</v>
+      </c>
+      <c r="B518" t="n">
+        <v>49.76996317314438</v>
+      </c>
+      <c r="C518" t="n">
+        <v>-0.4436174403470106</v>
+      </c>
+      <c r="D518" t="n">
+        <v>-0.7662375026659465</v>
+      </c>
+      <c r="E518" t="n">
+        <v>6.817389687018601</v>
+      </c>
+      <c r="F518" t="n">
+        <v>829.4005208333334</v>
+      </c>
+      <c r="G518" t="n">
+        <v>0.1214551595183207</v>
+      </c>
+      <c r="H518" t="n">
+        <v>0.1775491999721803</v>
+      </c>
+      <c r="I518" t="n">
+        <v>0.8317770309775165</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>139.7767028808594</v>
+      </c>
+      <c r="B519" t="n">
+        <v>50.94001297930862</v>
+      </c>
+      <c r="C519" t="n">
+        <v>-0.3297225353259895</v>
+      </c>
+      <c r="D519" t="n">
+        <v>-0.4563159448915339</v>
+      </c>
+      <c r="E519" t="n">
+        <v>7.595114825798085</v>
+      </c>
+      <c r="F519" t="n">
+        <v>333.7918351715687</v>
+      </c>
+      <c r="G519" t="n">
+        <v>0.01378416029322014</v>
+      </c>
+      <c r="H519" t="n">
+        <v>0.1444185927428173</v>
+      </c>
+      <c r="I519" t="n">
+        <v>0.9356178509361669</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>104.5985565185547</v>
+      </c>
+      <c r="B520" t="n">
+        <v>23.58025839920329</v>
+      </c>
+      <c r="C520" t="n">
+        <v>-0.0551573192184777</v>
+      </c>
+      <c r="D520" t="n">
+        <v>0.1788871082645511</v>
+      </c>
+      <c r="E520" t="n">
+        <v>6.587288407261922</v>
+      </c>
+      <c r="F520" t="n">
+        <v>502.9384037990198</v>
+      </c>
+      <c r="G520" t="n">
+        <v>0.0154964858611893</v>
+      </c>
+      <c r="H520" t="n">
+        <v>0.07656417787212103</v>
+      </c>
+      <c r="I520" t="n">
+        <v>0.5481570349813436</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>90.73561096191406</v>
+      </c>
+      <c r="B521" t="n">
+        <v>32.89464418620052</v>
+      </c>
+      <c r="C521" t="n">
+        <v>-0.1710523795506383</v>
+      </c>
+      <c r="D521" t="n">
+        <v>-0.9123993000160193</v>
+      </c>
+      <c r="E521" t="n">
+        <v>6.95314142490157</v>
+      </c>
+      <c r="F521" t="n">
+        <v>60.81992953431373</v>
+      </c>
+      <c r="G521" t="n">
+        <v>0.02020721482891367</v>
+      </c>
+      <c r="H521" t="n">
+        <v>0.1884618950930844</v>
+      </c>
+      <c r="I521" t="n">
+        <v>0.9719102033203912</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>130.2584991455078</v>
+      </c>
+      <c r="B522" t="n">
+        <v>44.46937171630761</v>
+      </c>
+      <c r="C522" t="n">
+        <v>-0.4634233135362652</v>
+      </c>
+      <c r="D522" t="n">
+        <v>0.1441571191297912</v>
+      </c>
+      <c r="E522" t="n">
+        <v>7.459931455936148</v>
+      </c>
+      <c r="F522" t="n">
+        <v>1774.967601102941</v>
+      </c>
+      <c r="G522" t="n">
+        <v>0.008475922677120048</v>
+      </c>
+      <c r="H522" t="n">
+        <v>0.037356479254931</v>
+      </c>
+      <c r="I522" t="n">
+        <v>0.5519717032572991</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>138.9476776123047</v>
+      </c>
+      <c r="B523" t="n">
+        <v>38.8174134783601</v>
+      </c>
+      <c r="C523" t="n">
+        <v>-1.263746766561229</v>
+      </c>
+      <c r="D523" t="n">
+        <v>2.327910199970828</v>
+      </c>
+      <c r="E523" t="n">
+        <v>7.06855801776787</v>
+      </c>
+      <c r="F523" t="n">
+        <v>467.3309895833333</v>
+      </c>
+      <c r="G523" t="n">
+        <v>0.01511629551697208</v>
+      </c>
+      <c r="H523" t="n">
+        <v>0.1110331624860591</v>
+      </c>
+      <c r="I523" t="n">
+        <v>0.8452623217313826</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>122.3562774658203</v>
+      </c>
+      <c r="B524" t="n">
+        <v>43.90186954722284</v>
+      </c>
+      <c r="C524" t="n">
+        <v>-0.497238914824663</v>
+      </c>
+      <c r="D524" t="n">
+        <v>-0.3161094063318464</v>
+      </c>
+      <c r="E524" t="n">
+        <v>7.399372710022386</v>
+      </c>
+      <c r="F524" t="n">
+        <v>977.9820006127451</v>
+      </c>
+      <c r="G524" t="n">
+        <v>0.009739611763585001</v>
+      </c>
+      <c r="H524" t="n">
+        <v>0.05563038195519937</v>
+      </c>
+      <c r="I524" t="n">
+        <v>0.7467648328706362</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>117.9128875732422</v>
+      </c>
+      <c r="B525" t="n">
+        <v>44.96827184068997</v>
+      </c>
+      <c r="C525" t="n">
+        <v>-0.3596477592486325</v>
+      </c>
+      <c r="D525" t="n">
+        <v>-0.3196458807231757</v>
+      </c>
+      <c r="E525" t="n">
+        <v>7.395549788427306</v>
+      </c>
+      <c r="F525" t="n">
+        <v>1128.360049019608</v>
+      </c>
+      <c r="G525" t="n">
+        <v>0.0106621388611946</v>
+      </c>
+      <c r="H525" t="n">
+        <v>0.06675422284151138</v>
+      </c>
+      <c r="I525" t="n">
+        <v>0.7215387419833004</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>123.2614135742188</v>
+      </c>
+      <c r="B526" t="n">
+        <v>31.19995295756938</v>
+      </c>
+      <c r="C526" t="n">
+        <v>0.2079700872036951</v>
+      </c>
+      <c r="D526" t="n">
+        <v>0.3330105230317359</v>
+      </c>
+      <c r="E526" t="n">
+        <v>6.955857893425786</v>
+      </c>
+      <c r="F526" t="n">
+        <v>50.77282475490195</v>
+      </c>
+      <c r="G526" t="n">
+        <v>0.02381065678976832</v>
+      </c>
+      <c r="H526" t="n">
+        <v>0.2190959507215942</v>
+      </c>
+      <c r="I526" t="n">
+        <v>0.9739885656516686</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>137.5211181640625</v>
+      </c>
+      <c r="B527" t="n">
+        <v>37.72689107422797</v>
+      </c>
+      <c r="C527" t="n">
+        <v>-1.560399982388314</v>
+      </c>
+      <c r="D527" t="n">
+        <v>3.205148714376239</v>
+      </c>
+      <c r="E527" t="n">
+        <v>6.899072098500328</v>
+      </c>
+      <c r="F527" t="n">
+        <v>443.8862898284315</v>
+      </c>
+      <c r="G527" t="n">
+        <v>0.01790884481044192</v>
+      </c>
+      <c r="H527" t="n">
+        <v>0.1374707935400776</v>
+      </c>
+      <c r="I527" t="n">
+        <v>0.8442884249202712</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>118.8973693847656</v>
+      </c>
+      <c r="B528" t="n">
+        <v>50.3011823854936</v>
+      </c>
+      <c r="C528" t="n">
+        <v>-0.3654938420916359</v>
+      </c>
+      <c r="D528" t="n">
+        <v>-0.7279803519327701</v>
+      </c>
+      <c r="E528" t="n">
+        <v>7.471272492789609</v>
+      </c>
+      <c r="F528" t="n">
+        <v>635.9188112745098</v>
+      </c>
+      <c r="G528" t="n">
+        <v>0.01470482915959057</v>
+      </c>
+      <c r="H528" t="n">
+        <v>0.1101751052730489</v>
+      </c>
+      <c r="I528" t="n">
+        <v>0.8741509742598303</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>119.9732818603516</v>
+      </c>
+      <c r="B529" t="n">
+        <v>50.96582804491751</v>
+      </c>
+      <c r="C529" t="n">
+        <v>-0.2834971212054991</v>
+      </c>
+      <c r="D529" t="n">
+        <v>-0.3276392605195344</v>
+      </c>
+      <c r="E529" t="n">
+        <v>7.591005906120045</v>
+      </c>
+      <c r="F529" t="n">
+        <v>1177.567294730392</v>
+      </c>
+      <c r="G529" t="n">
+        <v>0.009715222801550455</v>
+      </c>
+      <c r="H529" t="n">
+        <v>0.06200405456068498</v>
+      </c>
+      <c r="I529" t="n">
+        <v>0.773788368688169</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>156.7341003417969</v>
+      </c>
+      <c r="B530" t="n">
+        <v>40.98685866841444</v>
+      </c>
+      <c r="C530" t="n">
+        <v>-1.250702589791926</v>
+      </c>
+      <c r="D530" t="n">
+        <v>1.755243155619271</v>
+      </c>
+      <c r="E530" t="n">
+        <v>7.175596923336407</v>
+      </c>
+      <c r="F530" t="n">
+        <v>912.9013174019608</v>
+      </c>
+      <c r="G530" t="n">
+        <v>0.01189092606794223</v>
+      </c>
+      <c r="H530" t="n">
+        <v>0.05651252239707138</v>
+      </c>
+      <c r="I530" t="n">
+        <v>0.7289639476698749</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>127.7502746582031</v>
+      </c>
+      <c r="B531" t="n">
+        <v>60.29553236915191</v>
+      </c>
+      <c r="C531" t="n">
+        <v>-0.4596066173747388</v>
+      </c>
+      <c r="D531" t="n">
+        <v>-1.076265303932186</v>
+      </c>
+      <c r="E531" t="n">
+        <v>7.617512534002796</v>
+      </c>
+      <c r="F531" t="n">
+        <v>462.4005055147059</v>
+      </c>
+      <c r="G531" t="n">
+        <v>0.01448562329591798</v>
+      </c>
+      <c r="H531" t="n">
+        <v>0.1434473410692605</v>
+      </c>
+      <c r="I531" t="n">
+        <v>0.9365727975117339</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>106.9792938232422</v>
+      </c>
+      <c r="B532" t="n">
+        <v>24.63328851207818</v>
+      </c>
+      <c r="C532" t="n">
+        <v>-0.5089456247353019</v>
+      </c>
+      <c r="D532" t="n">
+        <v>-0.08229104430999934</v>
+      </c>
+      <c r="E532" t="n">
+        <v>6.597304772126239</v>
+      </c>
+      <c r="F532" t="n">
+        <v>142.1656403186275</v>
+      </c>
+      <c r="G532" t="n">
+        <v>0.02171943693957609</v>
+      </c>
+      <c r="H532" t="n">
+        <v>0.1633327438684199</v>
+      </c>
+      <c r="I532" t="n">
+        <v>0.8829353411480881</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>101.9404144287109</v>
+      </c>
+      <c r="B533" t="n">
+        <v>54.50914251211785</v>
+      </c>
+      <c r="C533" t="n">
+        <v>-0.2779669926440606</v>
+      </c>
+      <c r="D533" t="n">
+        <v>-1.332234156544724</v>
+      </c>
+      <c r="E533" t="n">
+        <v>7.360318108213527</v>
+      </c>
+      <c r="F533" t="n">
+        <v>439.67734375</v>
+      </c>
+      <c r="G533" t="n">
+        <v>0.02126279568236406</v>
+      </c>
+      <c r="H533" t="n">
+        <v>0.1572030947837973</v>
+      </c>
+      <c r="I533" t="n">
+        <v>0.9261535600097096</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>121.2833862304688</v>
+      </c>
+      <c r="B534" t="n">
+        <v>21.5742378289171</v>
+      </c>
+      <c r="C534" t="n">
+        <v>-0.3336266915552771</v>
+      </c>
+      <c r="D534" t="n">
+        <v>-0.2110271141999247</v>
+      </c>
+      <c r="E534" t="n">
+        <v>6.411096112812468</v>
+      </c>
+      <c r="F534" t="n">
+        <v>224.1040134803922</v>
+      </c>
+      <c r="G534" t="n">
+        <v>0.01889320294420374</v>
+      </c>
+      <c r="H534" t="n">
+        <v>0.10162285905369</v>
+      </c>
+      <c r="I534" t="n">
+        <v>0.7594948056797116</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>105.7016448974609</v>
+      </c>
+      <c r="B535" t="n">
+        <v>36.64223312008609</v>
+      </c>
+      <c r="C535" t="n">
+        <v>-0.3432687602172568</v>
+      </c>
+      <c r="D535" t="n">
+        <v>0.1823750380796088</v>
+      </c>
+      <c r="E535" t="n">
+        <v>7.156576069183878</v>
+      </c>
+      <c r="F535" t="n">
+        <v>748.2593596813724</v>
+      </c>
+      <c r="G535" t="n">
+        <v>0.01137597621116819</v>
+      </c>
+      <c r="H535" t="n">
+        <v>0.05657942467701567</v>
+      </c>
+      <c r="I535" t="n">
+        <v>0.7215314631598013</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>122.683837890625</v>
+      </c>
+      <c r="B536" t="n">
+        <v>26.0103795156085</v>
+      </c>
+      <c r="C536" t="n">
+        <v>-0.3863847614020194</v>
+      </c>
+      <c r="D536" t="n">
+        <v>1.429648800200158</v>
+      </c>
+      <c r="E536" t="n">
+        <v>6.62565571902233</v>
+      </c>
+      <c r="F536" t="n">
+        <v>18.31361825980392</v>
+      </c>
+      <c r="G536" t="n">
+        <v>0.04858115707657287</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0.4233984108740775</v>
+      </c>
+      <c r="I536" t="n">
+        <v>0.986513599868162</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>137.3137969970703</v>
+      </c>
+      <c r="B537" t="n">
+        <v>33.66786513717234</v>
+      </c>
+      <c r="C537" t="n">
+        <v>-0.3682256483260564</v>
+      </c>
+      <c r="D537" t="n">
+        <v>-0.2247468882950727</v>
+      </c>
+      <c r="E537" t="n">
+        <v>7.006536490045643</v>
+      </c>
+      <c r="F537" t="n">
+        <v>15.6952818627451</v>
+      </c>
+      <c r="G537" t="n">
+        <v>0.04130363312073783</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0.4077202299609457</v>
+      </c>
+      <c r="I537" t="n">
+        <v>0.9930994137952261</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>122.9980926513672</v>
+      </c>
+      <c r="B538" t="n">
+        <v>36.31328299835829</v>
+      </c>
+      <c r="C538" t="n">
+        <v>0.5195928239532335</v>
+      </c>
+      <c r="D538" t="n">
+        <v>-0.08709489252200253</v>
+      </c>
+      <c r="E538" t="n">
+        <v>7.138828623061232</v>
+      </c>
+      <c r="F538" t="n">
+        <v>68.67954963235294</v>
+      </c>
+      <c r="G538" t="n">
+        <v>0.02037277243960579</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0.2089206565464795</v>
+      </c>
+      <c r="I538" t="n">
+        <v>0.9739588873751276</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>109.3076629638672</v>
+      </c>
+      <c r="B539" t="n">
+        <v>30.0864460871334</v>
+      </c>
+      <c r="C539" t="n">
+        <v>-0.7012820971687074</v>
+      </c>
+      <c r="D539" t="n">
+        <v>-0.02961548062976016</v>
+      </c>
+      <c r="E539" t="n">
+        <v>6.826376887278983</v>
+      </c>
+      <c r="F539" t="n">
+        <v>165.0649203431373</v>
+      </c>
+      <c r="G539" t="n">
+        <v>0.01847050452742418</v>
+      </c>
+      <c r="H539" t="n">
+        <v>0.1437777584492417</v>
+      </c>
+      <c r="I539" t="n">
+        <v>0.9087456498517665</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>98.80038452148438</v>
+      </c>
+      <c r="B540" t="n">
+        <v>29.73776856125109</v>
+      </c>
+      <c r="C540" t="n">
+        <v>-0.6541009866104763</v>
+      </c>
+      <c r="D540" t="n">
+        <v>-0.1463678675653339</v>
+      </c>
+      <c r="E540" t="n">
+        <v>6.803585529918258</v>
+      </c>
+      <c r="F540" t="n">
+        <v>97.15287990196077</v>
+      </c>
+      <c r="G540" t="n">
+        <v>0.02390391194469248</v>
+      </c>
+      <c r="H540" t="n">
+        <v>0.2302446625943616</v>
+      </c>
+      <c r="I540" t="n">
+        <v>0.9451831005804604</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>238.8352813720703</v>
+      </c>
+      <c r="B541" t="n">
+        <v>40.68097197025301</v>
+      </c>
+      <c r="C541" t="n">
+        <v>-3.852356153718241</v>
+      </c>
+      <c r="D541" t="n">
+        <v>15.03951614723168</v>
+      </c>
+      <c r="E541" t="n">
+        <v>4.47246133802062</v>
+      </c>
+      <c r="F541" t="n">
+        <v>626.9564797794118</v>
+      </c>
+      <c r="G541" t="n">
+        <v>0.2424042521783861</v>
+      </c>
+      <c r="H541" t="n">
+        <v>0.4025767680090077</v>
+      </c>
+      <c r="I541" t="n">
+        <v>0.8112199390732434</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>118.7486267089844</v>
+      </c>
+      <c r="B542" t="n">
+        <v>44.42280601813898</v>
+      </c>
+      <c r="C542" t="n">
+        <v>-0.7643632403897923</v>
+      </c>
+      <c r="D542" t="n">
+        <v>0.09446111061388063</v>
+      </c>
+      <c r="E542" t="n">
+        <v>7.260165063386285</v>
+      </c>
+      <c r="F542" t="n">
+        <v>509.7783854166667</v>
+      </c>
+      <c r="G542" t="n">
+        <v>0.01564091125656052</v>
+      </c>
+      <c r="H542" t="n">
+        <v>0.1278362917484245</v>
+      </c>
+      <c r="I542" t="n">
+        <v>0.8710246009350705</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>127.0620269775391</v>
+      </c>
+      <c r="B543" t="n">
+        <v>23.45602095696432</v>
+      </c>
+      <c r="C543" t="n">
+        <v>0.3664192686212513</v>
+      </c>
+      <c r="D543" t="n">
+        <v>-0.4497248074328146</v>
+      </c>
+      <c r="E543" t="n">
+        <v>6.524216600634529</v>
+      </c>
+      <c r="F543" t="n">
+        <v>39.32326899509804</v>
+      </c>
+      <c r="G543" t="n">
+        <v>0.0312411304574663</v>
+      </c>
+      <c r="H543" t="n">
+        <v>0.2837654204137554</v>
+      </c>
+      <c r="I543" t="n">
+        <v>0.9643135271284193</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>110.0093231201172</v>
+      </c>
+      <c r="B544" t="n">
+        <v>22.654916886821</v>
+      </c>
+      <c r="C544" t="n">
+        <v>-0.1322983754260729</v>
+      </c>
+      <c r="D544" t="n">
+        <v>-0.2667328162186946</v>
+      </c>
+      <c r="E544" t="n">
+        <v>6.516135704241857</v>
+      </c>
+      <c r="F544" t="n">
+        <v>167.0358455882353</v>
+      </c>
+      <c r="G544" t="n">
+        <v>0.02134320784924084</v>
+      </c>
+      <c r="H544" t="n">
+        <v>0.1650736246284288</v>
+      </c>
+      <c r="I544" t="n">
+        <v>0.8375005196716918</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>97.01039123535156</v>
+      </c>
+      <c r="B545" t="n">
+        <v>42.43520881386044</v>
+      </c>
+      <c r="C545" t="n">
+        <v>0.1947907168237356</v>
+      </c>
+      <c r="D545" t="n">
+        <v>-0.4941444658890042</v>
+      </c>
+      <c r="E545" t="n">
+        <v>7.3713991830263</v>
+      </c>
+      <c r="F545" t="n">
+        <v>1552.136703431373</v>
+      </c>
+      <c r="G545" t="n">
+        <v>0.009697598635634816</v>
+      </c>
+      <c r="H545" t="n">
+        <v>0.05304115175067262</v>
+      </c>
+      <c r="I545" t="n">
+        <v>0.5696177962126218</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>127.3715057373047</v>
+      </c>
+      <c r="B546" t="n">
+        <v>40.61133257733457</v>
+      </c>
+      <c r="C546" t="n">
+        <v>-0.5278139419218342</v>
+      </c>
+      <c r="D546" t="n">
+        <v>0.6384529854523358</v>
+      </c>
+      <c r="E546" t="n">
+        <v>7.21880819637158</v>
+      </c>
+      <c r="F546" t="n">
+        <v>688.2449142156863</v>
+      </c>
+      <c r="G546" t="n">
+        <v>0.01240267825658517</v>
+      </c>
+      <c r="H546" t="n">
+        <v>0.07707424377755223</v>
+      </c>
+      <c r="I546" t="n">
+        <v>0.791463132883129</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>118.4404754638672</v>
+      </c>
+      <c r="B547" t="n">
+        <v>57.10974929805102</v>
+      </c>
+      <c r="C547" t="n">
+        <v>-0.6457677463074926</v>
+      </c>
+      <c r="D547" t="n">
+        <v>-0.8457045185597685</v>
+      </c>
+      <c r="E547" t="n">
+        <v>7.337429358138806</v>
+      </c>
+      <c r="F547" t="n">
+        <v>804.0709865196078</v>
+      </c>
+      <c r="G547" t="n">
+        <v>0.0226106781179199</v>
+      </c>
+      <c r="H547" t="n">
+        <v>0.1347810706565699</v>
+      </c>
+      <c r="I547" t="n">
+        <v>0.8768253478814644</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>114.90625</v>
+      </c>
+      <c r="B548" t="n">
+        <v>29.47704754189451</v>
+      </c>
+      <c r="C548" t="n">
+        <v>-0.2412259665212182</v>
+      </c>
+      <c r="D548" t="n">
+        <v>-0.381762523357517</v>
+      </c>
+      <c r="E548" t="n">
+        <v>6.837635218350654</v>
+      </c>
+      <c r="F548" t="n">
+        <v>246.3413602941177</v>
+      </c>
+      <c r="G548" t="n">
+        <v>0.01721208506080896</v>
+      </c>
+      <c r="H548" t="n">
+        <v>0.1159942190781309</v>
+      </c>
+      <c r="I548" t="n">
+        <v>0.8585213935885344</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>98.46372985839844</v>
+      </c>
+      <c r="B549" t="n">
+        <v>48.06412002922616</v>
+      </c>
+      <c r="C549" t="n">
+        <v>-0.1608719642968137</v>
+      </c>
+      <c r="D549" t="n">
+        <v>-1.061442623347112</v>
+      </c>
+      <c r="E549" t="n">
+        <v>7.361638281081398</v>
+      </c>
+      <c r="F549" t="n">
+        <v>1000.771338848039</v>
+      </c>
+      <c r="G549" t="n">
+        <v>0.01363495531712165</v>
+      </c>
+      <c r="H549" t="n">
+        <v>0.09023005845116576</v>
+      </c>
+      <c r="I549" t="n">
+        <v>0.7835849821198296</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>111.7126312255859</v>
+      </c>
+      <c r="B550" t="n">
+        <v>51.60580375381378</v>
+      </c>
+      <c r="C550" t="n">
+        <v>-0.2917957132171567</v>
+      </c>
+      <c r="D550" t="n">
+        <v>-0.6211159058701927</v>
+      </c>
+      <c r="E550" t="n">
+        <v>7.488342461326126</v>
+      </c>
+      <c r="F550" t="n">
+        <v>1132.855254289216</v>
+      </c>
+      <c r="G550" t="n">
+        <v>0.01420192916885641</v>
+      </c>
+      <c r="H550" t="n">
+        <v>0.08860442799581106</v>
+      </c>
+      <c r="I550" t="n">
+        <v>0.7874602456970806</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>111.4841613769531</v>
+      </c>
+      <c r="B551" t="n">
+        <v>47.52527814090562</v>
+      </c>
+      <c r="C551" t="n">
+        <v>-0.3632751982549639</v>
+      </c>
+      <c r="D551" t="n">
+        <v>-0.6680584293382372</v>
+      </c>
+      <c r="E551" t="n">
+        <v>7.398060680239608</v>
+      </c>
+      <c r="F551" t="n">
+        <v>1022.185340073529</v>
+      </c>
+      <c r="G551" t="n">
+        <v>0.01272517930557541</v>
+      </c>
+      <c r="H551" t="n">
+        <v>0.08480819041542662</v>
+      </c>
+      <c r="I551" t="n">
+        <v>0.7740781524730354</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>126.1843414306641</v>
+      </c>
+      <c r="B552" t="n">
+        <v>30.01031061913001</v>
+      </c>
+      <c r="C552" t="n">
+        <v>-0.8347420825839593</v>
+      </c>
+      <c r="D552" t="n">
+        <v>2.315313661615344</v>
+      </c>
+      <c r="E552" t="n">
+        <v>6.846368071113655</v>
+      </c>
+      <c r="F552" t="n">
+        <v>904.3687653186277</v>
+      </c>
+      <c r="G552" t="n">
+        <v>0.01241226705836651</v>
+      </c>
+      <c r="H552" t="n">
+        <v>0.05083212711360431</v>
+      </c>
+      <c r="I552" t="n">
+        <v>0.4981905111216242</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>123.2545623779297</v>
+      </c>
+      <c r="B553" t="n">
+        <v>39.90296613253773</v>
+      </c>
+      <c r="C553" t="n">
+        <v>0.1068085597822645</v>
+      </c>
+      <c r="D553" t="n">
+        <v>-0.4044838165927844</v>
+      </c>
+      <c r="E553" t="n">
+        <v>7.204850291158468</v>
+      </c>
+      <c r="F553" t="n">
+        <v>47.1360294117647</v>
+      </c>
+      <c r="G553" t="n">
+        <v>0.030772419367368</v>
+      </c>
+      <c r="H553" t="n">
+        <v>0.3143872900155741</v>
+      </c>
+      <c r="I553" t="n">
+        <v>0.9852330895512273</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>130.8428039550781</v>
+      </c>
+      <c r="B554" t="n">
+        <v>48.78185816854579</v>
+      </c>
+      <c r="C554" t="n">
+        <v>-0.5786061172106268</v>
+      </c>
+      <c r="D554" t="n">
+        <v>-0.2763723492620094</v>
+      </c>
+      <c r="E554" t="n">
+        <v>7.475595436812278</v>
+      </c>
+      <c r="F554" t="n">
+        <v>813.0245251225491</v>
+      </c>
+      <c r="G554" t="n">
+        <v>0.01126863890995828</v>
+      </c>
+      <c r="H554" t="n">
+        <v>0.08842726409329715</v>
+      </c>
+      <c r="I554" t="n">
+        <v>0.8295570029149354</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>128.3848724365234</v>
+      </c>
+      <c r="B555" t="n">
+        <v>53.04179395114986</v>
+      </c>
+      <c r="C555" t="n">
+        <v>-0.7370140266675159</v>
+      </c>
+      <c r="D555" t="n">
+        <v>-0.3328951150827559</v>
+      </c>
+      <c r="E555" t="n">
+        <v>7.497779637928191</v>
+      </c>
+      <c r="F555" t="n">
+        <v>767.1729013480395</v>
+      </c>
+      <c r="G555" t="n">
+        <v>0.01120236887096111</v>
+      </c>
+      <c r="H555" t="n">
+        <v>0.08501458670175639</v>
+      </c>
+      <c r="I555" t="n">
+        <v>0.8635972455670636</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>110.9041900634766</v>
+      </c>
+      <c r="B556" t="n">
+        <v>58.7876727682251</v>
+      </c>
+      <c r="C556" t="n">
+        <v>-0.4397329906870483</v>
+      </c>
+      <c r="D556" t="n">
+        <v>-1.109896583367084</v>
+      </c>
+      <c r="E556" t="n">
+        <v>7.398038524727721</v>
+      </c>
+      <c r="F556" t="n">
+        <v>436.8186427696079</v>
+      </c>
+      <c r="G556" t="n">
+        <v>0.02371720315957315</v>
+      </c>
+      <c r="H556" t="n">
+        <v>0.193720197835444</v>
+      </c>
+      <c r="I556" t="n">
+        <v>0.9369031150226118</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>151.6069488525391</v>
+      </c>
+      <c r="B557" t="n">
+        <v>43.6795268752588</v>
+      </c>
+      <c r="C557" t="n">
+        <v>-1.116045111117541</v>
+      </c>
+      <c r="D557" t="n">
+        <v>1.134954022778603</v>
+      </c>
+      <c r="E557" t="n">
+        <v>7.227054970935596</v>
+      </c>
+      <c r="F557" t="n">
+        <v>604.6811274509805</v>
+      </c>
+      <c r="G557" t="n">
+        <v>0.01823870291427925</v>
+      </c>
+      <c r="H557" t="n">
+        <v>0.1513438983706004</v>
+      </c>
+      <c r="I557" t="n">
+        <v>0.8419374788800025</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>144.7563934326172</v>
+      </c>
+      <c r="B558" t="n">
+        <v>35.72151720888386</v>
+      </c>
+      <c r="C558" t="n">
+        <v>-0.6809004548000244</v>
+      </c>
+      <c r="D558" t="n">
+        <v>1.024880467192438</v>
+      </c>
+      <c r="E558" t="n">
+        <v>7.066750964922958</v>
+      </c>
+      <c r="F558" t="n">
+        <v>50.23771446078432</v>
+      </c>
+      <c r="G558" t="n">
+        <v>0.0228606072875704</v>
+      </c>
+      <c r="H558" t="n">
+        <v>0.2216159823946295</v>
+      </c>
+      <c r="I558" t="n">
+        <v>0.980363726880464</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>125.0774841308594</v>
+      </c>
+      <c r="B559" t="n">
+        <v>44.11944122064075</v>
+      </c>
+      <c r="C559" t="n">
+        <v>-0.6267689461253303</v>
+      </c>
+      <c r="D559" t="n">
+        <v>0.6339499504216612</v>
+      </c>
+      <c r="E559" t="n">
+        <v>7.321804497019509</v>
+      </c>
+      <c r="F559" t="n">
+        <v>696.617830882353</v>
+      </c>
+      <c r="G559" t="n">
+        <v>0.01318941829756393</v>
+      </c>
+      <c r="H559" t="n">
+        <v>0.09315186064425332</v>
+      </c>
+      <c r="I559" t="n">
+        <v>0.8214841330480621</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>111.1795806884766</v>
+      </c>
+      <c r="B560" t="n">
+        <v>60.83194276983354</v>
+      </c>
+      <c r="C560" t="n">
+        <v>-0.7098125562178409</v>
+      </c>
+      <c r="D560" t="n">
+        <v>-0.6291246619955602</v>
+      </c>
+      <c r="E560" t="n">
+        <v>6.908115881611894</v>
+      </c>
+      <c r="F560" t="n">
+        <v>1198.92584252451</v>
+      </c>
+      <c r="G560" t="n">
+        <v>0.1266649535357445</v>
+      </c>
+      <c r="H560" t="n">
+        <v>0.1720849721081674</v>
+      </c>
+      <c r="I560" t="n">
+        <v>0.8373003073330831</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>110.239013671875</v>
+      </c>
+      <c r="B561" t="n">
+        <v>29.21433426950476</v>
+      </c>
+      <c r="C561" t="n">
+        <v>-0.5963629734545899</v>
+      </c>
+      <c r="D561" t="n">
+        <v>-0.2165992840652979</v>
+      </c>
+      <c r="E561" t="n">
+        <v>6.774300014361287</v>
+      </c>
+      <c r="F561" t="n">
+        <v>89.11475183823528</v>
+      </c>
+      <c r="G561" t="n">
+        <v>0.0277733179345201</v>
+      </c>
+      <c r="H561" t="n">
+        <v>0.243733947327793</v>
+      </c>
+      <c r="I561" t="n">
+        <v>0.9479230268615267</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>115.215576171875</v>
+      </c>
+      <c r="B562" t="n">
+        <v>39.43674364815596</v>
+      </c>
+      <c r="C562" t="n">
+        <v>-0.5633540282633589</v>
+      </c>
+      <c r="D562" t="n">
+        <v>-0.3067904922054927</v>
+      </c>
+      <c r="E562" t="n">
+        <v>7.142796965146583</v>
+      </c>
+      <c r="F562" t="n">
+        <v>338.2261182598039</v>
+      </c>
+      <c r="G562" t="n">
+        <v>0.01502670685424329</v>
+      </c>
+      <c r="H562" t="n">
+        <v>0.1171419379127804</v>
+      </c>
+      <c r="I562" t="n">
+        <v>0.8915083251814188</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>109.7140502929688</v>
+      </c>
+      <c r="B563" t="n">
+        <v>56.64356179111788</v>
+      </c>
+      <c r="C563" t="n">
+        <v>-0.3772468243310294</v>
+      </c>
+      <c r="D563" t="n">
+        <v>-1.108479929247116</v>
+      </c>
+      <c r="E563" t="n">
+        <v>7.381561680352898</v>
+      </c>
+      <c r="F563" t="n">
+        <v>415.7401194852941</v>
+      </c>
+      <c r="G563" t="n">
+        <v>0.02571575545060516</v>
+      </c>
+      <c r="H563" t="n">
+        <v>0.1887959834787868</v>
+      </c>
+      <c r="I563" t="n">
+        <v>0.9350886151784272</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>158.6390991210938</v>
+      </c>
+      <c r="B564" t="n">
+        <v>59.75598650480993</v>
+      </c>
+      <c r="C564" t="n">
+        <v>-0.6858107084989217</v>
+      </c>
+      <c r="D564" t="n">
+        <v>-0.6069641552664113</v>
+      </c>
+      <c r="E564" t="n">
+        <v>7.572729352248701</v>
+      </c>
+      <c r="F564" t="n">
+        <v>469.6866115196079</v>
+      </c>
+      <c r="G564" t="n">
+        <v>0.01782544630683401</v>
+      </c>
+      <c r="H564" t="n">
+        <v>0.1760534529893713</v>
+      </c>
+      <c r="I564" t="n">
+        <v>0.9343050525518239</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>116.9474029541016</v>
+      </c>
+      <c r="B565" t="n">
+        <v>30.88191366847479</v>
+      </c>
+      <c r="C565" t="n">
+        <v>0.1953639623290071</v>
+      </c>
+      <c r="D565" t="n">
+        <v>-0.3117166442954966</v>
+      </c>
+      <c r="E565" t="n">
+        <v>6.676186708103968</v>
+      </c>
+      <c r="F565" t="n">
+        <v>110.8452052696079</v>
+      </c>
+      <c r="G565" t="n">
+        <v>0.02900844923456657</v>
+      </c>
+      <c r="H565" t="n">
+        <v>0.2527471531478473</v>
+      </c>
+      <c r="I565" t="n">
+        <v>0.9420971666031968</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>137.9975280761719</v>
+      </c>
+      <c r="B566" t="n">
+        <v>38.2295780091637</v>
+      </c>
+      <c r="C566" t="n">
+        <v>-1.366945907155771</v>
+      </c>
+      <c r="D566" t="n">
+        <v>2.669004736536203</v>
+      </c>
+      <c r="E566" t="n">
+        <v>6.979000461706542</v>
+      </c>
+      <c r="F566" t="n">
+        <v>607.0992340686275</v>
+      </c>
+      <c r="G566" t="n">
+        <v>0.01567728121390479</v>
+      </c>
+      <c r="H566" t="n">
+        <v>0.1034163249411999</v>
+      </c>
+      <c r="I566" t="n">
+        <v>0.7924937216294516</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>111.6919555664062</v>
+      </c>
+      <c r="B567" t="n">
+        <v>59.09933271970202</v>
+      </c>
+      <c r="C567" t="n">
+        <v>-0.60611059853824</v>
+      </c>
+      <c r="D567" t="n">
+        <v>-0.9131427215475103</v>
+      </c>
+      <c r="E567" t="n">
+        <v>7.135854434838222</v>
+      </c>
+      <c r="F567" t="n">
+        <v>449.7750459558824</v>
+      </c>
+      <c r="G567" t="n">
+        <v>0.05490545267065278</v>
+      </c>
+      <c r="H567" t="n">
+        <v>0.2540544358510564</v>
+      </c>
+      <c r="I567" t="n">
+        <v>0.9356922656976885</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>131.0591278076172</v>
+      </c>
+      <c r="B568" t="n">
+        <v>38.35222531537934</v>
+      </c>
+      <c r="C568" t="n">
+        <v>-1.838249068075236</v>
+      </c>
+      <c r="D568" t="n">
+        <v>2.887263322250935</v>
+      </c>
+      <c r="E568" t="n">
+        <v>6.597266474689772</v>
+      </c>
+      <c r="F568" t="n">
+        <v>243.3910386029411</v>
+      </c>
+      <c r="G568" t="n">
+        <v>0.02260105538838568</v>
+      </c>
+      <c r="H568" t="n">
+        <v>0.1408550281397784</v>
+      </c>
+      <c r="I568" t="n">
+        <v>0.9174704856646941</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>113.6802825927734</v>
+      </c>
+      <c r="B569" t="n">
+        <v>49.14715836828186</v>
+      </c>
+      <c r="C569" t="n">
+        <v>-0.5403778020331906</v>
+      </c>
+      <c r="D569" t="n">
+        <v>-0.7543836301849391</v>
+      </c>
+      <c r="E569" t="n">
+        <v>7.381045470341659</v>
+      </c>
+      <c r="F569" t="n">
+        <v>716.1879289215688</v>
+      </c>
+      <c r="G569" t="n">
+        <v>0.01298211877182966</v>
+      </c>
+      <c r="H569" t="n">
+        <v>0.1025031849111882</v>
+      </c>
+      <c r="I569" t="n">
+        <v>0.8519372176231432</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>116.6229248046875</v>
+      </c>
+      <c r="B570" t="n">
+        <v>26.26096593568494</v>
+      </c>
+      <c r="C570" t="n">
+        <v>-0.2019682295724438</v>
+      </c>
+      <c r="D570" t="n">
+        <v>3.028866327164208</v>
+      </c>
+      <c r="E570" t="n">
+        <v>6.612507709725242</v>
+      </c>
+      <c r="F570" t="n">
+        <v>659.2757046568629</v>
+      </c>
+      <c r="G570" t="n">
+        <v>0.01711627508300869</v>
+      </c>
+      <c r="H570" t="n">
+        <v>0.0796712553542505</v>
+      </c>
+      <c r="I570" t="n">
+        <v>0.5227845313297802</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>143.3569030761719</v>
+      </c>
+      <c r="B571" t="n">
+        <v>34.27143980428415</v>
+      </c>
+      <c r="C571" t="n">
+        <v>0.008612137452163203</v>
+      </c>
+      <c r="D571" t="n">
+        <v>-0.132671698907457</v>
+      </c>
+      <c r="E571" t="n">
+        <v>7.087329305552297</v>
+      </c>
+      <c r="F571" t="n">
+        <v>71.8113511029412</v>
+      </c>
+      <c r="G571" t="n">
+        <v>0.02066465241970711</v>
+      </c>
+      <c r="H571" t="n">
+        <v>0.2027663972182932</v>
+      </c>
+      <c r="I571" t="n">
+        <v>0.9694778775268631</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>124.1617584228516</v>
+      </c>
+      <c r="B572" t="n">
+        <v>26.10268904443241</v>
+      </c>
+      <c r="C572" t="n">
+        <v>-0.6645658776665081</v>
+      </c>
+      <c r="D572" t="n">
+        <v>1.35657642247919</v>
+      </c>
+      <c r="E572" t="n">
+        <v>6.549391492980229</v>
+      </c>
+      <c r="F572" t="n">
+        <v>43.78339460784314</v>
+      </c>
+      <c r="G572" t="n">
+        <v>0.03846137333250289</v>
+      </c>
+      <c r="H572" t="n">
+        <v>0.3089251646376108</v>
+      </c>
+      <c r="I572" t="n">
+        <v>0.967925687032531</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>147.3229217529297</v>
+      </c>
+      <c r="B573" t="n">
+        <v>61.40470798185904</v>
+      </c>
+      <c r="C573" t="n">
+        <v>-0.4790953933652349</v>
+      </c>
+      <c r="D573" t="n">
+        <v>-0.7700591794940617</v>
+      </c>
+      <c r="E573" t="n">
+        <v>7.749127358516341</v>
+      </c>
+      <c r="F573" t="n">
+        <v>720.1229319852943</v>
+      </c>
+      <c r="G573" t="n">
+        <v>0.01309612745822799</v>
+      </c>
+      <c r="H573" t="n">
+        <v>0.1293078032955794</v>
+      </c>
+      <c r="I573" t="n">
+        <v>0.9045449047559657</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>118.7753143310547</v>
+      </c>
+      <c r="B574" t="n">
+        <v>25.64795218981108</v>
+      </c>
+      <c r="C574" t="n">
+        <v>-0.09457328333778696</v>
+      </c>
+      <c r="D574" t="n">
+        <v>-0.4688937881660533</v>
+      </c>
+      <c r="E574" t="n">
+        <v>6.622825624752891</v>
+      </c>
+      <c r="F574" t="n">
+        <v>57.67458639705882</v>
+      </c>
+      <c r="G574" t="n">
+        <v>0.03032381020244117</v>
+      </c>
+      <c r="H574" t="n">
+        <v>0.2854563699335643</v>
+      </c>
+      <c r="I574" t="n">
+        <v>0.9562249134718759</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>125.9651641845703</v>
+      </c>
+      <c r="B575" t="n">
+        <v>38.20330982146176</v>
+      </c>
+      <c r="C575" t="n">
+        <v>-0.6902545370247174</v>
+      </c>
+      <c r="D575" t="n">
+        <v>1.554328561028318</v>
+      </c>
+      <c r="E575" t="n">
+        <v>7.155065241582473</v>
+      </c>
+      <c r="F575" t="n">
+        <v>1021.173958333333</v>
+      </c>
+      <c r="G575" t="n">
+        <v>0.01130136866292419</v>
+      </c>
+      <c r="H575" t="n">
+        <v>0.05866907702485983</v>
+      </c>
+      <c r="I575" t="n">
+        <v>0.6433332066229824</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>118.6470336914062</v>
+      </c>
+      <c r="B576" t="n">
+        <v>25.83726194801888</v>
+      </c>
+      <c r="C576" t="n">
+        <v>-1.072370978738577</v>
+      </c>
+      <c r="D576" t="n">
+        <v>1.512054676183554</v>
+      </c>
+      <c r="E576" t="n">
+        <v>6.576683506661655</v>
+      </c>
+      <c r="F576" t="n">
+        <v>176.2869791666667</v>
+      </c>
+      <c r="G576" t="n">
+        <v>0.02092945000885716</v>
+      </c>
+      <c r="H576" t="n">
+        <v>0.1373307127511046</v>
+      </c>
+      <c r="I576" t="n">
+        <v>0.8681569630873355</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>117.1376037597656</v>
+      </c>
+      <c r="B577" t="n">
+        <v>50.81720948703351</v>
+      </c>
+      <c r="C577" t="n">
+        <v>-0.6408028889198603</v>
+      </c>
+      <c r="D577" t="n">
+        <v>-0.8152569445141236</v>
+      </c>
+      <c r="E577" t="n">
+        <v>7.376293940738866</v>
+      </c>
+      <c r="F577" t="n">
+        <v>521.3834099264707</v>
+      </c>
+      <c r="G577" t="n">
+        <v>0.01397288919927484</v>
+      </c>
+      <c r="H577" t="n">
+        <v>0.1138766807064538</v>
+      </c>
+      <c r="I577" t="n">
+        <v>0.8991374658087414</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>121.4576110839844</v>
+      </c>
+      <c r="B578" t="n">
+        <v>47.00661993985563</v>
+      </c>
+      <c r="C578" t="n">
+        <v>-0.4195194836602073</v>
+      </c>
+      <c r="D578" t="n">
+        <v>-0.7454844366952371</v>
+      </c>
+      <c r="E578" t="n">
+        <v>7.468669114216129</v>
+      </c>
+      <c r="F578" t="n">
+        <v>377.6241421568629</v>
+      </c>
+      <c r="G578" t="n">
+        <v>0.01341619699727585</v>
+      </c>
+      <c r="H578" t="n">
+        <v>0.1239249368439775</v>
+      </c>
+      <c r="I578" t="n">
+        <v>0.9146578050654532</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>119.7519683837891</v>
+      </c>
+      <c r="B579" t="n">
+        <v>29.64706416812699</v>
+      </c>
+      <c r="C579" t="n">
+        <v>-0.07458675531981024</v>
+      </c>
+      <c r="D579" t="n">
+        <v>-0.6005562892926459</v>
+      </c>
+      <c r="E579" t="n">
+        <v>6.85418148334777</v>
+      </c>
+      <c r="F579" t="n">
+        <v>31.72599571078432</v>
+      </c>
+      <c r="G579" t="n">
+        <v>0.02942056362205913</v>
+      </c>
+      <c r="H579" t="n">
+        <v>0.3086133660636478</v>
+      </c>
+      <c r="I579" t="n">
+        <v>0.9819802668948447</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>106.6680603027344</v>
+      </c>
+      <c r="B580" t="n">
+        <v>48.53148439075598</v>
+      </c>
+      <c r="C580" t="n">
+        <v>-0.1945067467416977</v>
+      </c>
+      <c r="D580" t="n">
+        <v>-1.115433606950499</v>
+      </c>
+      <c r="E580" t="n">
+        <v>7.475519347640261</v>
+      </c>
+      <c r="F580" t="n">
+        <v>568.7007046568626</v>
+      </c>
+      <c r="G580" t="n">
+        <v>0.01191613964003644</v>
+      </c>
+      <c r="H580" t="n">
+        <v>0.1058528473981653</v>
+      </c>
+      <c r="I580" t="n">
+        <v>0.8792195240688843</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>106.4638977050781</v>
+      </c>
+      <c r="B581" t="n">
+        <v>67.13087305067748</v>
+      </c>
+      <c r="C581" t="n">
+        <v>-0.1611518581616649</v>
+      </c>
+      <c r="D581" t="n">
+        <v>-1.428029836902814</v>
+      </c>
+      <c r="E581" t="n">
+        <v>7.573377215584314</v>
+      </c>
+      <c r="F581" t="n">
+        <v>682.1156403186276</v>
+      </c>
+      <c r="G581" t="n">
+        <v>0.01688910459718274</v>
+      </c>
+      <c r="H581" t="n">
+        <v>0.1632578984368407</v>
+      </c>
+      <c r="I581" t="n">
+        <v>0.9243281466226101</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>104.9313049316406</v>
+      </c>
+      <c r="B582" t="n">
+        <v>65.0043958773571</v>
+      </c>
+      <c r="C582" t="n">
+        <v>0.01030014139500536</v>
+      </c>
+      <c r="D582" t="n">
+        <v>-1.31852880213558</v>
+      </c>
+      <c r="E582" t="n">
+        <v>7.695072360532218</v>
+      </c>
+      <c r="F582" t="n">
+        <v>584.4162071078433</v>
+      </c>
+      <c r="G582" t="n">
+        <v>0.01686947459984164</v>
+      </c>
+      <c r="H582" t="n">
+        <v>0.1802203810352064</v>
+      </c>
+      <c r="I582" t="n">
+        <v>0.9307685067341129</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>115.0640411376953</v>
+      </c>
+      <c r="B583" t="n">
+        <v>33.91899516977779</v>
+      </c>
+      <c r="C583" t="n">
+        <v>-0.2150624621836043</v>
+      </c>
+      <c r="D583" t="n">
+        <v>0.2998828651705412</v>
+      </c>
+      <c r="E583" t="n">
+        <v>7.111522413901955</v>
+      </c>
+      <c r="F583" t="n">
+        <v>930.9431372549022</v>
+      </c>
+      <c r="G583" t="n">
+        <v>0.01048024767498632</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0.04770646871438809</v>
+      </c>
+      <c r="I583" t="n">
+        <v>0.5961091037318739</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>129.0606994628906</v>
+      </c>
+      <c r="B584" t="n">
+        <v>40.04920880159555</v>
+      </c>
+      <c r="C584" t="n">
+        <v>0.1246286703957565</v>
+      </c>
+      <c r="D584" t="n">
+        <v>-0.9629068641621603</v>
+      </c>
+      <c r="E584" t="n">
+        <v>7.200688584859672</v>
+      </c>
+      <c r="F584" t="n">
+        <v>56.00828737745098</v>
+      </c>
+      <c r="G584" t="n">
+        <v>0.02199377237638843</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0.2553799187655096</v>
+      </c>
+      <c r="I584" t="n">
+        <v>0.982572255338854</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>146.7722473144531</v>
+      </c>
+      <c r="B585" t="n">
+        <v>27.65531771563125</v>
+      </c>
+      <c r="C585" t="n">
+        <v>-1.626876250854955</v>
+      </c>
+      <c r="D585" t="n">
+        <v>3.606483970546781</v>
+      </c>
+      <c r="E585" t="n">
+        <v>6.511867874131929</v>
+      </c>
+      <c r="F585" t="n">
+        <v>48.34215686274511</v>
+      </c>
+      <c r="G585" t="n">
+        <v>0.03321479037366144</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0.2961952266122218</v>
+      </c>
+      <c r="I585" t="n">
+        <v>0.9684885632475095</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>113.4229431152344</v>
+      </c>
+      <c r="B586" t="n">
+        <v>45.07744171633563</v>
+      </c>
+      <c r="C586" t="n">
+        <v>-0.3770802166437832</v>
+      </c>
+      <c r="D586" t="n">
+        <v>-0.458813579011434</v>
+      </c>
+      <c r="E586" t="n">
+        <v>7.402912615051765</v>
+      </c>
+      <c r="F586" t="n">
+        <v>1395.779718137255</v>
+      </c>
+      <c r="G586" t="n">
+        <v>0.009760141794938969</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0.0514639542173765</v>
+      </c>
+      <c r="I586" t="n">
+        <v>0.6571402109718041</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>120.8648223876953</v>
+      </c>
+      <c r="B587" t="n">
+        <v>47.95539014217209</v>
+      </c>
+      <c r="C587" t="n">
+        <v>-0.4247381871905611</v>
+      </c>
+      <c r="D587" t="n">
+        <v>-0.4176029407308337</v>
+      </c>
+      <c r="E587" t="n">
+        <v>7.425721552789397</v>
+      </c>
+      <c r="F587" t="n">
+        <v>1184.617463235294</v>
+      </c>
+      <c r="G587" t="n">
+        <v>0.01164584484285096</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0.06998765180630771</v>
+      </c>
+      <c r="I587" t="n">
+        <v>0.7428648587218862</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>155.9208374023438</v>
+      </c>
+      <c r="B588" t="n">
+        <v>26.32038940293617</v>
+      </c>
+      <c r="C588" t="n">
+        <v>0.4809211149996362</v>
+      </c>
+      <c r="D588" t="n">
+        <v>0.7494731543344684</v>
+      </c>
+      <c r="E588" t="n">
+        <v>6.662093112554328</v>
+      </c>
+      <c r="F588" t="n">
+        <v>113.8973192401961</v>
+      </c>
+      <c r="G588" t="n">
+        <v>0.02287601987319583</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0.1723645296707675</v>
+      </c>
+      <c r="I588" t="n">
+        <v>0.9180192215607205</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>92.26483154296875</v>
+      </c>
+      <c r="B589" t="n">
+        <v>33.7069852078568</v>
+      </c>
+      <c r="C589" t="n">
+        <v>-0.3353131518483039</v>
+      </c>
+      <c r="D589" t="n">
+        <v>-0.9038057961301815</v>
+      </c>
+      <c r="E589" t="n">
+        <v>6.976292645438989</v>
+      </c>
+      <c r="F589" t="n">
+        <v>83.28929227941178</v>
+      </c>
+      <c r="G589" t="n">
+        <v>0.02324002899784228</v>
+      </c>
+      <c r="H589" t="n">
+        <v>0.2609115131094278</v>
+      </c>
+      <c r="I589" t="n">
+        <v>0.9633757784735134</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>130.9770202636719</v>
+      </c>
+      <c r="B590" t="n">
+        <v>47.77918815560465</v>
+      </c>
+      <c r="C590" t="n">
+        <v>-0.7168457401060262</v>
+      </c>
+      <c r="D590" t="n">
+        <v>-0.2233740980299168</v>
+      </c>
+      <c r="E590" t="n">
+        <v>7.374068753180162</v>
+      </c>
+      <c r="F590" t="n">
+        <v>499.145787377451</v>
+      </c>
+      <c r="G590" t="n">
+        <v>0.01374452270454383</v>
+      </c>
+      <c r="H590" t="n">
+        <v>0.1108706530857653</v>
+      </c>
+      <c r="I590" t="n">
+        <v>0.8908778848280997</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>109.0662536621094</v>
+      </c>
+      <c r="B591" t="n">
+        <v>38.07675777324757</v>
+      </c>
+      <c r="C591" t="n">
+        <v>-0.5326965147689474</v>
+      </c>
+      <c r="D591" t="n">
+        <v>-0.4307709401065458</v>
+      </c>
+      <c r="E591" t="n">
+        <v>7.173203341958074</v>
+      </c>
+      <c r="F591" t="n">
+        <v>193.7397824754902</v>
+      </c>
+      <c r="G591" t="n">
+        <v>0.01496701240848988</v>
+      </c>
+      <c r="H591" t="n">
+        <v>0.1363668737764097</v>
+      </c>
+      <c r="I591" t="n">
+        <v>0.9329901498755331</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>126.5420684814453</v>
+      </c>
+      <c r="B592" t="n">
+        <v>43.34526445813884</v>
+      </c>
+      <c r="C592" t="n">
+        <v>-1.450312909358161</v>
+      </c>
+      <c r="D592" t="n">
+        <v>1.017485069998735</v>
+      </c>
+      <c r="E592" t="n">
+        <v>6.757344064777613</v>
+      </c>
+      <c r="F592" t="n">
+        <v>278.8576899509804</v>
+      </c>
+      <c r="G592" t="n">
+        <v>0.02002233095281189</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0.132159294524046</v>
+      </c>
+      <c r="I592" t="n">
+        <v>0.9259803365652562</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>108.7558135986328</v>
+      </c>
+      <c r="B593" t="n">
+        <v>32.36264103475721</v>
+      </c>
+      <c r="C593" t="n">
+        <v>-0.5585413561598942</v>
+      </c>
+      <c r="D593" t="n">
+        <v>0.3400969953251538</v>
+      </c>
+      <c r="E593" t="n">
+        <v>6.830692769852112</v>
+      </c>
+      <c r="F593" t="n">
+        <v>31.40093443627451</v>
+      </c>
+      <c r="G593" t="n">
+        <v>0.03569067282060801</v>
+      </c>
+      <c r="H593" t="n">
+        <v>0.3475993331712053</v>
+      </c>
+      <c r="I593" t="n">
+        <v>0.9850540489995552</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>130.8950805664062</v>
+      </c>
+      <c r="B594" t="n">
+        <v>34.46226639948419</v>
+      </c>
+      <c r="C594" t="n">
+        <v>-1.451405288609048</v>
+      </c>
+      <c r="D594" t="n">
+        <v>2.598695730088446</v>
+      </c>
+      <c r="E594" t="n">
+        <v>6.827280900943024</v>
+      </c>
+      <c r="F594" t="n">
+        <v>608.8032169117649</v>
+      </c>
+      <c r="G594" t="n">
+        <v>0.0183768501771898</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0.114639653229803</v>
+      </c>
+      <c r="I594" t="n">
+        <v>0.7441293323203787</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>115.682861328125</v>
+      </c>
+      <c r="B595" t="n">
+        <v>46.52926544853238</v>
+      </c>
+      <c r="C595" t="n">
+        <v>-0.3987021214586133</v>
+      </c>
+      <c r="D595" t="n">
+        <v>-0.9764129490312916</v>
+      </c>
+      <c r="E595" t="n">
+        <v>7.365846772984789</v>
+      </c>
+      <c r="F595" t="n">
+        <v>504.246262254902</v>
+      </c>
+      <c r="G595" t="n">
+        <v>0.01310895068337017</v>
+      </c>
+      <c r="H595" t="n">
+        <v>0.1200089254228656</v>
+      </c>
+      <c r="I595" t="n">
+        <v>0.8835231333463617</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>119.6931762695312</v>
+      </c>
+      <c r="B596" t="n">
+        <v>50.49701287353138</v>
+      </c>
+      <c r="C596" t="n">
+        <v>-0.6535041480030777</v>
+      </c>
+      <c r="D596" t="n">
+        <v>-0.7016150247279733</v>
+      </c>
+      <c r="E596" t="n">
+        <v>7.401138661988176</v>
+      </c>
+      <c r="F596" t="n">
+        <v>444.7292126225491</v>
+      </c>
+      <c r="G596" t="n">
+        <v>0.01677836614518024</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0.1540769506049259</v>
+      </c>
+      <c r="I596" t="n">
+        <v>0.9130048115469466</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>238.0186309814453</v>
+      </c>
+      <c r="B597" t="n">
+        <v>47.04730802151278</v>
+      </c>
+      <c r="C597" t="n">
+        <v>-3.371229714862745</v>
+      </c>
+      <c r="D597" t="n">
+        <v>10.50180044809467</v>
+      </c>
+      <c r="E597" t="n">
+        <v>3.620207617572958</v>
+      </c>
+      <c r="F597" t="n">
+        <v>362.7301317401961</v>
+      </c>
+      <c r="G597" t="n">
+        <v>0.4599767283895921</v>
+      </c>
+      <c r="H597" t="n">
+        <v>0.604337901883725</v>
+      </c>
+      <c r="I597" t="n">
+        <v>0.9183456137908315</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>130.4677276611328</v>
+      </c>
+      <c r="B598" t="n">
+        <v>38.81410353911284</v>
+      </c>
+      <c r="C598" t="n">
+        <v>-0.9798821493343191</v>
+      </c>
+      <c r="D598" t="n">
+        <v>1.63472177725635</v>
+      </c>
+      <c r="E598" t="n">
+        <v>7.14198333833476</v>
+      </c>
+      <c r="F598" t="n">
+        <v>673.9937806372546</v>
+      </c>
+      <c r="G598" t="n">
+        <v>0.01426619094861293</v>
+      </c>
+      <c r="H598" t="n">
+        <v>0.1111075559958337</v>
+      </c>
+      <c r="I598" t="n">
+        <v>0.7768874989707971</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>145.5181732177734</v>
+      </c>
+      <c r="B599" t="n">
+        <v>36.49924423390524</v>
+      </c>
+      <c r="C599" t="n">
+        <v>-0.2186952808369792</v>
+      </c>
+      <c r="D599" t="n">
+        <v>-0.08771391299697884</v>
+      </c>
+      <c r="E599" t="n">
+        <v>7.164005468200497</v>
+      </c>
+      <c r="F599" t="n">
+        <v>41.49394914215686</v>
+      </c>
+      <c r="G599" t="n">
+        <v>0.02352930206073793</v>
+      </c>
+      <c r="H599" t="n">
+        <v>0.2498169945911153</v>
+      </c>
+      <c r="I599" t="n">
+        <v>0.984453792444229</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>139.2283935546875</v>
+      </c>
+      <c r="B600" t="n">
+        <v>44.75705623387297</v>
+      </c>
+      <c r="C600" t="n">
+        <v>-0.5317879355909028</v>
+      </c>
+      <c r="D600" t="n">
+        <v>0.1223372077274534</v>
+      </c>
+      <c r="E600" t="n">
+        <v>7.402645581214285</v>
+      </c>
+      <c r="F600" t="n">
+        <v>551.1009037990196</v>
+      </c>
+      <c r="G600" t="n">
+        <v>0.01199289072051632</v>
+      </c>
+      <c r="H600" t="n">
+        <v>0.09712973585490307</v>
+      </c>
+      <c r="I600" t="n">
+        <v>0.86261229421437</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>113.6616821289062</v>
+      </c>
+      <c r="B601" t="n">
+        <v>24.81666505113622</v>
+      </c>
+      <c r="C601" t="n">
+        <v>0.04409936285102263</v>
+      </c>
+      <c r="D601" t="n">
+        <v>0.3945886498119271</v>
+      </c>
+      <c r="E601" t="n">
+        <v>6.670397250374106</v>
+      </c>
+      <c r="F601" t="n">
+        <v>255.5166360294117</v>
+      </c>
+      <c r="G601" t="n">
+        <v>0.01663532411930715</v>
+      </c>
+      <c r="H601" t="n">
+        <v>0.1019868142219891</v>
+      </c>
+      <c r="I601" t="n">
+        <v>0.792767420406301</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>95.88861083984375</v>
+      </c>
+      <c r="B602" t="n">
+        <v>56.8563586674507</v>
+      </c>
+      <c r="C602" t="n">
+        <v>-0.4618489410638095</v>
+      </c>
+      <c r="D602" t="n">
+        <v>-0.9693729779382823</v>
+      </c>
+      <c r="E602" t="n">
+        <v>6.966397832040282</v>
+      </c>
+      <c r="F602" t="n">
+        <v>793.1979932598041</v>
+      </c>
+      <c r="G602" t="n">
+        <v>0.1204706865416232</v>
+      </c>
+      <c r="H602" t="n">
+        <v>0.1976154406465258</v>
+      </c>
+      <c r="I602" t="n">
+        <v>0.8768936634016369</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GreenChannel.xlsx
+++ b/GreenChannel.xlsx
@@ -423,47 +423,47 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>MeanG</t>
+          <t>Mean_G</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>VarianceG</t>
+          <t>Variance_G</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>SkewnessG</t>
+          <t>Skewness_G</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>KurtosisG</t>
+          <t>Kurtosis_G</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>ContrastG</t>
+          <t>Contrast_G</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>EntropyG</t>
+          <t>Entropy_G</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>EnergyG</t>
+          <t>Energy_G</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>HomoG</t>
+          <t>Homogeneity_G</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>CorreG</t>
+          <t>Correlation_G</t>
         </is>
       </c>
     </row>

--- a/GreenChannel.xlsx
+++ b/GreenChannel.xlsx
@@ -472,7 +472,7 @@
         <v>126.4129180908203</v>
       </c>
       <c r="B2" t="n">
-        <v>44.71754361572533</v>
+        <v>1999.658707024297</v>
       </c>
       <c r="C2" t="n">
         <v>-0.4586023226862094</v>
@@ -501,7 +501,7 @@
         <v>133.4938659667969</v>
       </c>
       <c r="B3" t="n">
-        <v>36.80758277351959</v>
+        <v>1354.798149629496</v>
       </c>
       <c r="C3" t="n">
         <v>-1.233129854541688</v>
@@ -530,7 +530,7 @@
         <v>127.2600402832031</v>
       </c>
       <c r="B4" t="n">
-        <v>36.01494508439477</v>
+        <v>1297.076269431971</v>
       </c>
       <c r="C4" t="n">
         <v>-0.6047149354561413</v>
@@ -559,7 +559,7 @@
         <v>129.6081390380859</v>
       </c>
       <c r="B5" t="n">
-        <v>42.16856664601836</v>
+        <v>1778.188012979692</v>
       </c>
       <c r="C5" t="n">
         <v>-1.172757637779427</v>
@@ -588,7 +588,7 @@
         <v>151.606689453125</v>
       </c>
       <c r="B6" t="n">
-        <v>43.68182467637836</v>
+        <v>1908.101807057858</v>
       </c>
       <c r="C6" t="n">
         <v>-1.116238698312194</v>
@@ -617,7 +617,7 @@
         <v>137.6746063232422</v>
       </c>
       <c r="B7" t="n">
-        <v>42.55232051700452</v>
+        <v>1810.699981381884</v>
       </c>
       <c r="C7" t="n">
         <v>-0.7462077692431853</v>
@@ -646,7 +646,7 @@
         <v>126.0905303955078</v>
       </c>
       <c r="B8" t="n">
-        <v>35.2648915716881</v>
+        <v>1243.612577562919</v>
       </c>
       <c r="C8" t="n">
         <v>-1.248276474821722</v>
@@ -675,7 +675,7 @@
         <v>115.3318786621094</v>
       </c>
       <c r="B9" t="n">
-        <v>24.78352740384375</v>
+        <v>614.223230577074</v>
       </c>
       <c r="C9" t="n">
         <v>0.8238086441184762</v>
@@ -704,7 +704,7 @@
         <v>106.3064422607422</v>
       </c>
       <c r="B10" t="n">
-        <v>35.20496770312032</v>
+        <v>1239.389750977745</v>
       </c>
       <c r="C10" t="n">
         <v>-0.08940294276665352</v>
@@ -733,7 +733,7 @@
         <v>125.8225860595703</v>
       </c>
       <c r="B11" t="n">
-        <v>38.82060851544655</v>
+        <v>1507.039645509562</v>
       </c>
       <c r="C11" t="n">
         <v>-0.2150616846851063</v>
@@ -762,7 +762,7 @@
         <v>107.0745849609375</v>
       </c>
       <c r="B12" t="n">
-        <v>39.81938237489837</v>
+        <v>1585.583212718368</v>
       </c>
       <c r="C12" t="n">
         <v>-0.2820862262904185</v>
@@ -791,7 +791,7 @@
         <v>120.5090026855469</v>
       </c>
       <c r="B13" t="n">
-        <v>44.99759730192039</v>
+        <v>2024.783762945794</v>
       </c>
       <c r="C13" t="n">
         <v>-0.2828237482969447</v>
@@ -820,7 +820,7 @@
         <v>137.1033782958984</v>
       </c>
       <c r="B14" t="n">
-        <v>45.8686792846659</v>
+        <v>2103.935739319539</v>
       </c>
       <c r="C14" t="n">
         <v>-0.7792810338779679</v>
@@ -849,7 +849,7 @@
         <v>129.14501953125</v>
       </c>
       <c r="B15" t="n">
-        <v>38.00690873925004</v>
+        <v>1444.525111913681</v>
       </c>
       <c r="C15" t="n">
         <v>-0.2590207070849589</v>
@@ -878,7 +878,7 @@
         <v>135.9043731689453</v>
       </c>
       <c r="B16" t="n">
-        <v>53.69269373494</v>
+        <v>2882.905360514065</v>
       </c>
       <c r="C16" t="n">
         <v>-0.4392507230639688</v>
@@ -907,7 +907,7 @@
         <v>122.9576263427734</v>
       </c>
       <c r="B17" t="n">
-        <v>28.89240465728666</v>
+        <v>834.7710468803998</v>
       </c>
       <c r="C17" t="n">
         <v>-0.05782559801246169</v>
@@ -936,7 +936,7 @@
         <v>124.0247344970703</v>
       </c>
       <c r="B18" t="n">
-        <v>46.88047118223249</v>
+        <v>2197.778578268131</v>
       </c>
       <c r="C18" t="n">
         <v>-0.5004829926228634</v>
@@ -965,7 +965,7 @@
         <v>143.3235015869141</v>
       </c>
       <c r="B19" t="n">
-        <v>32.03211137438795</v>
+        <v>1026.056159101194</v>
       </c>
       <c r="C19" t="n">
         <v>-0.2204083879151487</v>
@@ -994,7 +994,7 @@
         <v>225.6746215820312</v>
       </c>
       <c r="B20" t="n">
-        <v>52.17351539310883</v>
+        <v>2722.075708474964</v>
       </c>
       <c r="C20" t="n">
         <v>-2.137339949628173</v>
@@ -1023,7 +1023,7 @@
         <v>101.1726379394531</v>
       </c>
       <c r="B21" t="n">
-        <v>28.79605547445614</v>
+        <v>829.2128108879551</v>
       </c>
       <c r="C21" t="n">
         <v>-0.842188273701487</v>
@@ -1052,7 +1052,7 @@
         <v>130.1957702636719</v>
       </c>
       <c r="B22" t="n">
-        <v>47.08221359330569</v>
+        <v>2216.734836845659</v>
       </c>
       <c r="C22" t="n">
         <v>-1.017298926160359</v>
@@ -1081,7 +1081,7 @@
         <v>121.4798583984375</v>
       </c>
       <c r="B23" t="n">
-        <v>45.6472861701191</v>
+        <v>2083.674734696746</v>
       </c>
       <c r="C23" t="n">
         <v>-0.169016621226885</v>
@@ -1110,7 +1110,7 @@
         <v>129.0032653808594</v>
       </c>
       <c r="B24" t="n">
-        <v>43.78905819671458</v>
+        <v>1917.481617755257</v>
       </c>
       <c r="C24" t="n">
         <v>-1.239870652680332</v>
@@ -1139,7 +1139,7 @@
         <v>87.84986877441406</v>
       </c>
       <c r="B25" t="n">
-        <v>48.04153772738528</v>
+        <v>2307.989347211784</v>
       </c>
       <c r="C25" t="n">
         <v>-0.5708351709523228</v>
@@ -1168,7 +1168,7 @@
         <v>118.3735504150391</v>
       </c>
       <c r="B26" t="n">
-        <v>38.03188634757428</v>
+        <v>1446.424379154807</v>
       </c>
       <c r="C26" t="n">
         <v>-1.06065326045096</v>
@@ -1197,7 +1197,7 @@
         <v>122.5042419433594</v>
       </c>
       <c r="B27" t="n">
-        <v>30.69550806558435</v>
+        <v>942.214215404354</v>
       </c>
       <c r="C27" t="n">
         <v>-0.4083156630612741</v>
@@ -1226,7 +1226,7 @@
         <v>101.7774200439453</v>
       </c>
       <c r="B28" t="n">
-        <v>38.67429684378767</v>
+        <v>1495.701236361405</v>
       </c>
       <c r="C28" t="n">
         <v>-0.1198824238490856</v>
@@ -1255,7 +1255,7 @@
         <v>126.2908630371094</v>
       </c>
       <c r="B29" t="n">
-        <v>34.59065996548694</v>
+        <v>1196.51375684794</v>
       </c>
       <c r="C29" t="n">
         <v>-1.081009749292934</v>
@@ -1284,7 +1284,7 @@
         <v>125.2912445068359</v>
       </c>
       <c r="B30" t="n">
-        <v>46.79935400363712</v>
+        <v>2190.179535157746</v>
       </c>
       <c r="C30" t="n">
         <v>-0.5435504247807621</v>
@@ -1313,7 +1313,7 @@
         <v>107.5978698730469</v>
       </c>
       <c r="B31" t="n">
-        <v>48.23397865740204</v>
+        <v>2326.516697122715</v>
       </c>
       <c r="C31" t="n">
         <v>0.07380137422192731</v>
@@ -1342,7 +1342,7 @@
         <v>130.3361663818359</v>
       </c>
       <c r="B32" t="n">
-        <v>40.35914681689575</v>
+        <v>1628.860731787747</v>
       </c>
       <c r="C32" t="n">
         <v>-0.7447875775399678</v>
@@ -1371,7 +1371,7 @@
         <v>147.0816955566406</v>
       </c>
       <c r="B33" t="n">
-        <v>26.19939394009359</v>
+        <v>686.4082428282127</v>
       </c>
       <c r="C33" t="n">
         <v>0.1821360049624751</v>
@@ -1400,7 +1400,7 @@
         <v>121.6441192626953</v>
       </c>
       <c r="B34" t="n">
-        <v>48.71976050206276</v>
+        <v>2373.615063378355</v>
       </c>
       <c r="C34" t="n">
         <v>-0.2445979579171681</v>
@@ -1429,7 +1429,7 @@
         <v>133.1841583251953</v>
       </c>
       <c r="B35" t="n">
-        <v>34.58736655469451</v>
+        <v>1196.2859251888</v>
       </c>
       <c r="C35" t="n">
         <v>-1.050247208475749</v>
@@ -1458,7 +1458,7 @@
         <v>123.0609130859375</v>
       </c>
       <c r="B36" t="n">
-        <v>21.39804631342563</v>
+        <v>457.8763860315084</v>
       </c>
       <c r="C36" t="n">
         <v>-0.4537652336271765</v>
@@ -1487,7 +1487,7 @@
         <v>126.8279571533203</v>
       </c>
       <c r="B37" t="n">
-        <v>23.84717835084462</v>
+        <v>568.6879152969923</v>
       </c>
       <c r="C37" t="n">
         <v>-0.6149162332717746</v>
@@ -1516,7 +1516,7 @@
         <v>115.7298431396484</v>
       </c>
       <c r="B38" t="n">
-        <v>66.02525214945214</v>
+        <v>4359.333921398735</v>
       </c>
       <c r="C38" t="n">
         <v>-0.3069096534677065</v>
@@ -1545,7 +1545,7 @@
         <v>222.0371856689453</v>
       </c>
       <c r="B39" t="n">
-        <v>54.7570228257945</v>
+        <v>2998.33154874458</v>
       </c>
       <c r="C39" t="n">
         <v>-1.989609599159646</v>
@@ -1574,7 +1574,7 @@
         <v>126.9319915771484</v>
       </c>
       <c r="B40" t="n">
-        <v>30.17357720674002</v>
+        <v>910.4447614511009</v>
       </c>
       <c r="C40" t="n">
         <v>-1.459030500445062</v>
@@ -1603,7 +1603,7 @@
         <v>158.0941314697266</v>
       </c>
       <c r="B41" t="n">
-        <v>35.16330274373358</v>
+        <v>1236.457859847462</v>
       </c>
       <c r="C41" t="n">
         <v>-1.592094539361867</v>
@@ -1632,7 +1632,7 @@
         <v>118.5258178710938</v>
       </c>
       <c r="B42" t="n">
-        <v>48.81666370426062</v>
+        <v>2383.066655214876</v>
       </c>
       <c r="C42" t="n">
         <v>-0.1443683965458007</v>
@@ -1661,7 +1661,7 @@
         <v>101.1721649169922</v>
       </c>
       <c r="B43" t="n">
-        <v>50.29826571972691</v>
+        <v>2529.915534412256</v>
       </c>
       <c r="C43" t="n">
         <v>-0.9317483962647607</v>
@@ -1690,7 +1690,7 @@
         <v>100.3851013183594</v>
       </c>
       <c r="B44" t="n">
-        <v>57.72138153179844</v>
+        <v>3331.757885939442</v>
       </c>
       <c r="C44" t="n">
         <v>-0.6753729963828159</v>
@@ -1719,7 +1719,7 @@
         <v>103.7749328613281</v>
       </c>
       <c r="B45" t="n">
-        <v>31.2903914403779</v>
+        <v>979.0885964920744</v>
       </c>
       <c r="C45" t="n">
         <v>-0.06328368845843983</v>
@@ -1748,7 +1748,7 @@
         <v>165.9362335205078</v>
       </c>
       <c r="B46" t="n">
-        <v>31.17622162870523</v>
+        <v>971.9567950421479</v>
       </c>
       <c r="C46" t="n">
         <v>-1.117132206927881</v>
@@ -1777,7 +1777,7 @@
         <v>121.1497650146484</v>
       </c>
       <c r="B47" t="n">
-        <v>33.42281709249529</v>
+        <v>1117.084702398395</v>
       </c>
       <c r="C47" t="n">
         <v>-0.5907673766686012</v>
@@ -1806,7 +1806,7 @@
         <v>125.5103302001953</v>
       </c>
       <c r="B48" t="n">
-        <v>43.55416637273273</v>
+        <v>1896.965408423683</v>
       </c>
       <c r="C48" t="n">
         <v>-0.6542897011308523</v>
@@ -1835,7 +1835,7 @@
         <v>113.0219268798828</v>
       </c>
       <c r="B49" t="n">
-        <v>29.08963248837321</v>
+        <v>846.2067183086183</v>
       </c>
       <c r="C49" t="n">
         <v>-0.2927348134100219</v>
@@ -1864,7 +1864,7 @@
         <v>146.3970794677734</v>
       </c>
       <c r="B50" t="n">
-        <v>46.06874782075425</v>
+        <v>2122.329525772249</v>
       </c>
       <c r="C50" t="n">
         <v>-0.6502814643321552</v>
@@ -1893,7 +1893,7 @@
         <v>109.881103515625</v>
       </c>
       <c r="B51" t="n">
-        <v>44.47923009415273</v>
+        <v>1978.401909768581</v>
       </c>
       <c r="C51" t="n">
         <v>-0.1098458462090767</v>
@@ -1922,7 +1922,7 @@
         <v>117.6090240478516</v>
       </c>
       <c r="B52" t="n">
-        <v>51.68974519229225</v>
+        <v>2671.829758044099</v>
       </c>
       <c r="C52" t="n">
         <v>-0.2669139641484087</v>
@@ -1951,7 +1951,7 @@
         <v>110.0086822509766</v>
       </c>
       <c r="B53" t="n">
-        <v>22.65479388498287</v>
+        <v>513.239685971057</v>
       </c>
       <c r="C53" t="n">
         <v>-0.1324720184978072</v>
@@ -1980,7 +1980,7 @@
         <v>120.0487060546875</v>
       </c>
       <c r="B54" t="n">
-        <v>48.58066175514588</v>
+        <v>2360.080696567893</v>
       </c>
       <c r="C54" t="n">
         <v>-0.5288845497539006</v>
@@ -2009,7 +2009,7 @@
         <v>126.1659851074219</v>
       </c>
       <c r="B55" t="n">
-        <v>53.99117777976025</v>
+        <v>2915.047278045677</v>
       </c>
       <c r="C55" t="n">
         <v>-0.601240115025133</v>
@@ -2038,7 +2038,7 @@
         <v>111.6400604248047</v>
       </c>
       <c r="B56" t="n">
-        <v>52.98898292841957</v>
+        <v>2807.832311788341</v>
       </c>
       <c r="C56" t="n">
         <v>-0.171635060361642</v>
@@ -2067,7 +2067,7 @@
         <v>123.1078948974609</v>
       </c>
       <c r="B57" t="n">
-        <v>42.83785996078939</v>
+        <v>1835.082246020203</v>
       </c>
       <c r="C57" t="n">
         <v>-1.118587912595614</v>
@@ -2096,7 +2096,7 @@
         <v>132.3296051025391</v>
       </c>
       <c r="B58" t="n">
-        <v>39.17335816277232</v>
+        <v>1534.551989748841</v>
       </c>
       <c r="C58" t="n">
         <v>-0.1080451143976577</v>
@@ -2125,7 +2125,7 @@
         <v>127.9660949707031</v>
       </c>
       <c r="B59" t="n">
-        <v>29.08585898222957</v>
+        <v>845.9871927341446</v>
       </c>
       <c r="C59" t="n">
         <v>0.03032373591589558</v>
@@ -2154,7 +2154,7 @@
         <v>112.2174224853516</v>
       </c>
       <c r="B60" t="n">
-        <v>45.86958450608328</v>
+        <v>2104.018782760715</v>
       </c>
       <c r="C60" t="n">
         <v>-0.4259356667949837</v>
@@ -2183,7 +2183,7 @@
         <v>113.2694549560547</v>
       </c>
       <c r="B61" t="n">
-        <v>35.04543531244222</v>
+        <v>1228.182536238572</v>
       </c>
       <c r="C61" t="n">
         <v>-0.3641946289032276</v>
@@ -2212,7 +2212,7 @@
         <v>123.5894775390625</v>
       </c>
       <c r="B62" t="n">
-        <v>33.74340785403851</v>
+        <v>1138.617573603988</v>
       </c>
       <c r="C62" t="n">
         <v>-0.7464503418581724</v>
@@ -2241,7 +2241,7 @@
         <v>115.7027587890625</v>
       </c>
       <c r="B63" t="n">
-        <v>24.57324783154733</v>
+        <v>603.8445089906454</v>
       </c>
       <c r="C63" t="n">
         <v>-0.5752566034212281</v>
@@ -2270,7 +2270,7 @@
         <v>95.54367065429688</v>
       </c>
       <c r="B64" t="n">
-        <v>43.97394570906235</v>
+        <v>1933.707901223563</v>
       </c>
       <c r="C64" t="n">
         <v>-0.1709076353315188</v>
@@ -2299,7 +2299,7 @@
         <v>119.6289520263672</v>
       </c>
       <c r="B65" t="n">
-        <v>44.21702428487551</v>
+        <v>1955.145236609271</v>
       </c>
       <c r="C65" t="n">
         <v>-0.4570847897414578</v>
@@ -2328,7 +2328,7 @@
         <v>143.3977813720703</v>
       </c>
       <c r="B66" t="n">
-        <v>30.75296905261869</v>
+        <v>945.7451055513229</v>
       </c>
       <c r="C66" t="n">
         <v>-0.3989991153580859</v>
@@ -2357,7 +2357,7 @@
         <v>121.5296478271484</v>
       </c>
       <c r="B67" t="n">
-        <v>50.60875939017084</v>
+        <v>2561.246527012205</v>
       </c>
       <c r="C67" t="n">
         <v>-0.5772228037549993</v>
@@ -2386,7 +2386,7 @@
         <v>134.2993774414062</v>
       </c>
       <c r="B68" t="n">
-        <v>37.32238213663023</v>
+        <v>1392.960208352655</v>
       </c>
       <c r="C68" t="n">
         <v>-0.1907037224688166</v>
@@ -2415,7 +2415,7 @@
         <v>113.1158905029297</v>
       </c>
       <c r="B69" t="n">
-        <v>34.08221252898384</v>
+        <v>1161.597210870823</v>
       </c>
       <c r="C69" t="n">
         <v>-0.3651075019170754</v>
@@ -2444,7 +2444,7 @@
         <v>114.5829162597656</v>
       </c>
       <c r="B70" t="n">
-        <v>28.1338824496503</v>
+        <v>791.5153416907415</v>
       </c>
       <c r="C70" t="n">
         <v>-0.72034164248674</v>
@@ -2473,7 +2473,7 @@
         <v>115.7843933105469</v>
       </c>
       <c r="B71" t="n">
-        <v>36.74409229308792</v>
+        <v>1350.128318442963</v>
       </c>
       <c r="C71" t="n">
         <v>-1.17443411594116</v>
@@ -2502,7 +2502,7 @@
         <v>88.91566467285156</v>
       </c>
       <c r="B72" t="n">
-        <v>48.96760373756985</v>
+        <v>2397.826215799665</v>
       </c>
       <c r="C72" t="n">
         <v>-0.4159297623101786</v>
@@ -2531,7 +2531,7 @@
         <v>124.4808654785156</v>
       </c>
       <c r="B73" t="n">
-        <v>30.64734168052717</v>
+        <v>939.2595520829782</v>
       </c>
       <c r="C73" t="n">
         <v>-0.07428037048167828</v>
@@ -2560,7 +2560,7 @@
         <v>229.4714660644531</v>
       </c>
       <c r="B74" t="n">
-        <v>55.31280988414316</v>
+        <v>3059.506937279366</v>
       </c>
       <c r="C74" t="n">
         <v>-2.500263994402417</v>
@@ -2589,7 +2589,7 @@
         <v>114.3783874511719</v>
       </c>
       <c r="B75" t="n">
-        <v>29.45869392291225</v>
+        <v>867.8146476438269</v>
       </c>
       <c r="C75" t="n">
         <v>-0.02875443501979746</v>
@@ -2618,7 +2618,7 @@
         <v>105.9386444091797</v>
       </c>
       <c r="B76" t="n">
-        <v>53.80331690453621</v>
+        <v>2894.796909929952</v>
       </c>
       <c r="C76" t="n">
         <v>-0.9338298799117134</v>
@@ -2647,7 +2647,7 @@
         <v>118.9984588623047</v>
       </c>
       <c r="B77" t="n">
-        <v>23.24661881481227</v>
+        <v>540.4052863211837</v>
       </c>
       <c r="C77" t="n">
         <v>0.09376471129425032</v>
@@ -2676,7 +2676,7 @@
         <v>136.9919586181641</v>
       </c>
       <c r="B78" t="n">
-        <v>39.56907327044299</v>
+        <v>1565.711559481686</v>
       </c>
       <c r="C78" t="n">
         <v>-0.3177767890991996</v>
@@ -2705,7 +2705,7 @@
         <v>188.6625061035156</v>
       </c>
       <c r="B79" t="n">
-        <v>45.01896934132747</v>
+        <v>2026.707600555383</v>
       </c>
       <c r="C79" t="n">
         <v>-0.7574094398658061</v>
@@ -2734,7 +2734,7 @@
         <v>105.6718902587891</v>
       </c>
       <c r="B80" t="n">
-        <v>41.01949194126852</v>
+        <v>1682.598719119793</v>
       </c>
       <c r="C80" t="n">
         <v>-0.5708546691479829</v>
@@ -2763,7 +2763,7 @@
         <v>132.4586486816406</v>
       </c>
       <c r="B81" t="n">
-        <v>47.88378314738686</v>
+        <v>2292.85668850597</v>
       </c>
       <c r="C81" t="n">
         <v>-1.166109279075705</v>
@@ -2792,7 +2792,7 @@
         <v>131.4387969970703</v>
       </c>
       <c r="B82" t="n">
-        <v>21.74138760752486</v>
+        <v>472.6879351006355</v>
       </c>
       <c r="C82" t="n">
         <v>-0.3407367107705025</v>
@@ -2821,7 +2821,7 @@
         <v>121.1373443603516</v>
       </c>
       <c r="B83" t="n">
-        <v>45.7615386525833</v>
+        <v>2094.118419851875</v>
       </c>
       <c r="C83" t="n">
         <v>-0.8294261702413356</v>
@@ -2850,7 +2850,7 @@
         <v>176.6921844482422</v>
       </c>
       <c r="B84" t="n">
-        <v>26.7969346291458</v>
+        <v>718.0757055187132</v>
       </c>
       <c r="C84" t="n">
         <v>-0.3423354119017801</v>
@@ -2879,7 +2879,7 @@
         <v>126.9910430908203</v>
       </c>
       <c r="B85" t="n">
-        <v>32.87379453177459</v>
+        <v>1080.686366917333</v>
       </c>
       <c r="C85" t="n">
         <v>-0.4199627175363324</v>
@@ -2908,7 +2908,7 @@
         <v>120.4929656982422</v>
       </c>
       <c r="B86" t="n">
-        <v>28.22789412823924</v>
+        <v>796.8140069150832</v>
       </c>
       <c r="C86" t="n">
         <v>-0.7957994654693056</v>
@@ -2937,7 +2937,7 @@
         <v>116.3505096435547</v>
       </c>
       <c r="B87" t="n">
-        <v>29.28745563237759</v>
+        <v>857.7550574184861</v>
       </c>
       <c r="C87" t="n">
         <v>-0.3008721785011979</v>
@@ -2966,7 +2966,7 @@
         <v>118.6697692871094</v>
       </c>
       <c r="B88" t="n">
-        <v>25.6288443747442</v>
+        <v>656.8376639848575</v>
       </c>
       <c r="C88" t="n">
         <v>-0.1834714827338856</v>
@@ -2995,7 +2995,7 @@
         <v>121.2773284912109</v>
       </c>
       <c r="B89" t="n">
-        <v>29.0897004334081</v>
+        <v>846.2106713054236</v>
       </c>
       <c r="C89" t="n">
         <v>-0.3052764690356628</v>
@@ -3024,7 +3024,7 @@
         <v>118.6845855712891</v>
       </c>
       <c r="B90" t="n">
-        <v>33.45959839199494</v>
+        <v>1119.544724553591</v>
       </c>
       <c r="C90" t="n">
         <v>0.2334473674832212</v>
@@ -3053,7 +3053,7 @@
         <v>100.2877349853516</v>
       </c>
       <c r="B91" t="n">
-        <v>35.64841549499487</v>
+        <v>1270.809527303791</v>
       </c>
       <c r="C91" t="n">
         <v>0.1812930769954654</v>
@@ -3082,7 +3082,7 @@
         <v>119.9146118164062</v>
       </c>
       <c r="B92" t="n">
-        <v>32.47242768393181</v>
+        <v>1054.458559688181</v>
       </c>
       <c r="C92" t="n">
         <v>-0.3243008287983832</v>
@@ -3111,7 +3111,7 @@
         <v>111.9990386962891</v>
       </c>
       <c r="B93" t="n">
-        <v>43.73455693880427</v>
+        <v>1912.711470633512</v>
       </c>
       <c r="C93" t="n">
         <v>-0.5206906259419156</v>
@@ -3140,7 +3140,7 @@
         <v>129.6004638671875</v>
       </c>
       <c r="B94" t="n">
-        <v>42.17289108781551</v>
+        <v>1778.552742704749</v>
       </c>
       <c r="C94" t="n">
         <v>-1.172557500741717</v>
@@ -3169,7 +3169,7 @@
         <v>145.7173919677734</v>
       </c>
       <c r="B95" t="n">
-        <v>36.83240323394887</v>
+        <v>1356.625927988207</v>
       </c>
       <c r="C95" t="n">
         <v>-0.4955466471827377</v>
@@ -3198,7 +3198,7 @@
         <v>132.3353576660156</v>
       </c>
       <c r="B96" t="n">
-        <v>58.17541542435595</v>
+        <v>3384.378959796391</v>
       </c>
       <c r="C96" t="n">
         <v>-0.6946416461081226</v>
@@ -3227,7 +3227,7 @@
         <v>105.5607147216797</v>
       </c>
       <c r="B97" t="n">
-        <v>50.79842263966126</v>
+        <v>2580.479742677649</v>
       </c>
       <c r="C97" t="n">
         <v>-1.125396457585434</v>
@@ -3256,7 +3256,7 @@
         <v>170.1933441162109</v>
       </c>
       <c r="B98" t="n">
-        <v>24.78570359198618</v>
+        <v>614.3311025497969</v>
       </c>
       <c r="C98" t="n">
         <v>-0.6244986741638939</v>
@@ -3285,7 +3285,7 @@
         <v>129.5921936035156</v>
       </c>
       <c r="B99" t="n">
-        <v>44.73133212939158</v>
+        <v>2000.89207406994</v>
       </c>
       <c r="C99" t="n">
         <v>-0.6163707658648534</v>
@@ -3314,7 +3314,7 @@
         <v>98.43580627441406</v>
       </c>
       <c r="B100" t="n">
-        <v>41.35786787447616</v>
+        <v>1710.473235122627</v>
       </c>
       <c r="C100" t="n">
         <v>-0.05939260773307015</v>
@@ -3343,7 +3343,7 @@
         <v>137.6750183105469</v>
       </c>
       <c r="B101" t="n">
-        <v>42.55265410378676</v>
+        <v>1810.72837127652</v>
       </c>
       <c r="C101" t="n">
         <v>-0.7462117003758257</v>
@@ -3372,7 +3372,7 @@
         <v>106.6194458007812</v>
       </c>
       <c r="B102" t="n">
-        <v>24.9175651942649</v>
+        <v>620.8850552104414</v>
       </c>
       <c r="C102" t="n">
         <v>-0.4340760503296046</v>
@@ -3401,7 +3401,7 @@
         <v>108.6161499023438</v>
       </c>
       <c r="B103" t="n">
-        <v>60.64162015795609</v>
+        <v>3677.406095381826</v>
       </c>
       <c r="C103" t="n">
         <v>-0.6678613642811486</v>
@@ -3430,7 +3430,7 @@
         <v>106.8602600097656</v>
       </c>
       <c r="B104" t="n">
-        <v>34.00219321440054</v>
+        <v>1156.149143389426</v>
       </c>
       <c r="C104" t="n">
         <v>-0.715567244606468</v>
@@ -3459,7 +3459,7 @@
         <v>92.04753112792969</v>
       </c>
       <c r="B105" t="n">
-        <v>51.2522455891024</v>
+        <v>2626.792677925667</v>
       </c>
       <c r="C105" t="n">
         <v>-0.456254441947762</v>
@@ -3488,7 +3488,7 @@
         <v>89.84454345703125</v>
       </c>
       <c r="B106" t="n">
-        <v>48.14972892973946</v>
+        <v>2318.396396007389</v>
       </c>
       <c r="C106" t="n">
         <v>-0.1236024863325451</v>
@@ -3517,7 +3517,7 @@
         <v>121.8116302490234</v>
       </c>
       <c r="B107" t="n">
-        <v>55.99638703481795</v>
+        <v>3135.595360953128</v>
       </c>
       <c r="C107" t="n">
         <v>0.03361021613726106</v>
@@ -3546,7 +3546,7 @@
         <v>122.1652984619141</v>
       </c>
       <c r="B108" t="n">
-        <v>22.35734477762069</v>
+        <v>499.8508655054029</v>
       </c>
       <c r="C108" t="n">
         <v>-0.2301711683031963</v>
@@ -3575,7 +3575,7 @@
         <v>105.7758026123047</v>
       </c>
       <c r="B109" t="n">
-        <v>42.308714545277</v>
+        <v>1790.027326473733</v>
       </c>
       <c r="C109" t="n">
         <v>0.3763172661900706</v>
@@ -3604,7 +3604,7 @@
         <v>136.07763671875</v>
       </c>
       <c r="B110" t="n">
-        <v>64.14291482385602</v>
+        <v>4114.313522100449</v>
       </c>
       <c r="C110" t="n">
         <v>-0.5954664915561096</v>
@@ -3633,7 +3633,7 @@
         <v>122.5366363525391</v>
       </c>
       <c r="B111" t="n">
-        <v>25.97737781736166</v>
+        <v>674.8241582659539</v>
       </c>
       <c r="C111" t="n">
         <v>-0.2739570062184573</v>
@@ -3662,7 +3662,7 @@
         <v>126.8395080566406</v>
       </c>
       <c r="B112" t="n">
-        <v>34.2990976522414</v>
+        <v>1176.428099757992</v>
       </c>
       <c r="C112" t="n">
         <v>-1.250535765116197</v>
@@ -3691,7 +3691,7 @@
         <v>137.0093841552734</v>
       </c>
       <c r="B113" t="n">
-        <v>61.12912494228991</v>
+        <v>3736.769916210091</v>
       </c>
       <c r="C113" t="n">
         <v>-0.5736860508676954</v>
@@ -3720,7 +3720,7 @@
         <v>116.6852874755859</v>
       </c>
       <c r="B114" t="n">
-        <v>29.6374382733868</v>
+        <v>878.3777474088129</v>
       </c>
       <c r="C114" t="n">
         <v>-0.1915535157498585</v>
@@ -3749,7 +3749,7 @@
         <v>107.1766967773438</v>
       </c>
       <c r="B115" t="n">
-        <v>40.53547336596407</v>
+        <v>1643.124601002783</v>
       </c>
       <c r="C115" t="n">
         <v>-0.6847344356715411</v>
@@ -3778,7 +3778,7 @@
         <v>136.9646606445312</v>
       </c>
       <c r="B116" t="n">
-        <v>35.87527096828571</v>
+        <v>1287.035067047924</v>
       </c>
       <c r="C116" t="n">
         <v>-1.684925275439205</v>
@@ -3807,7 +3807,7 @@
         <v>134.8856201171875</v>
       </c>
       <c r="B117" t="n">
-        <v>29.76179299080558</v>
+        <v>885.764322027564</v>
       </c>
       <c r="C117" t="n">
         <v>0.02948245949217583</v>
@@ -3836,7 +3836,7 @@
         <v>232.4337005615234</v>
       </c>
       <c r="B118" t="n">
-        <v>39.36498429647599</v>
+        <v>1549.601988661801</v>
       </c>
       <c r="C118" t="n">
         <v>-2.781838242935655</v>
@@ -3865,7 +3865,7 @@
         <v>133.2546539306641</v>
       </c>
       <c r="B119" t="n">
-        <v>25.67668279184405</v>
+        <v>659.2920391929802</v>
       </c>
       <c r="C119" t="n">
         <v>0.4655403063616388</v>
@@ -3894,7 +3894,7 @@
         <v>122.8805389404297</v>
       </c>
       <c r="B120" t="n">
-        <v>48.85474207955394</v>
+        <v>2386.785823659739</v>
       </c>
       <c r="C120" t="n">
         <v>-0.9339050645327318</v>
@@ -3923,7 +3923,7 @@
         <v>162.8961944580078</v>
       </c>
       <c r="B121" t="n">
-        <v>49.95531615580903</v>
+        <v>2495.533612226835</v>
       </c>
       <c r="C121" t="n">
         <v>-0.6240081052091703</v>
@@ -3952,7 +3952,7 @@
         <v>116.730712890625</v>
       </c>
       <c r="B122" t="n">
-        <v>31.6103335955053</v>
+        <v>999.2131900191307</v>
       </c>
       <c r="C122" t="n">
         <v>-0.7248277316012445</v>
@@ -3981,7 +3981,7 @@
         <v>118.4481964111328</v>
       </c>
       <c r="B123" t="n">
-        <v>30.67392460009895</v>
+        <v>940.8896503725555</v>
       </c>
       <c r="C123" t="n">
         <v>0.609314152356496</v>
@@ -4010,7 +4010,7 @@
         <v>118.7644195556641</v>
       </c>
       <c r="B124" t="n">
-        <v>46.38980300166145</v>
+        <v>2152.013822532957</v>
       </c>
       <c r="C124" t="n">
         <v>-0.5080518031237952</v>
@@ -4039,7 +4039,7 @@
         <v>110.6005859375</v>
       </c>
       <c r="B125" t="n">
-        <v>51.16307428756715</v>
+        <v>2617.660170555115</v>
       </c>
       <c r="C125" t="n">
         <v>-0.3881903246603866</v>
@@ -4068,7 +4068,7 @@
         <v>228.5311737060547</v>
       </c>
       <c r="B126" t="n">
-        <v>60.32527015168584</v>
+        <v>3639.138218873879</v>
       </c>
       <c r="C126" t="n">
         <v>-2.438142557851051</v>
@@ -4097,7 +4097,7 @@
         <v>118.8392181396484</v>
       </c>
       <c r="B127" t="n">
-        <v>44.08802051441985</v>
+        <v>1943.753552879905</v>
       </c>
       <c r="C127" t="n">
         <v>-0.4865531811897263</v>
@@ -4126,7 +4126,7 @@
         <v>124.3042602539062</v>
       </c>
       <c r="B128" t="n">
-        <v>41.73316278909959</v>
+        <v>1741.656876381487</v>
       </c>
       <c r="C128" t="n">
         <v>-1.124751940207631</v>
@@ -4155,7 +4155,7 @@
         <v>119.4949493408203</v>
       </c>
       <c r="B129" t="n">
-        <v>60.55018745074965</v>
+        <v>3666.32520032092</v>
       </c>
       <c r="C129" t="n">
         <v>-0.5632327809089883</v>
@@ -4184,7 +4184,7 @@
         <v>129.9545135498047</v>
       </c>
       <c r="B130" t="n">
-        <v>47.36928995469481</v>
+        <v>2243.84963081195</v>
       </c>
       <c r="C130" t="n">
         <v>-0.6053313521338007</v>
@@ -4213,7 +4213,7 @@
         <v>119.7513275146484</v>
       </c>
       <c r="B131" t="n">
-        <v>29.86410729535942</v>
+        <v>891.86490454874</v>
       </c>
       <c r="C131" t="n">
         <v>-1.374155438295903</v>
@@ -4242,7 +4242,7 @@
         <v>116.9570617675781</v>
       </c>
       <c r="B132" t="n">
-        <v>47.53346040389183</v>
+        <v>2259.429857968353</v>
       </c>
       <c r="C132" t="n">
         <v>-0.5514322473974839</v>
@@ -4271,7 +4271,7 @@
         <v>168.2598876953125</v>
       </c>
       <c r="B133" t="n">
-        <v>38.28626473706575</v>
+        <v>1465.838067516685</v>
       </c>
       <c r="C133" t="n">
         <v>-0.8794556721789797</v>
@@ -4300,7 +4300,7 @@
         <v>119.4916534423828</v>
       </c>
       <c r="B134" t="n">
-        <v>60.55932400174119</v>
+        <v>3667.431723547867</v>
       </c>
       <c r="C134" t="n">
         <v>-0.5635856090295639</v>
@@ -4329,7 +4329,7 @@
         <v>140.5998229980469</v>
       </c>
       <c r="B135" t="n">
-        <v>26.46066213445291</v>
+        <v>700.1666405936703</v>
       </c>
       <c r="C135" t="n">
         <v>0.07618334880649202</v>
@@ -4358,7 +4358,7 @@
         <v>115.7751770019531</v>
       </c>
       <c r="B136" t="n">
-        <v>39.46196943290902</v>
+        <v>1557.247031523846</v>
       </c>
       <c r="C136" t="n">
         <v>-0.9998409195688592</v>
@@ -4387,7 +4387,7 @@
         <v>104.9645843505859</v>
       </c>
       <c r="B137" t="n">
-        <v>36.64649240074246</v>
+        <v>1342.965405277675</v>
       </c>
       <c r="C137" t="n">
         <v>-0.5314250585679064</v>
@@ -4416,7 +4416,7 @@
         <v>129.1790771484375</v>
       </c>
       <c r="B138" t="n">
-        <v>41.29063723023433</v>
+        <v>1704.916722878814</v>
       </c>
       <c r="C138" t="n">
         <v>-0.6568717730232958</v>
@@ -4445,7 +4445,7 @@
         <v>134.0792388916016</v>
       </c>
       <c r="B139" t="n">
-        <v>37.98866695507034</v>
+        <v>1443.138817023253</v>
       </c>
       <c r="C139" t="n">
         <v>-0.3752933021771033</v>
@@ -4474,7 +4474,7 @@
         <v>137.0952911376953</v>
       </c>
       <c r="B140" t="n">
-        <v>43.96351704650232</v>
+        <v>1932.7908310981</v>
       </c>
       <c r="C140" t="n">
         <v>-0.4278368456332353</v>
@@ -4503,7 +4503,7 @@
         <v>137.8029632568359</v>
       </c>
       <c r="B141" t="n">
-        <v>36.12868064731659</v>
+        <v>1305.281565315789</v>
       </c>
       <c r="C141" t="n">
         <v>-1.179953750671316</v>
@@ -4532,7 +4532,7 @@
         <v>112.9045562744141</v>
       </c>
       <c r="B142" t="n">
-        <v>47.13208602117204</v>
+        <v>2221.43353270716</v>
       </c>
       <c r="C142" t="n">
         <v>-0.5243009717868317</v>
@@ -4561,7 +4561,7 @@
         <v>129.6007537841797</v>
       </c>
       <c r="B143" t="n">
-        <v>42.1739573754494</v>
+        <v>1778.642680706223</v>
       </c>
       <c r="C143" t="n">
         <v>-1.172530426479483</v>
@@ -4590,7 +4590,7 @@
         <v>124.5915985107422</v>
       </c>
       <c r="B144" t="n">
-        <v>39.51720510255156</v>
+        <v>1561.609499117127</v>
       </c>
       <c r="C144" t="n">
         <v>-1.472182121244984</v>
@@ -4619,7 +4619,7 @@
         <v>191.8729858398438</v>
       </c>
       <c r="B145" t="n">
-        <v>48.91353385476184</v>
+        <v>2392.533794160932</v>
       </c>
       <c r="C145" t="n">
         <v>-0.4869680728890156</v>
@@ -4648,7 +4648,7 @@
         <v>117.1371002197266</v>
       </c>
       <c r="B146" t="n">
-        <v>50.81875765578309</v>
+        <v>2582.546129677212</v>
       </c>
       <c r="C146" t="n">
         <v>-0.641021902586808</v>
@@ -4677,7 +4677,7 @@
         <v>122.38427734375</v>
       </c>
       <c r="B147" t="n">
-        <v>61.5971017774226</v>
+        <v>3794.202947378159</v>
       </c>
       <c r="C147" t="n">
         <v>-0.3378656556023754</v>
@@ -4706,7 +4706,7 @@
         <v>97.81233215332031</v>
       </c>
       <c r="B148" t="n">
-        <v>25.2345790412228</v>
+        <v>636.783979387721</v>
       </c>
       <c r="C148" t="n">
         <v>0.3135273087462967</v>
@@ -4735,7 +4735,7 @@
         <v>106.2232971191406</v>
       </c>
       <c r="B149" t="n">
-        <v>23.67806175275516</v>
+        <v>560.6506083672866</v>
       </c>
       <c r="C149" t="n">
         <v>-0.1803958264648803</v>
@@ -4764,7 +4764,7 @@
         <v>139.7759094238281</v>
       </c>
       <c r="B150" t="n">
-        <v>50.93941279926176</v>
+        <v>2594.823776333593</v>
       </c>
       <c r="C150" t="n">
         <v>-0.3296678711189334</v>
@@ -4793,7 +4793,7 @@
         <v>164.4815521240234</v>
       </c>
       <c r="B151" t="n">
-        <v>27.55795221406178</v>
+        <v>759.4407302325126</v>
       </c>
       <c r="C151" t="n">
         <v>-0.203093993933303</v>
@@ -4822,7 +4822,7 @@
         <v>156.0648193359375</v>
       </c>
       <c r="B152" t="n">
-        <v>60.11894625730273</v>
+        <v>3614.287699088454</v>
       </c>
       <c r="C152" t="n">
         <v>-0.7899619888475298</v>
@@ -4851,7 +4851,7 @@
         <v>143.5903778076172</v>
       </c>
       <c r="B153" t="n">
-        <v>35.98290624467162</v>
+        <v>1294.769541812828</v>
       </c>
       <c r="C153" t="n">
         <v>-1.017090599963505</v>
@@ -4880,7 +4880,7 @@
         <v>136.6104888916016</v>
       </c>
       <c r="B154" t="n">
-        <v>37.0400161758651</v>
+        <v>1371.962798308348</v>
       </c>
       <c r="C154" t="n">
         <v>-1.420259035344816</v>
@@ -4909,7 +4909,7 @@
         <v>89.41184997558594</v>
       </c>
       <c r="B155" t="n">
-        <v>24.65731588976482</v>
+        <v>607.9832268876489</v>
       </c>
       <c r="C155" t="n">
         <v>-0.3218589591504629</v>
@@ -4938,7 +4938,7 @@
         <v>122.7458648681641</v>
       </c>
       <c r="B156" t="n">
-        <v>66.93976314982369</v>
+        <v>4480.931890554493</v>
       </c>
       <c r="C156" t="n">
         <v>-0.4502087954561164</v>
@@ -4967,7 +4967,7 @@
         <v>122.5978393554688</v>
       </c>
       <c r="B157" t="n">
-        <v>30.53911762465564</v>
+        <v>932.6377052925527</v>
       </c>
       <c r="C157" t="n">
         <v>-1.412352173813089</v>
@@ -4996,7 +4996,7 @@
         <v>127.5079498291016</v>
       </c>
       <c r="B158" t="n">
-        <v>37.01944115885976</v>
+        <v>1370.43902371428</v>
       </c>
       <c r="C158" t="n">
         <v>-1.303222526362431</v>
@@ -5025,7 +5025,7 @@
         <v>117.4163970947266</v>
       </c>
       <c r="B159" t="n">
-        <v>30.95196748305038</v>
+        <v>958.024291071808</v>
       </c>
       <c r="C159" t="n">
         <v>-0.5369158409951519</v>
@@ -5054,7 +5054,7 @@
         <v>111.9371490478516</v>
       </c>
       <c r="B160" t="n">
-        <v>32.41923514218222</v>
+        <v>1051.006807204103</v>
       </c>
       <c r="C160" t="n">
         <v>-0.516934211460698</v>
@@ -5083,7 +5083,7 @@
         <v>137.0997009277344</v>
       </c>
       <c r="B161" t="n">
-        <v>45.87098390286823</v>
+        <v>2104.147164217196</v>
       </c>
       <c r="C161" t="n">
         <v>-0.7792064741392613</v>
@@ -5112,7 +5112,7 @@
         <v>129.5795288085938</v>
       </c>
       <c r="B162" t="n">
-        <v>50.11108136635761</v>
+        <v>2511.120475705713</v>
       </c>
       <c r="C162" t="n">
         <v>-0.808211960523011</v>
@@ -5141,7 +5141,7 @@
         <v>114.7081146240234</v>
       </c>
       <c r="B163" t="n">
-        <v>40.68636769764865</v>
+        <v>1655.380516428268</v>
       </c>
       <c r="C163" t="n">
         <v>-0.6177847828814693</v>
@@ -5170,7 +5170,7 @@
         <v>107.3435821533203</v>
       </c>
       <c r="B164" t="n">
-        <v>49.66875699222352</v>
+        <v>2466.985421152553</v>
       </c>
       <c r="C164" t="n">
         <v>-0.3647929995012367</v>
@@ -5199,7 +5199,7 @@
         <v>100.4167938232422</v>
       </c>
       <c r="B165" t="n">
-        <v>58.57769679527841</v>
+        <v>3431.346561839571</v>
       </c>
       <c r="C165" t="n">
         <v>-0.2604892000095879</v>
@@ -5228,7 +5228,7 @@
         <v>114.7514801025391</v>
       </c>
       <c r="B166" t="n">
-        <v>32.39159904083294</v>
+        <v>1049.215688422089</v>
       </c>
       <c r="C166" t="n">
         <v>-0.7367109462798204</v>
@@ -5257,7 +5257,7 @@
         <v>115.1348876953125</v>
       </c>
       <c r="B167" t="n">
-        <v>44.18717567383501</v>
+        <v>1952.506494030356</v>
       </c>
       <c r="C167" t="n">
         <v>-0.2813914881977876</v>
@@ -5286,7 +5286,7 @@
         <v>109.3414459228516</v>
       </c>
       <c r="B168" t="n">
-        <v>49.77984865670352</v>
+        <v>2478.033332284307</v>
       </c>
       <c r="C168" t="n">
         <v>-0.3680689451089663</v>
@@ -5315,7 +5315,7 @@
         <v>126.8410034179688</v>
       </c>
       <c r="B169" t="n">
-        <v>34.29955126757805</v>
+        <v>1176.459217157215</v>
       </c>
       <c r="C169" t="n">
         <v>-1.250520602341538</v>
@@ -5344,7 +5344,7 @@
         <v>109.2727203369141</v>
       </c>
       <c r="B170" t="n">
-        <v>36.21052004491924</v>
+        <v>1311.201761923498</v>
       </c>
       <c r="C170" t="n">
         <v>0.06339158381161807</v>
@@ -5373,7 +5373,7 @@
         <v>145.1121063232422</v>
       </c>
       <c r="B171" t="n">
-        <v>31.0517670980501</v>
+        <v>964.2122399115469</v>
       </c>
       <c r="C171" t="n">
         <v>-0.9326253038445923</v>
@@ -5402,7 +5402,7 @@
         <v>158.6514129638672</v>
       </c>
       <c r="B172" t="n">
-        <v>59.74331659954603</v>
+        <v>3569.263878313592</v>
       </c>
       <c r="C172" t="n">
         <v>-0.6856843317530714</v>
@@ -5431,7 +5431,7 @@
         <v>131.7844848632812</v>
       </c>
       <c r="B173" t="n">
-        <v>18.62659424550775</v>
+        <v>346.9500131867826</v>
       </c>
       <c r="C173" t="n">
         <v>-0.9189025135576577</v>
@@ -5460,7 +5460,7 @@
         <v>105.2342987060547</v>
       </c>
       <c r="B174" t="n">
-        <v>26.32609162660043</v>
+        <v>693.0631003321614</v>
       </c>
       <c r="C174" t="n">
         <v>-0.4362364801629555</v>
@@ -5489,7 +5489,7 @@
         <v>121.6776275634766</v>
       </c>
       <c r="B175" t="n">
-        <v>25.05026265614899</v>
+        <v>627.5156591420528</v>
       </c>
       <c r="C175" t="n">
         <v>-0.08672262598445209</v>
@@ -5518,7 +5518,7 @@
         <v>240.5009155273438</v>
       </c>
       <c r="B176" t="n">
-        <v>41.04363291216564</v>
+        <v>1684.579802628607</v>
       </c>
       <c r="C176" t="n">
         <v>-3.890785325167596</v>
@@ -5547,7 +5547,7 @@
         <v>125.0782928466797</v>
       </c>
       <c r="B177" t="n">
-        <v>44.11784832702663</v>
+        <v>1946.384541006526</v>
       </c>
       <c r="C177" t="n">
         <v>-0.62663620793776</v>
@@ -5576,7 +5576,7 @@
         <v>118.9046020507812</v>
       </c>
       <c r="B178" t="n">
-        <v>40.28664034995178</v>
+        <v>1623.013390686363</v>
       </c>
       <c r="C178" t="n">
         <v>-0.909012493977112</v>
@@ -5605,7 +5605,7 @@
         <v>223.7677307128906</v>
       </c>
       <c r="B179" t="n">
-        <v>56.5732425697451</v>
+        <v>3200.531774855219</v>
       </c>
       <c r="C179" t="n">
         <v>-1.898178927225674</v>
@@ -5634,7 +5634,7 @@
         <v>109.1810150146484</v>
       </c>
       <c r="B180" t="n">
-        <v>36.11256646020595</v>
+        <v>1304.117456342792</v>
       </c>
       <c r="C180" t="n">
         <v>-0.1162410073636664</v>
@@ -5663,7 +5663,7 @@
         <v>76.20191955566406</v>
       </c>
       <c r="B181" t="n">
-        <v>45.93893808178316</v>
+        <v>2110.386032081908</v>
       </c>
       <c r="C181" t="n">
         <v>-0.305205655528026</v>
@@ -5692,7 +5692,7 @@
         <v>118.1584777832031</v>
       </c>
       <c r="B182" t="n">
-        <v>45.39732531256019</v>
+        <v>2060.917145534419</v>
       </c>
       <c r="C182" t="n">
         <v>-0.8824542294223039</v>
@@ -5721,7 +5721,7 @@
         <v>116.6971740722656</v>
       </c>
       <c r="B183" t="n">
-        <v>27.8427652318222</v>
+        <v>775.2195757543668</v>
       </c>
       <c r="C183" t="n">
         <v>0.3636696069478579</v>
@@ -5750,7 +5750,7 @@
         <v>125.3397216796875</v>
       </c>
       <c r="B184" t="n">
-        <v>44.74867501225288</v>
+        <v>2002.443915352225</v>
       </c>
       <c r="C184" t="n">
         <v>-0.9390169043318434</v>
@@ -5779,7 +5779,7 @@
         <v>121.9474945068359</v>
       </c>
       <c r="B185" t="n">
-        <v>60.83779582836842</v>
+        <v>3701.237401254242</v>
       </c>
       <c r="C185" t="n">
         <v>-0.3025754040384077</v>
@@ -5808,7 +5808,7 @@
         <v>98.46533203125</v>
       </c>
       <c r="B186" t="n">
-        <v>48.06336785563495</v>
+        <v>2310.087329626083</v>
       </c>
       <c r="C186" t="n">
         <v>-0.160873066303742</v>
@@ -5837,7 +5837,7 @@
         <v>136.8200225830078</v>
       </c>
       <c r="B187" t="n">
-        <v>52.08086887882457</v>
+        <v>2712.416903173318</v>
       </c>
       <c r="C187" t="n">
         <v>-1.156683706331336</v>
@@ -5866,7 +5866,7 @@
         <v>115.0192565917969</v>
       </c>
       <c r="B188" t="n">
-        <v>46.9274426203143</v>
+        <v>2202.184870882891</v>
       </c>
       <c r="C188" t="n">
         <v>-0.1020350987320869</v>
@@ -5895,7 +5895,7 @@
         <v>134.3478851318359</v>
       </c>
       <c r="B189" t="n">
-        <v>39.52036418462807</v>
+        <v>1561.859185285633</v>
       </c>
       <c r="C189" t="n">
         <v>-0.8781918823243358</v>
@@ -5924,7 +5924,7 @@
         <v>78.44326782226562</v>
       </c>
       <c r="B190" t="n">
-        <v>22.16847537615021</v>
+        <v>491.4413005029783</v>
       </c>
       <c r="C190" t="n">
         <v>0.01222786263252544</v>
@@ -5953,7 +5953,7 @@
         <v>137.0088806152344</v>
       </c>
       <c r="B191" t="n">
-        <v>61.13008790247852</v>
+        <v>3736.887646964751</v>
       </c>
       <c r="C191" t="n">
         <v>-0.5736458658576847</v>
@@ -5982,7 +5982,7 @@
         <v>100.7856750488281</v>
       </c>
       <c r="B192" t="n">
-        <v>35.73469516582731</v>
+        <v>1276.968438594602</v>
       </c>
       <c r="C192" t="n">
         <v>-0.1991799850787127</v>
@@ -6011,7 +6011,7 @@
         <v>111.4165802001953</v>
       </c>
       <c r="B193" t="n">
-        <v>44.09257823815457</v>
+        <v>1944.155455687782</v>
       </c>
       <c r="C193" t="n">
         <v>-0.1965100029973525</v>
@@ -6040,7 +6040,7 @@
         <v>106.4759521484375</v>
       </c>
       <c r="B194" t="n">
-        <v>67.12861701419108</v>
+        <v>4506.251222237945</v>
       </c>
       <c r="C194" t="n">
         <v>-0.1615681554846925</v>
@@ -6069,7 +6069,7 @@
         <v>103.82763671875</v>
       </c>
       <c r="B195" t="n">
-        <v>43.55034573797691</v>
+        <v>1896.632613897324</v>
       </c>
       <c r="C195" t="n">
         <v>-0.3996757415809702</v>
@@ -6098,7 +6098,7 @@
         <v>125.9006042480469</v>
       </c>
       <c r="B196" t="n">
-        <v>39.07290926466079</v>
+        <v>1526.692238404416</v>
       </c>
       <c r="C196" t="n">
         <v>0.01682886073679042</v>
@@ -6127,7 +6127,7 @@
         <v>248.567138671875</v>
       </c>
       <c r="B197" t="n">
-        <v>23.4706486252708</v>
+        <v>550.8713468909264</v>
       </c>
       <c r="C197" t="n">
         <v>-6.50366670151582</v>
@@ -6156,7 +6156,7 @@
         <v>139.6632995605469</v>
       </c>
       <c r="B198" t="n">
-        <v>37.14951249761113</v>
+        <v>1380.086278810166</v>
       </c>
       <c r="C198" t="n">
         <v>-0.338928654173884</v>
@@ -6185,7 +6185,7 @@
         <v>129.9739685058594</v>
       </c>
       <c r="B199" t="n">
-        <v>25.81430338259956</v>
+        <v>666.3782591288909</v>
       </c>
       <c r="C199" t="n">
         <v>0.4668613470979741</v>
@@ -6214,7 +6214,7 @@
         <v>101.9410400390625</v>
       </c>
       <c r="B200" t="n">
-        <v>54.50921555446961</v>
+        <v>2971.254580363631</v>
       </c>
       <c r="C200" t="n">
         <v>-0.2779700302378589</v>
@@ -6243,7 +6243,7 @@
         <v>136.5780029296875</v>
       </c>
       <c r="B201" t="n">
-        <v>65.43011908078552</v>
+        <v>4281.100482925773</v>
       </c>
       <c r="C201" t="n">
         <v>-0.342208855603401</v>
@@ -6272,7 +6272,7 @@
         <v>125.4332122802734</v>
       </c>
       <c r="B202" t="n">
-        <v>20.20437405134699</v>
+        <v>408.2167308067437</v>
       </c>
       <c r="C202" t="n">
         <v>-0.5861706759698213</v>
@@ -6301,7 +6301,7 @@
         <v>114.2537078857422</v>
       </c>
       <c r="B203" t="n">
-        <v>26.0761708067817</v>
+        <v>679.9666839444544</v>
       </c>
       <c r="C203" t="n">
         <v>-0.1990459150465769</v>
@@ -6330,7 +6330,7 @@
         <v>103.9215698242188</v>
       </c>
       <c r="B204" t="n">
-        <v>52.75311224829635</v>
+        <v>2782.890851881355</v>
       </c>
       <c r="C204" t="n">
         <v>-0.8813463289788509</v>
@@ -6359,7 +6359,7 @@
         <v>121.8860778808594</v>
       </c>
       <c r="B205" t="n">
-        <v>46.07971274893332</v>
+        <v>2123.339927024208</v>
       </c>
       <c r="C205" t="n">
         <v>-0.4375803425960729</v>
@@ -6388,7 +6388,7 @@
         <v>112.0876617431641</v>
       </c>
       <c r="B206" t="n">
-        <v>38.53078297838722</v>
+        <v>1484.621236927575</v>
       </c>
       <c r="C206" t="n">
         <v>-0.5670136486469809</v>
@@ -6417,7 +6417,7 @@
         <v>147.3187408447266</v>
       </c>
       <c r="B207" t="n">
-        <v>61.40108578277893</v>
+        <v>3770.093335304176</v>
       </c>
       <c r="C207" t="n">
         <v>-0.4792267135686342</v>
@@ -6446,7 +6446,7 @@
         <v>229.3495178222656</v>
       </c>
       <c r="B208" t="n">
-        <v>37.83122678883886</v>
+        <v>1431.201720348559</v>
       </c>
       <c r="C208" t="n">
         <v>-1.709411644806054</v>
@@ -6475,7 +6475,7 @@
         <v>110.8969421386719</v>
       </c>
       <c r="B209" t="n">
-        <v>58.79385024462154</v>
+        <v>3456.716826586984</v>
       </c>
       <c r="C209" t="n">
         <v>-0.4397176271288893</v>
@@ -6504,7 +6504,7 @@
         <v>115.33203125</v>
       </c>
       <c r="B210" t="n">
-        <v>24.78428879490666</v>
+        <v>614.2609710693359</v>
       </c>
       <c r="C210" t="n">
         <v>0.8237479755327544</v>
@@ -6533,7 +6533,7 @@
         <v>96.4959716796875</v>
       </c>
       <c r="B211" t="n">
-        <v>54.10653307160324</v>
+        <v>2927.516921028495</v>
       </c>
       <c r="C211" t="n">
         <v>-0.6058266206550428</v>
@@ -6562,7 +6562,7 @@
         <v>118.4503326416016</v>
       </c>
       <c r="B212" t="n">
-        <v>30.67682067709562</v>
+        <v>941.0673268546816</v>
       </c>
       <c r="C212" t="n">
         <v>0.6095612863440726</v>
@@ -6591,7 +6591,7 @@
         <v>109.2440490722656</v>
       </c>
       <c r="B213" t="n">
-        <v>39.79196095755022</v>
+        <v>1583.400156847201</v>
       </c>
       <c r="C213" t="n">
         <v>-0.5811053308975431</v>
@@ -6620,7 +6620,7 @@
         <v>124.6571044921875</v>
       </c>
       <c r="B214" t="n">
-        <v>50.30812960991948</v>
+        <v>2530.907904848456</v>
       </c>
       <c r="C214" t="n">
         <v>-0.419124793771504</v>
@@ -6649,7 +6649,7 @@
         <v>127.0529937744141</v>
       </c>
       <c r="B215" t="n">
-        <v>25.40136159795357</v>
+        <v>645.2291710299905</v>
       </c>
       <c r="C215" t="n">
         <v>0.08465919129498213</v>
@@ -6678,7 +6678,7 @@
         <v>118.3178405761719</v>
       </c>
       <c r="B216" t="n">
-        <v>45.81954745818029</v>
+        <v>2099.430929272436</v>
       </c>
       <c r="C216" t="n">
         <v>-0.475672948102192</v>
@@ -6707,7 +6707,7 @@
         <v>85.9293212890625</v>
       </c>
       <c r="B217" t="n">
-        <v>49.76996317314438</v>
+        <v>2477.049234256148</v>
       </c>
       <c r="C217" t="n">
         <v>-0.4436174403470106</v>
@@ -6736,7 +6736,7 @@
         <v>139.7767028808594</v>
       </c>
       <c r="B218" t="n">
-        <v>50.94001297930862</v>
+        <v>2594.88492233213</v>
       </c>
       <c r="C218" t="n">
         <v>-0.3297225353259895</v>
@@ -6765,7 +6765,7 @@
         <v>104.5985565185547</v>
       </c>
       <c r="B219" t="n">
-        <v>23.58025839920329</v>
+        <v>556.0285861731973</v>
       </c>
       <c r="C219" t="n">
         <v>-0.0551573192184777</v>
@@ -6794,7 +6794,7 @@
         <v>90.73561096191406</v>
       </c>
       <c r="B220" t="n">
-        <v>32.89464418620052</v>
+        <v>1082.057616136735</v>
       </c>
       <c r="C220" t="n">
         <v>-0.1710523795506383</v>
@@ -6823,7 +6823,7 @@
         <v>130.2584991455078</v>
       </c>
       <c r="B221" t="n">
-        <v>44.46937171630761</v>
+        <v>1977.525020843139</v>
       </c>
       <c r="C221" t="n">
         <v>-0.4634233135362652</v>
@@ -6852,7 +6852,7 @@
         <v>138.9476776123047</v>
       </c>
       <c r="B222" t="n">
-        <v>38.8174134783601</v>
+        <v>1506.791589149972</v>
       </c>
       <c r="C222" t="n">
         <v>-1.263746766561229</v>
@@ -6881,7 +6881,7 @@
         <v>122.3562774658203</v>
       </c>
       <c r="B223" t="n">
-        <v>43.90186954722284</v>
+        <v>1927.374149741372</v>
       </c>
       <c r="C223" t="n">
         <v>-0.497238914824663</v>
@@ -6910,7 +6910,7 @@
         <v>117.9128875732422</v>
       </c>
       <c r="B224" t="n">
-        <v>44.96827184068997</v>
+        <v>2022.14547233819</v>
       </c>
       <c r="C224" t="n">
         <v>-0.3596477592486325</v>
@@ -6939,7 +6939,7 @@
         <v>123.2614135742188</v>
       </c>
       <c r="B225" t="n">
-        <v>31.19995295756938</v>
+        <v>973.4370645545423</v>
       </c>
       <c r="C225" t="n">
         <v>0.2079700872036951</v>
@@ -6968,7 +6968,7 @@
         <v>137.5211181640625</v>
       </c>
       <c r="B226" t="n">
-        <v>37.72689107422797</v>
+        <v>1423.318310126662</v>
       </c>
       <c r="C226" t="n">
         <v>-1.560399982388314</v>
@@ -6997,7 +6997,7 @@
         <v>118.8973693847656</v>
       </c>
       <c r="B227" t="n">
-        <v>50.3011823854936</v>
+        <v>2530.208949378692</v>
       </c>
       <c r="C227" t="n">
         <v>-0.3654938420916359</v>
@@ -7026,7 +7026,7 @@
         <v>119.9732818603516</v>
       </c>
       <c r="B228" t="n">
-        <v>50.96582804491751</v>
+        <v>2597.5156283041</v>
       </c>
       <c r="C228" t="n">
         <v>-0.2834971212054991</v>
@@ -7055,7 +7055,7 @@
         <v>156.7341003417969</v>
       </c>
       <c r="B229" t="n">
-        <v>40.98685866841444</v>
+        <v>1679.92258350458</v>
       </c>
       <c r="C229" t="n">
         <v>-1.250702589791926</v>
@@ -7084,7 +7084,7 @@
         <v>127.7502746582031</v>
       </c>
       <c r="B230" t="n">
-        <v>60.29553236915191</v>
+        <v>3635.551223679446</v>
       </c>
       <c r="C230" t="n">
         <v>-0.4596066173747388</v>
@@ -7113,7 +7113,7 @@
         <v>106.9792938232422</v>
       </c>
       <c r="B231" t="n">
-        <v>24.63328851207818</v>
+        <v>606.7989029192831</v>
       </c>
       <c r="C231" t="n">
         <v>-0.5089456247353019</v>
@@ -7142,7 +7142,7 @@
         <v>101.9404144287109</v>
       </c>
       <c r="B232" t="n">
-        <v>54.50914251211785</v>
+        <v>2971.246617406374</v>
       </c>
       <c r="C232" t="n">
         <v>-0.2779669926440606</v>
@@ -7171,7 +7171,7 @@
         <v>121.2833862304688</v>
       </c>
       <c r="B233" t="n">
-        <v>21.5742378289171</v>
+        <v>465.4477378986776</v>
       </c>
       <c r="C233" t="n">
         <v>-0.3336266915552771</v>
@@ -7200,7 +7200,7 @@
         <v>105.7016448974609</v>
       </c>
       <c r="B234" t="n">
-        <v>36.64223312008609</v>
+        <v>1342.653248026734</v>
       </c>
       <c r="C234" t="n">
         <v>-0.3432687602172568</v>
@@ -7229,7 +7229,7 @@
         <v>122.683837890625</v>
       </c>
       <c r="B235" t="n">
-        <v>26.0103795156085</v>
+        <v>676.5398425459862</v>
       </c>
       <c r="C235" t="n">
         <v>-0.3863847614020194</v>
@@ -7258,7 +7258,7 @@
         <v>137.3137969970703</v>
       </c>
       <c r="B236" t="n">
-        <v>33.66786513717234</v>
+        <v>1133.525142894825</v>
       </c>
       <c r="C236" t="n">
         <v>-0.3682256483260564</v>
@@ -7287,7 +7287,7 @@
         <v>122.9980926513672</v>
       </c>
       <c r="B237" t="n">
-        <v>36.31328299835829</v>
+        <v>1318.654522118857</v>
       </c>
       <c r="C237" t="n">
         <v>0.5195928239532335</v>
@@ -7316,7 +7316,7 @@
         <v>109.3076629638672</v>
       </c>
       <c r="B238" t="n">
-        <v>30.0864460871334</v>
+        <v>905.1942381539848</v>
       </c>
       <c r="C238" t="n">
         <v>-0.7012820971687074</v>
@@ -7345,7 +7345,7 @@
         <v>98.80038452148438</v>
       </c>
       <c r="B239" t="n">
-        <v>29.73776856125109</v>
+        <v>884.3348790025339</v>
       </c>
       <c r="C239" t="n">
         <v>-0.6541009866104763</v>
@@ -7374,7 +7374,7 @@
         <v>238.8352813720703</v>
       </c>
       <c r="B240" t="n">
-        <v>40.68097197025301</v>
+        <v>1654.941480444511</v>
       </c>
       <c r="C240" t="n">
         <v>-3.852356153718241</v>
@@ -7403,7 +7403,7 @@
         <v>118.7486267089844</v>
       </c>
       <c r="B241" t="n">
-        <v>44.42280601813898</v>
+        <v>1973.385694525205</v>
       </c>
       <c r="C241" t="n">
         <v>-0.7643632403897923</v>
@@ -7432,7 +7432,7 @@
         <v>127.0620269775391</v>
       </c>
       <c r="B242" t="n">
-        <v>23.45602095696432</v>
+        <v>550.1849191335496</v>
       </c>
       <c r="C242" t="n">
         <v>0.3664192686212513</v>
@@ -7461,7 +7461,7 @@
         <v>110.0093231201172</v>
       </c>
       <c r="B243" t="n">
-        <v>22.654916886821</v>
+        <v>513.2452591487672</v>
       </c>
       <c r="C243" t="n">
         <v>-0.1322983754260729</v>
@@ -7490,7 +7490,7 @@
         <v>97.01039123535156</v>
       </c>
       <c r="B244" t="n">
-        <v>42.43520881386044</v>
+        <v>1800.746947075939</v>
       </c>
       <c r="C244" t="n">
         <v>0.1947907168237356</v>
@@ -7519,7 +7519,7 @@
         <v>127.3715057373047</v>
       </c>
       <c r="B245" t="n">
-        <v>40.61133257733457</v>
+        <v>1649.280333706876</v>
       </c>
       <c r="C245" t="n">
         <v>-0.5278139419218342</v>
@@ -7548,7 +7548,7 @@
         <v>118.4404754638672</v>
       </c>
       <c r="B246" t="n">
-        <v>57.10974929805102</v>
+        <v>3261.523464886239</v>
       </c>
       <c r="C246" t="n">
         <v>-0.6457677463074926</v>
@@ -7577,7 +7577,7 @@
         <v>114.90625</v>
       </c>
       <c r="B247" t="n">
-        <v>29.47704754189451</v>
+        <v>868.8963317871094</v>
       </c>
       <c r="C247" t="n">
         <v>-0.2412259665212182</v>
@@ -7606,7 +7606,7 @@
         <v>98.46372985839844</v>
       </c>
       <c r="B248" t="n">
-        <v>48.06412002922616</v>
+        <v>2310.159634183859</v>
       </c>
       <c r="C248" t="n">
         <v>-0.1608719642968137</v>
@@ -7635,7 +7635,7 @@
         <v>111.7126312255859</v>
       </c>
       <c r="B249" t="n">
-        <v>51.60580375381378</v>
+        <v>2663.15898107714</v>
       </c>
       <c r="C249" t="n">
         <v>-0.2917957132171567</v>
@@ -7664,7 +7664,7 @@
         <v>111.4841613769531</v>
       </c>
       <c r="B250" t="n">
-        <v>47.52527814090562</v>
+        <v>2258.652062370442</v>
       </c>
       <c r="C250" t="n">
         <v>-0.3632751982549639</v>
@@ -7693,7 +7693,7 @@
         <v>126.1843414306641</v>
       </c>
       <c r="B251" t="n">
-        <v>30.01031061913001</v>
+        <v>900.6187434566673</v>
       </c>
       <c r="C251" t="n">
         <v>-0.8347420825839593</v>
@@ -7722,7 +7722,7 @@
         <v>123.2545623779297</v>
       </c>
       <c r="B252" t="n">
-        <v>39.90296613253773</v>
+        <v>1592.246706174454</v>
       </c>
       <c r="C252" t="n">
         <v>0.1068085597822645</v>
@@ -7751,7 +7751,7 @@
         <v>130.8428039550781</v>
       </c>
       <c r="B253" t="n">
-        <v>48.78185816854579</v>
+        <v>2379.669686376117</v>
       </c>
       <c r="C253" t="n">
         <v>-0.5786061172106268</v>
@@ -7780,7 +7780,7 @@
         <v>128.3848724365234</v>
       </c>
       <c r="B254" t="n">
-        <v>53.04179395114986</v>
+        <v>2813.431905556237</v>
       </c>
       <c r="C254" t="n">
         <v>-0.7370140266675159</v>
@@ -7809,7 +7809,7 @@
         <v>110.9041900634766</v>
       </c>
       <c r="B255" t="n">
-        <v>58.7876727682251</v>
+        <v>3455.990469503915</v>
       </c>
       <c r="C255" t="n">
         <v>-0.4397329906870483</v>
@@ -7838,7 +7838,7 @@
         <v>151.6069488525391</v>
       </c>
       <c r="B256" t="n">
-        <v>43.6795268752588</v>
+        <v>1907.901068046456</v>
       </c>
       <c r="C256" t="n">
         <v>-1.116045111117541</v>
@@ -7867,7 +7867,7 @@
         <v>144.7563934326172</v>
       </c>
       <c r="B257" t="n">
-        <v>35.72151720888386</v>
+        <v>1276.026791704586</v>
       </c>
       <c r="C257" t="n">
         <v>-0.6809004548000244</v>
@@ -7896,7 +7896,7 @@
         <v>125.0774841308594</v>
       </c>
       <c r="B258" t="n">
-        <v>44.11944122064075</v>
+        <v>1946.525093621574</v>
       </c>
       <c r="C258" t="n">
         <v>-0.6267689461253303</v>
@@ -7925,7 +7925,7 @@
         <v>111.1795806884766</v>
       </c>
       <c r="B259" t="n">
-        <v>60.83194276983354</v>
+        <v>3700.525261152303</v>
       </c>
       <c r="C259" t="n">
         <v>-0.7098125562178409</v>
@@ -7954,7 +7954,7 @@
         <v>110.239013671875</v>
       </c>
       <c r="B260" t="n">
-        <v>29.21433426950476</v>
+        <v>853.47732681036</v>
       </c>
       <c r="C260" t="n">
         <v>-0.5963629734545899</v>
@@ -7983,7 +7983,7 @@
         <v>115.215576171875</v>
       </c>
       <c r="B261" t="n">
-        <v>39.43674364815596</v>
+        <v>1555.25674957037</v>
       </c>
       <c r="C261" t="n">
         <v>-0.5633540282633589</v>
@@ -8012,7 +8012,7 @@
         <v>109.7140502929688</v>
       </c>
       <c r="B262" t="n">
-        <v>56.64356179111788</v>
+        <v>3208.493092384189</v>
       </c>
       <c r="C262" t="n">
         <v>-0.3772468243310294</v>
@@ -8041,7 +8041,7 @@
         <v>158.6390991210938</v>
       </c>
       <c r="B263" t="n">
-        <v>59.75598650480993</v>
+        <v>3570.777923163027</v>
       </c>
       <c r="C263" t="n">
         <v>-0.6858107084989217</v>
@@ -8070,7 +8070,7 @@
         <v>116.9474029541016</v>
       </c>
       <c r="B264" t="n">
-        <v>30.88191366847479</v>
+        <v>953.6925918271299</v>
       </c>
       <c r="C264" t="n">
         <v>0.1953639623290071</v>
@@ -8099,7 +8099,7 @@
         <v>137.9975280761719</v>
       </c>
       <c r="B265" t="n">
-        <v>38.2295780091637</v>
+        <v>1461.500634758733</v>
       </c>
       <c r="C265" t="n">
         <v>-1.366945907155771</v>
@@ -8128,7 +8128,7 @@
         <v>111.6919555664062</v>
       </c>
       <c r="B266" t="n">
-        <v>59.09933271970202</v>
+        <v>3492.731127914041</v>
       </c>
       <c r="C266" t="n">
         <v>-0.60611059853824</v>
@@ -8157,7 +8157,7 @@
         <v>131.0591278076172</v>
       </c>
       <c r="B267" t="n">
-        <v>38.35222531537934</v>
+        <v>1470.893186641624</v>
       </c>
       <c r="C267" t="n">
         <v>-1.838249068075236</v>
@@ -8186,7 +8186,7 @@
         <v>113.6802825927734</v>
       </c>
       <c r="B268" t="n">
-        <v>49.14715836828186</v>
+        <v>2415.443175676977</v>
       </c>
       <c r="C268" t="n">
         <v>-0.5403778020331906</v>
@@ -8215,7 +8215,7 @@
         <v>116.6229248046875</v>
       </c>
       <c r="B269" t="n">
-        <v>26.26096593568494</v>
+        <v>689.638331875205</v>
       </c>
       <c r="C269" t="n">
         <v>-0.2019682295724438</v>
@@ -8244,7 +8244,7 @@
         <v>143.3569030761719</v>
       </c>
       <c r="B270" t="n">
-        <v>34.27143980428415</v>
+        <v>1174.531586258672</v>
       </c>
       <c r="C270" t="n">
         <v>0.008612137452163203</v>
@@ -8273,7 +8273,7 @@
         <v>124.1617584228516</v>
       </c>
       <c r="B271" t="n">
-        <v>26.10268904443241</v>
+        <v>681.3503753503319</v>
       </c>
       <c r="C271" t="n">
         <v>-0.6645658776665081</v>
@@ -8302,7 +8302,7 @@
         <v>147.3229217529297</v>
       </c>
       <c r="B272" t="n">
-        <v>61.40470798185904</v>
+        <v>3770.538162337383</v>
       </c>
       <c r="C272" t="n">
         <v>-0.4790953933652349</v>
@@ -8331,7 +8331,7 @@
         <v>118.7753143310547</v>
       </c>
       <c r="B273" t="n">
-        <v>25.64795218981108</v>
+        <v>657.8174515308347</v>
       </c>
       <c r="C273" t="n">
         <v>-0.09457328333778696</v>
@@ -8360,7 +8360,7 @@
         <v>125.9651641845703</v>
       </c>
       <c r="B274" t="n">
-        <v>38.20330982146176</v>
+        <v>1459.492881314596</v>
       </c>
       <c r="C274" t="n">
         <v>-0.6902545370247174</v>
@@ -8389,7 +8389,7 @@
         <v>118.6470336914062</v>
       </c>
       <c r="B275" t="n">
-        <v>25.83726194801888</v>
+        <v>667.5641049705446</v>
       </c>
       <c r="C275" t="n">
         <v>-1.072370978738577</v>
@@ -8418,7 +8418,7 @@
         <v>117.1376037597656</v>
       </c>
       <c r="B276" t="n">
-        <v>50.81720948703351</v>
+        <v>2582.388780049048</v>
       </c>
       <c r="C276" t="n">
         <v>-0.6408028889198603</v>
@@ -8447,7 +8447,7 @@
         <v>121.4576110839844</v>
       </c>
       <c r="B277" t="n">
-        <v>47.00661993985563</v>
+        <v>2209.622318170033</v>
       </c>
       <c r="C277" t="n">
         <v>-0.4195194836602073</v>
@@ -8476,7 +8476,7 @@
         <v>119.7519683837891</v>
       </c>
       <c r="B278" t="n">
-        <v>29.64706416812699</v>
+        <v>878.9484137890395</v>
       </c>
       <c r="C278" t="n">
         <v>-0.07458675531981024</v>
@@ -8505,7 +8505,7 @@
         <v>106.6680603027344</v>
       </c>
       <c r="B279" t="n">
-        <v>48.53148439075598</v>
+        <v>2355.304977170192</v>
       </c>
       <c r="C279" t="n">
         <v>-0.1945067467416977</v>
@@ -8534,7 +8534,7 @@
         <v>106.4638977050781</v>
       </c>
       <c r="B280" t="n">
-        <v>67.13087305067748</v>
+        <v>4506.554116546176</v>
       </c>
       <c r="C280" t="n">
         <v>-0.1611518581616649</v>
@@ -8563,7 +8563,7 @@
         <v>104.9313049316406</v>
       </c>
       <c r="B281" t="n">
-        <v>65.0043958773571</v>
+        <v>4225.571483380161</v>
       </c>
       <c r="C281" t="n">
         <v>0.01030014139500536</v>
@@ -8592,7 +8592,7 @@
         <v>115.0640411376953</v>
       </c>
       <c r="B282" t="n">
-        <v>33.91899516977779</v>
+        <v>1150.498233327409</v>
       </c>
       <c r="C282" t="n">
         <v>-0.2150624621836043</v>
@@ -8621,7 +8621,7 @@
         <v>129.0606994628906</v>
       </c>
       <c r="B283" t="n">
-        <v>40.04920880159555</v>
+        <v>1603.939125633799</v>
       </c>
       <c r="C283" t="n">
         <v>0.1246286703957565</v>
@@ -8650,7 +8650,7 @@
         <v>146.7722473144531</v>
       </c>
       <c r="B284" t="n">
-        <v>27.65531771563125</v>
+        <v>764.8165979525074</v>
       </c>
       <c r="C284" t="n">
         <v>-1.626876250854955</v>
@@ -8679,7 +8679,7 @@
         <v>113.4229431152344</v>
       </c>
       <c r="B285" t="n">
-        <v>45.07744171633563</v>
+        <v>2031.975751689635</v>
       </c>
       <c r="C285" t="n">
         <v>-0.3770802166437832</v>
@@ -8708,7 +8708,7 @@
         <v>120.8648223876953</v>
       </c>
       <c r="B286" t="n">
-        <v>47.95539014217209</v>
+        <v>2299.719443687936</v>
       </c>
       <c r="C286" t="n">
         <v>-0.4247381871905611</v>
@@ -8737,7 +8737,7 @@
         <v>155.9208374023438</v>
       </c>
       <c r="B287" t="n">
-        <v>26.32038940293617</v>
+        <v>692.7628983221948</v>
       </c>
       <c r="C287" t="n">
         <v>0.4809211149996362</v>
@@ -8766,7 +8766,7 @@
         <v>92.26483154296875</v>
       </c>
       <c r="B288" t="n">
-        <v>33.7069852078568</v>
+        <v>1136.160851802677</v>
       </c>
       <c r="C288" t="n">
         <v>-0.3353131518483039</v>
@@ -8795,7 +8795,7 @@
         <v>130.9770202636719</v>
       </c>
       <c r="B289" t="n">
-        <v>47.77918815560465</v>
+        <v>2282.850820808671</v>
       </c>
       <c r="C289" t="n">
         <v>-0.7168457401060262</v>
@@ -8824,7 +8824,7 @@
         <v>109.0662536621094</v>
       </c>
       <c r="B290" t="n">
-        <v>38.07675777324757</v>
+        <v>1449.83948252257</v>
       </c>
       <c r="C290" t="n">
         <v>-0.5326965147689474</v>
@@ -8853,7 +8853,7 @@
         <v>126.5420684814453</v>
       </c>
       <c r="B291" t="n">
-        <v>43.34526445813884</v>
+        <v>1878.811950945994</v>
       </c>
       <c r="C291" t="n">
         <v>-1.450312909358161</v>
@@ -8882,7 +8882,7 @@
         <v>108.7558135986328</v>
       </c>
       <c r="B292" t="n">
-        <v>32.36264103475721</v>
+        <v>1047.340534744551</v>
       </c>
       <c r="C292" t="n">
         <v>-0.5585413561598942</v>
@@ -8911,7 +8911,7 @@
         <v>130.8950805664062</v>
       </c>
       <c r="B293" t="n">
-        <v>34.46226639948419</v>
+        <v>1187.647805389017</v>
       </c>
       <c r="C293" t="n">
         <v>-1.451405288609048</v>
@@ -8940,7 +8940,7 @@
         <v>115.682861328125</v>
       </c>
       <c r="B294" t="n">
-        <v>46.52926544853238</v>
+        <v>2164.972543179989</v>
       </c>
       <c r="C294" t="n">
         <v>-0.3987021214586133</v>
@@ -8969,7 +8969,7 @@
         <v>119.6931762695312</v>
       </c>
       <c r="B295" t="n">
-        <v>50.49701287353138</v>
+        <v>2549.948309149593</v>
       </c>
       <c r="C295" t="n">
         <v>-0.6535041480030777</v>
@@ -8998,7 +8998,7 @@
         <v>238.0186309814453</v>
       </c>
       <c r="B296" t="n">
-        <v>47.04730802151278</v>
+        <v>2213.449192071101</v>
       </c>
       <c r="C296" t="n">
         <v>-3.371229714862745</v>
@@ -9027,7 +9027,7 @@
         <v>130.4677276611328</v>
       </c>
       <c r="B297" t="n">
-        <v>38.81410353911284</v>
+        <v>1506.534633544972</v>
       </c>
       <c r="C297" t="n">
         <v>-0.9798821493343191</v>
@@ -9056,7 +9056,7 @@
         <v>145.5181732177734</v>
       </c>
       <c r="B298" t="n">
-        <v>36.49924423390524</v>
+        <v>1332.194829646265</v>
       </c>
       <c r="C298" t="n">
         <v>-0.2186952808369792</v>
@@ -9085,7 +9085,7 @@
         <v>139.2283935546875</v>
       </c>
       <c r="B299" t="n">
-        <v>44.75705623387297</v>
+        <v>2003.194082722068</v>
       </c>
       <c r="C299" t="n">
         <v>-0.5317879355909028</v>
@@ -9114,7 +9114,7 @@
         <v>113.6616821289062</v>
       </c>
       <c r="B300" t="n">
-        <v>24.81666505113622</v>
+        <v>615.8668642602861</v>
       </c>
       <c r="C300" t="n">
         <v>0.04409936285102263</v>
@@ -9143,7 +9143,7 @@
         <v>95.88861083984375</v>
       </c>
       <c r="B301" t="n">
-        <v>56.8563586674507</v>
+        <v>3232.645520921797</v>
       </c>
       <c r="C301" t="n">
         <v>-0.4618489410638095</v>

--- a/GreenChannel.xlsx
+++ b/GreenChannel.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L301"/>
+  <dimension ref="A1:N301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +481,16 @@
           <t>Correlation_G</t>
         </is>
       </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>IDM_G</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Smoothness_G</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -519,6 +529,12 @@
       <c r="L2" t="n">
         <v>0.7898941145433732</v>
       </c>
+      <c r="M2" t="n">
+        <v>0.001186941881145808</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.01283994408976394</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -557,6 +573,12 @@
       <c r="L3" t="n">
         <v>0.6883406915433656</v>
       </c>
+      <c r="M3" t="n">
+        <v>0.00118000698857145</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.01291595956261217</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -595,6 +617,12 @@
       <c r="L4" t="n">
         <v>0.5759318551108371</v>
       </c>
+      <c r="M4" t="n">
+        <v>0.0009061798321869983</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.01682345700181694</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -633,6 +661,12 @@
       <c r="L5" t="n">
         <v>0.8388521968647333</v>
       </c>
+      <c r="M5" t="n">
+        <v>0.001742749679199184</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.00874005622138806</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -671,6 +705,12 @@
       <c r="L6" t="n">
         <v>0.8419483543691071</v>
       </c>
+      <c r="M6" t="n">
+        <v>0.001651023756689036</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.009226826041269445</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -709,6 +749,12 @@
       <c r="L7" t="n">
         <v>0.8366143394236231</v>
       </c>
+      <c r="M7" t="n">
+        <v>0.00168435318405552</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.009043888803707526</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -747,6 +793,12 @@
       <c r="L8" t="n">
         <v>0.7995454367557489</v>
       </c>
+      <c r="M8" t="n">
+        <v>0.0019977904616869</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.007622580021356263</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -785,6 +837,12 @@
       <c r="L9" t="n">
         <v>0.9060161519888948</v>
       </c>
+      <c r="M9" t="n">
+        <v>0.008570085000315445</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.001765488664756047</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -823,6 +881,12 @@
       <c r="L10" t="n">
         <v>0.7408728625866412</v>
       </c>
+      <c r="M10" t="n">
+        <v>0.001552292413103632</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.009814508529988671</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -861,6 +925,12 @@
       <c r="L11" t="n">
         <v>0.5418910088645547</v>
       </c>
+      <c r="M11" t="n">
+        <v>0.0007233117718977678</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.02108060394534795</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -899,6 +969,12 @@
       <c r="L12" t="n">
         <v>0.8149553519273181</v>
       </c>
+      <c r="M12" t="n">
+        <v>0.001701069664798321</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.008954401753211921</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -937,6 +1013,12 @@
       <c r="L13" t="n">
         <v>0.4543346628651441</v>
       </c>
+      <c r="M13" t="n">
+        <v>0.0004517570252246976</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.03376129121218494</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -975,6 +1057,12 @@
       <c r="L14" t="n">
         <v>0.7278497628658855</v>
       </c>
+      <c r="M14" t="n">
+        <v>0.0008710538123242339</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.01750225818518339</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1013,6 +1101,12 @@
       <c r="L15" t="n">
         <v>0.5642691073373954</v>
       </c>
+      <c r="M15" t="n">
+        <v>0.0007922388005537478</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.01924521443059883</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1051,6 +1145,12 @@
       <c r="L16" t="n">
         <v>0.8456433199024372</v>
       </c>
+      <c r="M16" t="n">
+        <v>0.001122366762239118</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.01357883401455337</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1089,6 +1189,12 @@
       <c r="L17" t="n">
         <v>0.9715304913641494</v>
       </c>
+      <c r="M17" t="n">
+        <v>0.02058626212713551</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0007264024864700334</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1127,6 +1233,12 @@
       <c r="L18" t="n">
         <v>0.6178415439342066</v>
       </c>
+      <c r="M18" t="n">
+        <v>0.0005943406500311765</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.02565789877176743</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1165,6 +1277,12 @@
       <c r="L19" t="n">
         <v>0.9842375577825067</v>
       </c>
+      <c r="M19" t="n">
+        <v>0.02996329979393215</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0004941312613782803</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1203,6 +1321,12 @@
       <c r="L20" t="n">
         <v>0.7440214541258695</v>
       </c>
+      <c r="M20" t="n">
+        <v>0.0007151157794307833</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.02132434189856705</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1241,6 +1365,12 @@
       <c r="L21" t="n">
         <v>0.945521700531315</v>
       </c>
+      <c r="M21" t="n">
+        <v>0.01092228298882549</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.00138216454792096</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1279,6 +1409,12 @@
       <c r="L22" t="n">
         <v>0.8320594394901699</v>
       </c>
+      <c r="M22" t="n">
+        <v>0.001338824838174399</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.01138164104383205</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1317,6 +1453,12 @@
       <c r="L23" t="n">
         <v>0.5741594664151413</v>
       </c>
+      <c r="M23" t="n">
+        <v>0.0005619991033764221</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.02713576626560734</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1355,6 +1497,12 @@
       <c r="L24" t="n">
         <v>0.848217050046594</v>
       </c>
+      <c r="M24" t="n">
+        <v>0.00171456625172811</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.008884008427446665</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1393,6 +1541,12 @@
       <c r="L25" t="n">
         <v>0.880171448930225</v>
       </c>
+      <c r="M25" t="n">
+        <v>0.001813544681493828</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.008400335595074731</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1431,6 +1585,12 @@
       <c r="L26" t="n">
         <v>0.886784724491357</v>
       </c>
+      <c r="M26" t="n">
+        <v>0.003037538696279564</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.005008534860579882</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1469,6 +1629,12 @@
       <c r="L27" t="n">
         <v>0.7311294825276365</v>
       </c>
+      <c r="M27" t="n">
+        <v>0.001967710346172148</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.0077394910185909</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1507,6 +1673,12 @@
       <c r="L28" t="n">
         <v>0.9635534060565866</v>
       </c>
+      <c r="M28" t="n">
+        <v>0.009085488821005527</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.00166355708598595</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1545,6 +1717,12 @@
       <c r="L29" t="n">
         <v>0.6010487136717111</v>
       </c>
+      <c r="M29" t="n">
+        <v>0.001043672834164774</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.01460520983979418</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1583,6 +1761,12 @@
       <c r="L30" t="n">
         <v>0.7877386609179855</v>
       </c>
+      <c r="M30" t="n">
+        <v>0.001073001734682811</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.01420485962091694</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1621,6 +1805,12 @@
       <c r="L31" t="n">
         <v>0.531670744344052</v>
       </c>
+      <c r="M31" t="n">
+        <v>0.0004580843975853243</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.03329461269802136</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1659,6 +1849,12 @@
       <c r="L32" t="n">
         <v>0.8230712682022264</v>
       </c>
+      <c r="M32" t="n">
+        <v>0.001729289104064227</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.008808498779757206</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1697,6 +1893,12 @@
       <c r="L33" t="n">
         <v>0.9904447423875758</v>
       </c>
+      <c r="M33" t="n">
+        <v>0.07091278925282964</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.0002006084178006853</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1735,6 +1937,12 @@
       <c r="L34" t="n">
         <v>0.6177480654604968</v>
       </c>
+      <c r="M34" t="n">
+        <v>0.0005496566581291223</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.02774545659449686</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1773,6 +1981,12 @@
       <c r="L35" t="n">
         <v>0.7401044490272124</v>
       </c>
+      <c r="M35" t="n">
+        <v>0.001605267690129824</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.00948975489626294</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1811,6 +2025,12 @@
       <c r="L36" t="n">
         <v>0.8002392467224901</v>
       </c>
+      <c r="M36" t="n">
+        <v>0.005436095372479526</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.002791988883122389</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1849,6 +2069,12 @@
       <c r="L37" t="n">
         <v>0.3579948300302697</v>
       </c>
+      <c r="M37" t="n">
+        <v>0.00136483743899787</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.01116490100425557</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1887,6 +2113,12 @@
       <c r="L38" t="n">
         <v>0.9274651014220853</v>
       </c>
+      <c r="M38" t="n">
+        <v>0.001577009698312823</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.00966033487967425</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1925,6 +2157,12 @@
       <c r="L39" t="n">
         <v>0.7813006392106414</v>
       </c>
+      <c r="M39" t="n">
+        <v>0.0007598776301216885</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.0200677635966557</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1963,6 +2201,12 @@
       <c r="L40" t="n">
         <v>0.7450871010291641</v>
       </c>
+      <c r="M40" t="n">
+        <v>0.002144471624495407</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.00710035709451536</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2001,6 +2245,12 @@
       <c r="L41" t="n">
         <v>0.6688971556404727</v>
       </c>
+      <c r="M41" t="n">
+        <v>0.001217328452445994</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.01251944213400938</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2039,6 +2289,12 @@
       <c r="L42" t="n">
         <v>0.8041100186083929</v>
       </c>
+      <c r="M42" t="n">
+        <v>0.001068652125722197</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.01426342738153874</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2077,6 +2333,12 @@
       <c r="L43" t="n">
         <v>0.8759320502045193</v>
       </c>
+      <c r="M43" t="n">
+        <v>0.001599772995943864</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.009524807990261886</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2115,6 +2377,12 @@
       <c r="L44" t="n">
         <v>0.897460475828793</v>
       </c>
+      <c r="M44" t="n">
+        <v>0.001467111428059221</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.01038706472850348</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2153,6 +2421,12 @@
       <c r="L45" t="n">
         <v>0.9025137577389475</v>
       </c>
+      <c r="M45" t="n">
+        <v>0.005213441401034817</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.002911274147827589</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2191,6 +2465,12 @@
       <c r="L46" t="n">
         <v>0.5082905626233543</v>
       </c>
+      <c r="M46" t="n">
+        <v>0.001043750005694465</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.01460410101780713</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2229,6 +2509,12 @@
       <c r="L47" t="n">
         <v>0.9282523779138789</v>
       </c>
+      <c r="M47" t="n">
+        <v>0.006202869466701027</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.002444347215000711</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2267,6 +2553,12 @@
       <c r="L48" t="n">
         <v>0.6432492799236434</v>
       </c>
+      <c r="M48" t="n">
+        <v>0.0007364748375220414</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.02070357649349341</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2305,6 +2597,12 @@
       <c r="L49" t="n">
         <v>0.7143827194164709</v>
       </c>
+      <c r="M49" t="n">
+        <v>0.002062442416459713</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.007383350961953</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2343,6 +2641,12 @@
       <c r="L50" t="n">
         <v>0.7933208950737115</v>
       </c>
+      <c r="M50" t="n">
+        <v>0.001136532177790943</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.01341019659082562</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2381,6 +2685,12 @@
       <c r="L51" t="n">
         <v>0.9453272679973513</v>
       </c>
+      <c r="M51" t="n">
+        <v>0.004601305332046498</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.003301203936987952</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2419,6 +2729,12 @@
       <c r="L52" t="n">
         <v>0.684718772277164</v>
       </c>
+      <c r="M52" t="n">
+        <v>0.000592077350937422</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.02575656367866169</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2457,6 +2773,12 @@
       <c r="L53" t="n">
         <v>0.8375121146028986</v>
       </c>
+      <c r="M53" t="n">
+        <v>0.005952352892772191</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.002548429471673712</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2495,6 +2817,12 @@
       <c r="L54" t="n">
         <v>0.8960169338392455</v>
       </c>
+      <c r="M54" t="n">
+        <v>0.002036200091323329</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.007477346551788971</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2533,6 +2861,12 @@
       <c r="L55" t="n">
         <v>0.8789775668088826</v>
       </c>
+      <c r="M55" t="n">
+        <v>0.001412567063785312</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.01078693965950502</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2571,6 +2905,12 @@
       <c r="L56" t="n">
         <v>0.8707564108607165</v>
       </c>
+      <c r="M56" t="n">
+        <v>0.001374883639457369</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.01108283233533441</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2609,6 +2949,12 @@
       <c r="L57" t="n">
         <v>0.8104822442407166</v>
       </c>
+      <c r="M57" t="n">
+        <v>0.001433291042251968</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.01063087738946908</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2647,6 +2993,12 @@
       <c r="L58" t="n">
         <v>0.983052930097652</v>
       </c>
+      <c r="M58" t="n">
+        <v>0.01884016799369535</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.0007944524676461304</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2685,6 +3037,12 @@
       <c r="L59" t="n">
         <v>0.9675792434561301</v>
       </c>
+      <c r="M59" t="n">
+        <v>0.01786953690696228</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.0008390932530451169</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2723,6 +3081,12 @@
       <c r="L60" t="n">
         <v>0.6622572007493767</v>
       </c>
+      <c r="M60" t="n">
+        <v>0.000702811888378721</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.02169539329588344</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2761,6 +3125,12 @@
       <c r="L61" t="n">
         <v>0.8717829505368113</v>
       </c>
+      <c r="M61" t="n">
+        <v>0.003160933381826392</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.004812047469674229</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2799,6 +3169,12 @@
       <c r="L62" t="n">
         <v>0.98198268875592</v>
       </c>
+      <c r="M62" t="n">
+        <v>0.02374508899894778</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.0006277837288902155</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2837,6 +3213,12 @@
       <c r="L63" t="n">
         <v>0.7299219215213069</v>
       </c>
+      <c r="M63" t="n">
+        <v>0.003055596224465582</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.004978314766224211</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2875,6 +3257,12 @@
       <c r="L64" t="n">
         <v>0.7786273211366704</v>
       </c>
+      <c r="M64" t="n">
+        <v>0.00116539519388145</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.01307805374089624</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2913,6 +3301,12 @@
       <c r="L65" t="n">
         <v>0.7044193714672207</v>
       </c>
+      <c r="M65" t="n">
+        <v>0.0008631571521196906</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.01766238674800736</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2951,6 +3345,12 @@
       <c r="L66" t="n">
         <v>0.9838989350558266</v>
       </c>
+      <c r="M66" t="n">
+        <v>0.03179314291037044</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.0004641328117839193</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2989,6 +3389,12 @@
       <c r="L67" t="n">
         <v>0.7720634394118142</v>
       </c>
+      <c r="M67" t="n">
+        <v>0.0008538775094907696</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.01785490921726082</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3027,6 +3433,12 @@
       <c r="L68" t="n">
         <v>0.6202144943151873</v>
       </c>
+      <c r="M68" t="n">
+        <v>0.0009431448034029955</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.01616346810926833</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3065,6 +3477,12 @@
       <c r="L69" t="n">
         <v>0.8203388420188092</v>
       </c>
+      <c r="M69" t="n">
+        <v>0.002387561646140313</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.006375395052936337</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3103,6 +3521,12 @@
       <c r="L70" t="n">
         <v>0.8736716436418304</v>
       </c>
+      <c r="M70" t="n">
+        <v>0.004966447730194109</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.003057133551341113</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3141,6 +3565,12 @@
       <c r="L71" t="n">
         <v>0.8388882296064742</v>
       </c>
+      <c r="M71" t="n">
+        <v>0.002287491333195416</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.006655526944006098</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3179,6 +3609,12 @@
       <c r="L72" t="n">
         <v>0.77875381450253</v>
       </c>
+      <c r="M72" t="n">
+        <v>0.0009462118660126343</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.01611267435781211</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3217,6 +3653,12 @@
       <c r="L73" t="n">
         <v>0.9892781562712548</v>
       </c>
+      <c r="M73" t="n">
+        <v>0.04729381736116757</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.0003075241318931434</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3255,6 +3697,12 @@
       <c r="L74" t="n">
         <v>0.8286017664416337</v>
       </c>
+      <c r="M74" t="n">
+        <v>0.0009497337365327673</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.01605471479876905</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3293,6 +3741,12 @@
       <c r="L75" t="n">
         <v>0.9779658399992279</v>
       </c>
+      <c r="M75" t="n">
+        <v>0.02546304520497365</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.0005843984481428493</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3331,6 +3785,12 @@
       <c r="L76" t="n">
         <v>0.8302689231720958</v>
       </c>
+      <c r="M76" t="n">
+        <v>0.001022292736417615</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.01491263318706629</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3369,6 +3829,12 @@
       <c r="L77" t="n">
         <v>0.9795943728063071</v>
       </c>
+      <c r="M77" t="n">
+        <v>0.04335516922907782</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.0003375114242717056</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3407,6 +3873,12 @@
       <c r="L78" t="n">
         <v>0.9860016544714508</v>
       </c>
+      <c r="M78" t="n">
+        <v>0.0222401293618015</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.0006712869376872238</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3445,6 +3917,12 @@
       <c r="L79" t="n">
         <v>0.5451334259148649</v>
       </c>
+      <c r="M79" t="n">
+        <v>0.0005408840453663361</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.02819597464152216</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3483,6 +3961,12 @@
       <c r="L80" t="n">
         <v>0.944697680088103</v>
       </c>
+      <c r="M80" t="n">
+        <v>0.005343258959079741</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.002840245258104614</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3521,6 +4005,12 @@
       <c r="L81" t="n">
         <v>0.8551477356907506</v>
       </c>
+      <c r="M81" t="n">
+        <v>0.001499285416664165</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.01016215825798932</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3559,6 +4049,12 @@
       <c r="L82" t="n">
         <v>0.8950757594769644</v>
       </c>
+      <c r="M82" t="n">
+        <v>0.009966317031993714</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.001516132692171576</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3597,6 +4093,12 @@
       <c r="L83" t="n">
         <v>0.8300753447744538</v>
       </c>
+      <c r="M83" t="n">
+        <v>0.001403187567914934</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.01085816027767389</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3635,6 +4137,12 @@
       <c r="L84" t="n">
         <v>0.9308056065015065</v>
       </c>
+      <c r="M84" t="n">
+        <v>0.009954990322050078</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.001517645221207862</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3673,6 +4181,12 @@
       <c r="L85" t="n">
         <v>0.9876028100524095</v>
       </c>
+      <c r="M85" t="n">
+        <v>0.0359448422072018</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.0004095315185269167</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3711,6 +4225,12 @@
       <c r="L86" t="n">
         <v>0.9599679899410373</v>
       </c>
+      <c r="M86" t="n">
+        <v>0.01544286055506114</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.0009725014916386618</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3749,6 +4269,12 @@
       <c r="L87" t="n">
         <v>0.6573075871058316</v>
       </c>
+      <c r="M87" t="n">
+        <v>0.001698453988099969</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.008968872591331802</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3787,6 +4313,12 @@
       <c r="L88" t="n">
         <v>0.5913596270936614</v>
       </c>
+      <c r="M88" t="n">
+        <v>0.001859858654108681</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.008189086550599634</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3825,6 +4357,12 @@
       <c r="L89" t="n">
         <v>0.7889370659281923</v>
       </c>
+      <c r="M89" t="n">
+        <v>0.002784940812383239</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.005464013136840243</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3863,6 +4401,12 @@
       <c r="L90" t="n">
         <v>0.9860570639590893</v>
       </c>
+      <c r="M90" t="n">
+        <v>0.03100203572424379</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.0004774579809679979</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3901,6 +4445,12 @@
       <c r="L91" t="n">
         <v>0.9508437221579288</v>
       </c>
+      <c r="M91" t="n">
+        <v>0.007945381773974093</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.001905475897293413</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3939,6 +4489,12 @@
       <c r="L92" t="n">
         <v>0.9894075669873564</v>
       </c>
+      <c r="M92" t="n">
+        <v>0.04282846814751251</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.0003412040320870648</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3977,6 +4533,12 @@
       <c r="L93" t="n">
         <v>0.9646703430523317</v>
       </c>
+      <c r="M93" t="n">
+        <v>0.007338934832001619</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.00206370245660657</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -4015,6 +4577,12 @@
       <c r="L94" t="n">
         <v>0.8388893396857136</v>
       </c>
+      <c r="M94" t="n">
+        <v>0.001742791357474939</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.008739846787028377</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -4053,6 +4621,12 @@
       <c r="L95" t="n">
         <v>0.9889666314619239</v>
       </c>
+      <c r="M95" t="n">
+        <v>0.03231190546379088</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.0004563898721087533</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -4091,6 +4665,12 @@
       <c r="L96" t="n">
         <v>0.9284363345993895</v>
       </c>
+      <c r="M96" t="n">
+        <v>0.002059672903328374</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.007392022378942494</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4129,6 +4709,12 @@
       <c r="L97" t="n">
         <v>0.8974371693379161</v>
       </c>
+      <c r="M97" t="n">
+        <v>0.001897741309955176</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.00802718372596231</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -4167,6 +4753,12 @@
       <c r="L98" t="n">
         <v>0.7862930261349881</v>
       </c>
+      <c r="M98" t="n">
+        <v>0.003788874093694375</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.004012250354920285</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -4205,6 +4797,12 @@
       <c r="L99" t="n">
         <v>0.8166500973287523</v>
       </c>
+      <c r="M99" t="n">
+        <v>0.001358091337932277</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.01122001152389648</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -4243,6 +4841,12 @@
       <c r="L100" t="n">
         <v>0.4502064385338774</v>
       </c>
+      <c r="M100" t="n">
+        <v>0.0005304098304566863</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.02875278076369305</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -4281,6 +4885,12 @@
       <c r="L101" t="n">
         <v>0.8365956417510901</v>
       </c>
+      <c r="M101" t="n">
+        <v>0.001684136101661808</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.009045056381929911</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4319,6 +4929,12 @@
       <c r="L102" t="n">
         <v>0.8239324023647128</v>
       </c>
+      <c r="M102" t="n">
+        <v>0.004554524920196361</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.003334773885270939</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4357,6 +4973,12 @@
       <c r="L103" t="n">
         <v>0.877160928097319</v>
       </c>
+      <c r="M103" t="n">
+        <v>0.001110409418141647</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.0137282244855934</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4395,6 +5017,12 @@
       <c r="L104" t="n">
         <v>0.8923174481081908</v>
       </c>
+      <c r="M104" t="n">
+        <v>0.003991951963327278</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.003807361137504327</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -4433,6 +5061,12 @@
       <c r="L105" t="n">
         <v>0.8366216080263725</v>
       </c>
+      <c r="M105" t="n">
+        <v>0.001169245247748046</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.01303656168513699</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -4471,6 +5105,12 @@
       <c r="L106" t="n">
         <v>0.9712907099572876</v>
       </c>
+      <c r="M106" t="n">
+        <v>0.0074536446565648</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.002031783693764031</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -4509,6 +5149,12 @@
       <c r="L107" t="n">
         <v>0.9065316197359549</v>
       </c>
+      <c r="M107" t="n">
+        <v>0.001703854869133632</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.008940204755843163</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4547,6 +5193,12 @@
       <c r="L108" t="n">
         <v>0.710966500747279</v>
       </c>
+      <c r="M108" t="n">
+        <v>0.00344459252115347</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.00441475319459831</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4585,6 +5237,12 @@
       <c r="L109" t="n">
         <v>0.9305750975125587</v>
       </c>
+      <c r="M109" t="n">
+        <v>0.004021671559599494</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.003776298595670437</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4623,6 +5281,12 @@
       <c r="L110" t="n">
         <v>0.9466102834415659</v>
       </c>
+      <c r="M110" t="n">
+        <v>0.002272176325662005</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.006699290100939111</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4661,6 +5325,12 @@
       <c r="L111" t="n">
         <v>0.5633332031465172</v>
       </c>
+      <c r="M111" t="n">
+        <v>0.00169310856522705</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.008997237870794811</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -4699,6 +5369,12 @@
       <c r="L112" t="n">
         <v>0.8743049878465912</v>
       </c>
+      <c r="M112" t="n">
+        <v>0.003361194196976862</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.004524565786581597</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -4737,6 +5413,12 @@
       <c r="L113" t="n">
         <v>0.9477883816302478</v>
       </c>
+      <c r="M113" t="n">
+        <v>0.00255816933679427</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.00594824589654282</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -4775,6 +5457,12 @@
       <c r="L114" t="n">
         <v>0.6745051704582822</v>
       </c>
+      <c r="M114" t="n">
+        <v>0.001742844476399257</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.008739927631986543</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4813,6 +5501,12 @@
       <c r="L115" t="n">
         <v>0.8351289109883913</v>
       </c>
+      <c r="M115" t="n">
+        <v>0.00183943382544821</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.008280138832064732</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -4851,6 +5545,12 @@
       <c r="L116" t="n">
         <v>0.832044823920006</v>
       </c>
+      <c r="M116" t="n">
+        <v>0.002306870994599354</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.006599527709397334</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4889,6 +5589,12 @@
       <c r="L117" t="n">
         <v>0.9896457762156007</v>
       </c>
+      <c r="M117" t="n">
+        <v>0.05166991744667232</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.0002805032392857064</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -4927,6 +5633,12 @@
       <c r="L118" t="n">
         <v>0.7025433378060991</v>
       </c>
+      <c r="M118" t="n">
+        <v>0.001080849804244451</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.01410389717714127</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4965,6 +5677,12 @@
       <c r="L119" t="n">
         <v>0.9696981428764493</v>
       </c>
+      <c r="M119" t="n">
+        <v>0.02440183476482441</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.0006104596620314581</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -5003,6 +5721,12 @@
       <c r="L120" t="n">
         <v>0.8831355506933362</v>
       </c>
+      <c r="M120" t="n">
+        <v>0.001784969339634411</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.008533346180684839</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -5041,6 +5765,12 @@
       <c r="L121" t="n">
         <v>0.8982788277636296</v>
       </c>
+      <c r="M121" t="n">
+        <v>0.001964598376934736</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.007751722233434398</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -5079,6 +5809,12 @@
       <c r="L122" t="n">
         <v>0.8914789934253423</v>
       </c>
+      <c r="M122" t="n">
+        <v>0.004587139891956614</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.003310918556823496</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -5117,6 +5853,12 @@
       <c r="L123" t="n">
         <v>0.9033875344271347</v>
       </c>
+      <c r="M123" t="n">
+        <v>0.005461237377860772</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.002778886127851757</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -5155,6 +5897,12 @@
       <c r="L124" t="n">
         <v>0.7822270636288711</v>
       </c>
+      <c r="M124" t="n">
+        <v>0.001063410739821862</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.01433375945792422</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -5193,6 +5941,12 @@
       <c r="L125" t="n">
         <v>0.7929757113199644</v>
       </c>
+      <c r="M125" t="n">
+        <v>0.0009205903862797401</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.01655939598803748</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -5231,6 +5985,12 @@
       <c r="L126" t="n">
         <v>0.8969860082635525</v>
       </c>
+      <c r="M126" t="n">
+        <v>0.001328564622516493</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.0114770648625752</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -5269,6 +6029,12 @@
       <c r="L127" t="n">
         <v>0.7964370383472209</v>
       </c>
+      <c r="M127" t="n">
+        <v>0.001260244936442763</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.01209239500221001</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -5307,6 +6073,12 @@
       <c r="L128" t="n">
         <v>0.7961397845689726</v>
       </c>
+      <c r="M128" t="n">
+        <v>0.001403758281010867</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.01085456980742165</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -5345,6 +6117,12 @@
       <c r="L129" t="n">
         <v>0.9236650642840417</v>
       </c>
+      <c r="M129" t="n">
+        <v>0.001783567651176419</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.008537898908026576</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -5383,6 +6161,12 @@
       <c r="L130" t="n">
         <v>0.8915115944380819</v>
       </c>
+      <c r="M130" t="n">
+        <v>0.002050028086897279</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.007427570831710212</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -5421,6 +6205,12 @@
       <c r="L131" t="n">
         <v>0.7291108377468449</v>
       </c>
+      <c r="M131" t="n">
+        <v>0.002060515252161462</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.007390258544536794</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -5459,6 +6249,12 @@
       <c r="L132" t="n">
         <v>0.7712680570529846</v>
       </c>
+      <c r="M132" t="n">
+        <v>0.0009647268501067951</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.0158013129058863</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -5497,6 +6293,12 @@
       <c r="L133" t="n">
         <v>0.8985346378060286</v>
       </c>
+      <c r="M133" t="n">
+        <v>0.003342865267445661</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.0045492303496859</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -5535,6 +6337,12 @@
       <c r="L134" t="n">
         <v>0.9237115605670677</v>
       </c>
+      <c r="M134" t="n">
+        <v>0.001784120504887982</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.008535243686516324</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -5573,6 +6381,12 @@
       <c r="L135" t="n">
         <v>0.982622313728265</v>
       </c>
+      <c r="M135" t="n">
+        <v>0.03944411124320362</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.0003720834413532601</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -5611,6 +6425,12 @@
       <c r="L136" t="n">
         <v>0.8369282298168488</v>
       </c>
+      <c r="M136" t="n">
+        <v>0.001960444988378989</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.007767881857491213</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -5649,6 +6469,12 @@
       <c r="L137" t="n">
         <v>0.8474510800074827</v>
       </c>
+      <c r="M137" t="n">
+        <v>0.002431655359138228</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.006259995205646545</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -5687,6 +6513,12 @@
       <c r="L138" t="n">
         <v>0.7461619450716271</v>
       </c>
+      <c r="M138" t="n">
+        <v>0.001152210581077289</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.01322727223942024</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -5725,6 +6557,12 @@
       <c r="L139" t="n">
         <v>0.7196741642563318</v>
       </c>
+      <c r="M139" t="n">
+        <v>0.001232787396648235</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.01236231173712707</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -5763,6 +6601,12 @@
       <c r="L140" t="n">
         <v>0.7132602354176394</v>
       </c>
+      <c r="M140" t="n">
+        <v>0.0008998752009348726</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.01694136171049221</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -5801,6 +6645,12 @@
       <c r="L141" t="n">
         <v>0.7730304431131336</v>
       </c>
+      <c r="M141" t="n">
+        <v>0.001683283430429228</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.009049360896645115</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -5839,6 +6689,12 @@
       <c r="L142" t="n">
         <v>0.7927095158224979</v>
       </c>
+      <c r="M142" t="n">
+        <v>0.001083075405541942</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.01407312612322842</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -5877,6 +6733,12 @@
       <c r="L143" t="n">
         <v>0.838862405455009</v>
       </c>
+      <c r="M143" t="n">
+        <v>0.001742427502991171</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.008741674274664483</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -5915,6 +6777,12 @@
       <c r="L144" t="n">
         <v>0.8226533785980314</v>
       </c>
+      <c r="M144" t="n">
+        <v>0.00179752073588426</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.008473710825391792</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -5953,6 +6821,12 @@
       <c r="L145" t="n">
         <v>0.8139503365665588</v>
       </c>
+      <c r="M145" t="n">
+        <v>0.001121874230498744</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.01358615140393749</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -5991,6 +6865,12 @@
       <c r="L146" t="n">
         <v>0.8991059903360055</v>
       </c>
+      <c r="M146" t="n">
+        <v>0.001913637114441667</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0.007957814476925054</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -6029,6 +6909,12 @@
       <c r="L147" t="n">
         <v>0.9316892868983416</v>
       </c>
+      <c r="M147" t="n">
+        <v>0.001928446028628518</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0.007894698378315962</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -6067,6 +6953,12 @@
       <c r="L148" t="n">
         <v>0.9357519064423774</v>
       </c>
+      <c r="M148" t="n">
+        <v>0.0120953428123753</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0.001246645334178509</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -6105,6 +6997,12 @@
       <c r="L149" t="n">
         <v>0.667130466884215</v>
       </c>
+      <c r="M149" t="n">
+        <v>0.002668374292498085</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0.005703365001673511</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -6143,6 +7041,12 @@
       <c r="L150" t="n">
         <v>0.9356256790878409</v>
       </c>
+      <c r="M150" t="n">
+        <v>0.002987489546559848</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0.005090496878478761</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -6181,6 +7085,12 @@
       <c r="L151" t="n">
         <v>0.9707043132122211</v>
       </c>
+      <c r="M151" t="n">
+        <v>0.02196972583872652</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0.000679404440345597</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -6219,6 +7129,12 @@
       <c r="L152" t="n">
         <v>0.9659390606257472</v>
       </c>
+      <c r="M152" t="n">
+        <v>0.004038581490675738</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0.003762250725682632</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -6257,6 +7173,12 @@
       <c r="L153" t="n">
         <v>0.8339758162446105</v>
       </c>
+      <c r="M153" t="n">
+        <v>0.002315010279020103</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0.006576126208847552</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -6295,6 +7217,12 @@
       <c r="L154" t="n">
         <v>0.8354332282285103</v>
       </c>
+      <c r="M154" t="n">
+        <v>0.002206678925340617</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0.006899446996286231</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -6333,6 +7261,12 @@
       <c r="L155" t="n">
         <v>0.9173238842817498</v>
       </c>
+      <c r="M155" t="n">
+        <v>0.009853977234008793</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0.001533572288106171</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -6371,6 +7305,12 @@
       <c r="L156" t="n">
         <v>0.9222878150838399</v>
       </c>
+      <c r="M156" t="n">
+        <v>0.001432768639044525</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0.01063404616044375</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -6409,6 +7349,12 @@
       <c r="L157" t="n">
         <v>0.8998183679605332</v>
       </c>
+      <c r="M157" t="n">
+        <v>0.00531367137260785</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0.002856562122905262</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -6447,6 +7393,12 @@
       <c r="L158" t="n">
         <v>0.754073927897422</v>
       </c>
+      <c r="M158" t="n">
+        <v>0.001479704508974328</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0.01029669340264506</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -6485,6 +7437,12 @@
       <c r="L159" t="n">
         <v>0.5927282978797537</v>
       </c>
+      <c r="M159" t="n">
+        <v>0.001278468441313822</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0.01191997564098769</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -6523,6 +7481,12 @@
       <c r="L160" t="n">
         <v>0.8757007000163605</v>
       </c>
+      <c r="M160" t="n">
+        <v>0.003813739446412094</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0.003985567014007007</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -6561,6 +7525,12 @@
       <c r="L161" t="n">
         <v>0.7278514136166091</v>
       </c>
+      <c r="M161" t="n">
+        <v>0.0008709693461879086</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0.01750395775602909</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -6599,6 +7569,12 @@
       <c r="L162" t="n">
         <v>0.8375729940348929</v>
       </c>
+      <c r="M162" t="n">
+        <v>0.001222426862141917</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0.01246661052016147</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -6637,6 +7613,12 @@
       <c r="L163" t="n">
         <v>0.74935776245837</v>
       </c>
+      <c r="M163" t="n">
+        <v>0.001200926225683207</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0.01269076051079496</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -6675,6 +7657,12 @@
       <c r="L164" t="n">
         <v>0.8474875635032871</v>
       </c>
+      <c r="M164" t="n">
+        <v>0.001330351537038992</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0.01145313017465237</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -6713,6 +7701,12 @@
       <c r="L165" t="n">
         <v>0.9358743816993724</v>
       </c>
+      <c r="M165" t="n">
+        <v>0.002266490611349309</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0.006717464110739915</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -6751,6 +7745,12 @@
       <c r="L166" t="n">
         <v>0.9850360359270409</v>
       </c>
+      <c r="M166" t="n">
+        <v>0.03084967771784142</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0.0004793173227651115</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -6789,6 +7789,12 @@
       <c r="L167" t="n">
         <v>0.8215263815638697</v>
       </c>
+      <c r="M167" t="n">
+        <v>0.00143127454938256</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0.01064581526114302</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -6827,6 +7833,12 @@
       <c r="L168" t="n">
         <v>0.96017097115429</v>
       </c>
+      <c r="M168" t="n">
+        <v>0.005035327696563398</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0.003014837416205434</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -6865,6 +7877,12 @@
       <c r="L169" t="n">
         <v>0.8743205320097754</v>
       </c>
+      <c r="M169" t="n">
+        <v>0.003361513651691013</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0.004524134699941277</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -6903,6 +7921,12 @@
       <c r="L170" t="n">
         <v>0.989342994757504</v>
       </c>
+      <c r="M170" t="n">
+        <v>0.03452124639640635</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0.0004270873284801663</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -6941,6 +7965,12 @@
       <c r="L171" t="n">
         <v>0.9160220361266181</v>
       </c>
+      <c r="M171" t="n">
+        <v>0.006141779742764954</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0.002468905285751302</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -6979,6 +8009,12 @@
       <c r="L172" t="n">
         <v>0.9342587797803987</v>
       </c>
+      <c r="M172" t="n">
+        <v>0.002124044146805549</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0.007168012302281512</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -7017,6 +8053,12 @@
       <c r="L173" t="n">
         <v>0.8429452911839401</v>
       </c>
+      <c r="M173" t="n">
+        <v>0.009091003262436358</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0.001663590435712802</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -7055,6 +8097,12 @@
       <c r="L174" t="n">
         <v>0.9043832727790855</v>
       </c>
+      <c r="M174" t="n">
+        <v>0.007480644508135837</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0.002024775186449043</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -7093,6 +8141,12 @@
       <c r="L175" t="n">
         <v>0.9356335092657371</v>
       </c>
+      <c r="M175" t="n">
+        <v>0.01223118806479806</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0.001232677699420823</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -7131,6 +8185,12 @@
       <c r="L176" t="n">
         <v>0.7772165092658223</v>
       </c>
+      <c r="M176" t="n">
+        <v>0.001327067471475043</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0.01148979347326672</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -7169,6 +8229,12 @@
       <c r="L177" t="n">
         <v>0.8215113166165164</v>
       </c>
+      <c r="M177" t="n">
+        <v>0.001433798100641256</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0.01062678189202355</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -7207,6 +8273,12 @@
       <c r="L178" t="n">
         <v>0.7945854779573335</v>
       </c>
+      <c r="M178" t="n">
+        <v>0.00149557126644138</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0.01018713615610923</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -7245,6 +8317,12 @@
       <c r="L179" t="n">
         <v>0.7632133223000001</v>
       </c>
+      <c r="M179" t="n">
+        <v>0.0006575593705740314</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0.02319391494825259</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -7283,6 +8361,12 @@
       <c r="L180" t="n">
         <v>0.6140438651260669</v>
       </c>
+      <c r="M180" t="n">
+        <v>0.0009924111907974088</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0.0153598098931186</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -7321,6 +8405,12 @@
       <c r="L181" t="n">
         <v>0.8759130642626692</v>
       </c>
+      <c r="M181" t="n">
+        <v>0.001912502630598904</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0.007965016413572425</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -7359,6 +8449,12 @@
       <c r="L182" t="n">
         <v>0.8977508639607792</v>
       </c>
+      <c r="M182" t="n">
+        <v>0.002363948566975174</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0.006439632525906019</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -7397,6 +8493,12 @@
       <c r="L183" t="n">
         <v>0.9087368005713023</v>
       </c>
+      <c r="M183" t="n">
+        <v>0.007007251694422484</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0.00216254934905937</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -7435,6 +8537,12 @@
       <c r="L184" t="n">
         <v>0.8978566535995446</v>
       </c>
+      <c r="M184" t="n">
+        <v>0.002433202031732821</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0.006256078239476615</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -7473,6 +8581,12 @@
       <c r="L185" t="n">
         <v>0.9380142738450232</v>
       </c>
+      <c r="M185" t="n">
+        <v>0.002172648183688915</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0.007008143922357732</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -7511,6 +8625,12 @@
       <c r="L186" t="n">
         <v>0.7835970110855809</v>
       </c>
+      <c r="M186" t="n">
+        <v>0.0009983319600525948</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0.01526879331274964</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -7549,6 +8669,12 @@
       <c r="L187" t="n">
         <v>0.9168441190832983</v>
       </c>
+      <c r="M187" t="n">
+        <v>0.002208551108510926</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0.00689388614495581</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -7587,6 +8713,12 @@
       <c r="L188" t="n">
         <v>0.7194012956849126</v>
       </c>
+      <c r="M188" t="n">
+        <v>0.0008071504549822122</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0.01888883219904745</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -7625,6 +8757,12 @@
       <c r="L189" t="n">
         <v>0.6653212549116352</v>
       </c>
+      <c r="M189" t="n">
+        <v>0.0009541911205410363</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0.01597624020687147</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -7663,6 +8801,12 @@
       <c r="L190" t="n">
         <v>0.7585555000265236</v>
       </c>
+      <c r="M190" t="n">
+        <v>0.004194732355495101</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0.003622631376454523</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -7701,6 +8845,12 @@
       <c r="L191" t="n">
         <v>0.9477741995565937</v>
       </c>
+      <c r="M191" t="n">
+        <v>0.002557388260274472</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0.005950070202450159</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -7739,6 +8889,12 @@
       <c r="L192" t="n">
         <v>0.9485777600264409</v>
       </c>
+      <c r="M192" t="n">
+        <v>0.007551787811256078</v>
+      </c>
+      <c r="N192" t="n">
+        <v>0.002005529236628523</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -7777,6 +8933,12 @@
       <c r="L193" t="n">
         <v>0.9686082111271207</v>
       </c>
+      <c r="M193" t="n">
+        <v>0.008121781275228055</v>
+      </c>
+      <c r="N193" t="n">
+        <v>0.001863365885900081</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -7815,6 +8977,12 @@
       <c r="L194" t="n">
         <v>0.9243322175787784</v>
       </c>
+      <c r="M194" t="n">
+        <v>0.001464095677546191</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0.01040456953339969</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -7853,6 +9021,12 @@
       <c r="L195" t="n">
         <v>0.7874276694535667</v>
       </c>
+      <c r="M195" t="n">
+        <v>0.001236506202409365</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0.01232497359984417</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -7891,6 +9065,12 @@
       <c r="L196" t="n">
         <v>0.9884427281393589</v>
       </c>
+      <c r="M196" t="n">
+        <v>0.02753612485386173</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.0005395129335036602</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -7929,6 +9109,12 @@
       <c r="L197" t="n">
         <v>0.6623660094381538</v>
       </c>
+      <c r="M197" t="n">
+        <v>0.00267461766822325</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.005696913453018789</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -7967,6 +9153,12 @@
       <c r="L198" t="n">
         <v>0.9870298429905362</v>
       </c>
+      <c r="M198" t="n">
+        <v>0.02712630926672713</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0.0005476641295186284</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -8005,6 +9197,12 @@
       <c r="L199" t="n">
         <v>0.9129070860472757</v>
       </c>
+      <c r="M199" t="n">
+        <v>0.008523091911977117</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0.00177537770780367</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -8043,6 +9241,12 @@
       <c r="L200" t="n">
         <v>0.9261303901936975</v>
       </c>
+      <c r="M200" t="n">
+        <v>0.002268625394891792</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0.00671105758154529</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -8081,6 +9285,12 @@
       <c r="L201" t="n">
         <v>0.9489389139813046</v>
       </c>
+      <c r="M201" t="n">
+        <v>0.002281052793566103</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0.006673586309766802</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -8119,6 +9329,12 @@
       <c r="L202" t="n">
         <v>0.7050444787165165</v>
       </c>
+      <c r="M202" t="n">
+        <v>0.00413347527404482</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0.003676593909523478</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -8157,6 +9373,12 @@
       <c r="L203" t="n">
         <v>0.4892011940281903</v>
       </c>
+      <c r="M203" t="n">
+        <v>0.001434169208169206</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0.01062443359494668</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -8195,6 +9417,12 @@
       <c r="L204" t="n">
         <v>0.891322540454066</v>
       </c>
+      <c r="M204" t="n">
+        <v>0.001659541442436883</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.009181188909717905</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -8233,6 +9461,12 @@
       <c r="L205" t="n">
         <v>0.6616988516313106</v>
       </c>
+      <c r="M205" t="n">
+        <v>0.0006945298453363584</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0.02195452381969171</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -8271,6 +9505,12 @@
       <c r="L206" t="n">
         <v>0.7271284143899892</v>
       </c>
+      <c r="M206" t="n">
+        <v>0.001231482556698912</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0.01237548705289246</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -8309,6 +9549,12 @@
       <c r="L207" t="n">
         <v>0.9044967880462903</v>
       </c>
+      <c r="M207" t="n">
+        <v>0.001386214695997679</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0.01099234402769448</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -8347,6 +9593,12 @@
       <c r="L208" t="n">
         <v>0.6212495304797777</v>
       </c>
+      <c r="M208" t="n">
+        <v>0.0009216889054740644</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0.01654192214304999</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -8385,6 +9637,12 @@
       <c r="L209" t="n">
         <v>0.936915899513008</v>
       </c>
+      <c r="M209" t="n">
+        <v>0.002284160092133662</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0.006665353702094086</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -8423,6 +9681,12 @@
       <c r="L210" t="n">
         <v>0.9059867484112029</v>
       </c>
+      <c r="M210" t="n">
+        <v>0.008566900189406351</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0.001766150769523729</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -8461,6 +9725,12 @@
       <c r="L211" t="n">
         <v>0.8379771795383455</v>
       </c>
+      <c r="M211" t="n">
+        <v>0.001057490306396667</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0.01441580616624833</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -8499,6 +9769,12 @@
       <c r="L212" t="n">
         <v>0.9034073839071878</v>
       </c>
+      <c r="M212" t="n">
+        <v>0.005461326962351356</v>
+      </c>
+      <c r="N212" t="n">
+        <v>0.002778840314085577</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -8537,6 +9813,12 @@
       <c r="L213" t="n">
         <v>0.8036794752320643</v>
       </c>
+      <c r="M213" t="n">
+        <v>0.001602413486846496</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0.009507337652260681</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -8575,6 +9857,12 @@
       <c r="L214" t="n">
         <v>0.6289592935347524</v>
       </c>
+      <c r="M214" t="n">
+        <v>0.0005308669502473161</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0.02872802248759563</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -8613,6 +9901,12 @@
       <c r="L215" t="n">
         <v>0.9045203445731194</v>
       </c>
+      <c r="M215" t="n">
+        <v>0.008042625913465344</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0.001882127061993262</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -8651,6 +9945,12 @@
       <c r="L216" t="n">
         <v>0.7901648909767984</v>
       </c>
+      <c r="M216" t="n">
+        <v>0.001131880493864443</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0.0134653847735885</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -8689,6 +9989,12 @@
       <c r="L217" t="n">
         <v>0.8317770309775165</v>
       </c>
+      <c r="M217" t="n">
+        <v>0.001204414324463844</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0.01265548695706659</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -8727,6 +10033,12 @@
       <c r="L218" t="n">
         <v>0.9356178509361669</v>
       </c>
+      <c r="M218" t="n">
+        <v>0.002987053652350463</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0.005091246809836897</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -8765,6 +10077,12 @@
       <c r="L219" t="n">
         <v>0.5481570349813436</v>
       </c>
+      <c r="M219" t="n">
+        <v>0.001984430525954556</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0.007674227014541345</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -8803,6 +10121,12 @@
       <c r="L220" t="n">
         <v>0.9719102033203912</v>
       </c>
+      <c r="M220" t="n">
+        <v>0.01618130247948882</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0.0009280354118813225</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -8841,6 +10165,12 @@
       <c r="L221" t="n">
         <v>0.5519717032572991</v>
       </c>
+      <c r="M221" t="n">
+        <v>0.0005630760223147015</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0.02708385209551512</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -8879,6 +10209,12 @@
       <c r="L222" t="n">
         <v>0.8452623217313826</v>
       </c>
+      <c r="M222" t="n">
+        <v>0.002135310923756416</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0.007130720864681356</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -8917,6 +10253,12 @@
       <c r="L223" t="n">
         <v>0.7467648328706362</v>
       </c>
+      <c r="M223" t="n">
+        <v>0.001021479402263674</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0.01492281830030315</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -8955,6 +10297,12 @@
       <c r="L224" t="n">
         <v>0.7215387419833004</v>
       </c>
+      <c r="M224" t="n">
+        <v>0.0008854655712542522</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0.0172170013924921</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -8993,6 +10341,12 @@
       <c r="L225" t="n">
         <v>0.9739885656516686</v>
       </c>
+      <c r="M225" t="n">
+        <v>0.01932403964458292</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0.0007745316994162717</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -9031,6 +10385,12 @@
       <c r="L226" t="n">
         <v>0.8442884249202712</v>
       </c>
+      <c r="M226" t="n">
+        <v>0.002247855866467655</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0.006772847978315134</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -9069,6 +10429,12 @@
       <c r="L227" t="n">
         <v>0.8741509742598303</v>
       </c>
+      <c r="M227" t="n">
+        <v>0.001570095073779847</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0.009701670507704555</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -9107,6 +10473,12 @@
       <c r="L228" t="n">
         <v>0.773788368688169</v>
       </c>
+      <c r="M228" t="n">
+        <v>0.0008484948189105931</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0.01796769514745435</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -9145,6 +10517,12 @@
       <c r="L229" t="n">
         <v>0.7289639476698749</v>
       </c>
+      <c r="M229" t="n">
+        <v>0.001094224280344465</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0.01392970310693828</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -9183,6 +10561,12 @@
       <c r="L230" t="n">
         <v>0.9365727975117339</v>
       </c>
+      <c r="M230" t="n">
+        <v>0.002158027987625394</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0.007055665045738168</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -9221,6 +10605,12 @@
       <c r="L231" t="n">
         <v>0.8829353411480881</v>
       </c>
+      <c r="M231" t="n">
+        <v>0.006985976029163863</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0.002169099012268038</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -9259,6 +10649,12 @@
       <c r="L232" t="n">
         <v>0.9261535600097096</v>
       </c>
+      <c r="M232" t="n">
+        <v>0.002269343470386987</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0.006708930158573719</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -9297,6 +10693,12 @@
       <c r="L233" t="n">
         <v>0.7594948056797116</v>
       </c>
+      <c r="M233" t="n">
+        <v>0.004442763692097301</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0.003419547748753012</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -9335,6 +10737,12 @@
       <c r="L234" t="n">
         <v>0.7215314631598013</v>
       </c>
+      <c r="M234" t="n">
+        <v>0.001334671593048308</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0.01141734842641758</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -9373,6 +10781,12 @@
       <c r="L235" t="n">
         <v>0.986513599868162</v>
       </c>
+      <c r="M235" t="n">
+        <v>0.05190750449468016</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0.0002793736536677401</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -9411,6 +10825,12 @@
       <c r="L236" t="n">
         <v>0.9930994137952261</v>
       </c>
+      <c r="M236" t="n">
+        <v>0.06004571317507694</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0.000239005523237161</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -9449,6 +10869,12 @@
       <c r="L237" t="n">
         <v>0.9739588873751276</v>
       </c>
+      <c r="M237" t="n">
+        <v>0.01435561034565524</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0.001047965825769172</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -9487,6 +10913,12 @@
       <c r="L238" t="n">
         <v>0.9087456498517665</v>
       </c>
+      <c r="M238" t="n">
+        <v>0.006022411204647603</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0.002518221535209691</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -9525,6 +10957,12 @@
       <c r="L239" t="n">
         <v>0.9451831005804604</v>
       </c>
+      <c r="M239" t="n">
+        <v>0.01019066988023744</v>
+      </c>
+      <c r="N239" t="n">
+        <v>0.001482397247705951</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -9563,6 +11001,12 @@
       <c r="L240" t="n">
         <v>0.8112199390732434</v>
       </c>
+      <c r="M240" t="n">
+        <v>0.001593082008173983</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0.009566592645528126</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -9601,6 +11045,12 @@
       <c r="L241" t="n">
         <v>0.8710246009350705</v>
       </c>
+      <c r="M241" t="n">
+        <v>0.00195785618813748</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0.007778591067941629</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -9639,6 +11089,12 @@
       <c r="L242" t="n">
         <v>0.9643135271284193</v>
       </c>
+      <c r="M242" t="n">
+        <v>0.0248188054311751</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0.0005998747896328597</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -9677,6 +11133,12 @@
       <c r="L243" t="n">
         <v>0.8375005196716918</v>
       </c>
+      <c r="M243" t="n">
+        <v>0.005951867165228349</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0.002548638906033394</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -9715,6 +11177,12 @@
       <c r="L244" t="n">
         <v>0.5696177962126218</v>
       </c>
+      <c r="M244" t="n">
+        <v>0.0006438623475379155</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0.02368370671240597</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -9753,6 +11221,12 @@
       <c r="L245" t="n">
         <v>0.791463132883129</v>
       </c>
+      <c r="M245" t="n">
+        <v>0.001450889189439656</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0.01050091548876172</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -9791,6 +11265,12 @@
       <c r="L246" t="n">
         <v>0.8768253478814644</v>
       </c>
+      <c r="M246" t="n">
+        <v>0.001242161378134244</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0.01226888129088751</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -9829,6 +11309,12 @@
       <c r="L247" t="n">
         <v>0.8585213935885344</v>
       </c>
+      <c r="M247" t="n">
+        <v>0.004043276838275918</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0.00375886913946114</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -9867,6 +11353,12 @@
       <c r="L248" t="n">
         <v>0.7835849821198296</v>
       </c>
+      <c r="M248" t="n">
+        <v>0.0009982453802093142</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0.01527011973313953</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -9905,6 +11397,12 @@
       <c r="L249" t="n">
         <v>0.7874602456970806</v>
       </c>
+      <c r="M249" t="n">
+        <v>0.0008819578351996853</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0.01728504487094912</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -9943,6 +11441,12 @@
       <c r="L250" t="n">
         <v>0.7740781524730354</v>
       </c>
+      <c r="M250" t="n">
+        <v>0.0009773521939925851</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0.01559688108172575</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -9981,6 +11485,12 @@
       <c r="L251" t="n">
         <v>0.4981905111216242</v>
       </c>
+      <c r="M251" t="n">
+        <v>0.00110453745271619</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0.0137993915724471</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -10019,6 +11529,12 @@
       <c r="L252" t="n">
         <v>0.9852330895512273</v>
       </c>
+      <c r="M252" t="n">
+        <v>0.02078774883497748</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0.000718564127816438</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -10057,6 +11573,12 @@
       <c r="L253" t="n">
         <v>0.8295570029149354</v>
       </c>
+      <c r="M253" t="n">
+        <v>0.001228481221939534</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0.01240565595412552</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -10095,6 +11617,12 @@
       <c r="L254" t="n">
         <v>0.8635972455670636</v>
       </c>
+      <c r="M254" t="n">
+        <v>0.001301809243195707</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0.0117053237263477</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -10133,6 +11661,12 @@
       <c r="L255" t="n">
         <v>0.9369031150226118</v>
       </c>
+      <c r="M255" t="n">
+        <v>0.002284174488103381</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0.006665311074342688</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -10171,6 +11705,12 @@
       <c r="L256" t="n">
         <v>0.8419374788800025</v>
       </c>
+      <c r="M256" t="n">
+        <v>0.001651083496410102</v>
+      </c>
+      <c r="N256" t="n">
+        <v>0.009226492773748644</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -10209,6 +11749,12 @@
       <c r="L257" t="n">
         <v>0.980363726880464</v>
       </c>
+      <c r="M257" t="n">
+        <v>0.0195255853479649</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0.0007663580159821772</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -10247,6 +11793,12 @@
       <c r="L258" t="n">
         <v>0.8214841330480621</v>
       </c>
+      <c r="M258" t="n">
+        <v>0.001433476700930932</v>
+      </c>
+      <c r="N258" t="n">
+        <v>0.01062916658464955</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -10285,6 +11837,12 @@
       <c r="L259" t="n">
         <v>0.8373003073330831</v>
       </c>
+      <c r="M259" t="n">
+        <v>0.0008334728166963136</v>
+      </c>
+      <c r="N259" t="n">
+        <v>0.01829415634159545</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -10323,6 +11881,12 @@
       <c r="L260" t="n">
         <v>0.9479230268615267</v>
       </c>
+      <c r="M260" t="n">
+        <v>0.01110038338975542</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0.001359758490248254</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -10361,6 +11925,12 @@
       <c r="L261" t="n">
         <v>0.8915083251814188</v>
       </c>
+      <c r="M261" t="n">
+        <v>0.002948016809892266</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0.005160845589692612</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -10399,6 +11969,12 @@
       <c r="L262" t="n">
         <v>0.9350886151784272</v>
       </c>
+      <c r="M262" t="n">
+        <v>0.002399725066015</v>
+      </c>
+      <c r="N262" t="n">
+        <v>0.00634107412219331</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -10437,6 +12013,12 @@
       <c r="L263" t="n">
         <v>0.9343050525518239</v>
       </c>
+      <c r="M263" t="n">
+        <v>0.002124636325138124</v>
+      </c>
+      <c r="N263" t="n">
+        <v>0.007166012711393311</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -10475,6 +12057,12 @@
       <c r="L264" t="n">
         <v>0.9420971666031968</v>
       </c>
+      <c r="M264" t="n">
+        <v>0.008943248191551768</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0.001691347038923336</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -10513,6 +12101,12 @@
       <c r="L265" t="n">
         <v>0.7924937216294516</v>
       </c>
+      <c r="M265" t="n">
+        <v>0.001644510838745802</v>
+      </c>
+      <c r="N265" t="n">
+        <v>0.00926301323487547</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -10551,6 +12145,12 @@
       <c r="L266" t="n">
         <v>0.9356922656976885</v>
       </c>
+      <c r="M266" t="n">
+        <v>0.002218671654840049</v>
+      </c>
+      <c r="N266" t="n">
+        <v>0.006862320045821343</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -10589,6 +12189,12 @@
       <c r="L267" t="n">
         <v>0.9174704856646941</v>
       </c>
+      <c r="M267" t="n">
+        <v>0.004092181502799049</v>
+      </c>
+      <c r="N267" t="n">
+        <v>0.003713801274991314</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -10627,6 +12233,12 @@
       <c r="L268" t="n">
         <v>0.8519372176231432</v>
       </c>
+      <c r="M268" t="n">
+        <v>0.001394359917978245</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0.01092790619994026</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -10665,6 +12277,12 @@
       <c r="L269" t="n">
         <v>0.5227845313297802</v>
       </c>
+      <c r="M269" t="n">
+        <v>0.001514558110407755</v>
+      </c>
+      <c r="N269" t="n">
+        <v>0.01005971879826881</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -10703,6 +12321,12 @@
       <c r="L270" t="n">
         <v>0.9694778775268631</v>
       </c>
+      <c r="M270" t="n">
+        <v>0.01373802128765109</v>
+      </c>
+      <c r="N270" t="n">
+        <v>0.001095227154941426</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -10741,6 +12365,12 @@
       <c r="L271" t="n">
         <v>0.967925687032531</v>
       </c>
+      <c r="M271" t="n">
+        <v>0.02234889914258997</v>
+      </c>
+      <c r="N271" t="n">
+        <v>0.0006680068670442955</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -10779,6 +12409,12 @@
       <c r="L272" t="n">
         <v>0.9045449047559657</v>
       </c>
+      <c r="M272" t="n">
+        <v>0.001386751296784622</v>
+      </c>
+      <c r="N272" t="n">
+        <v>0.01098808383927543</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -10817,6 +12453,12 @@
       <c r="L273" t="n">
         <v>0.9562249134718759</v>
       </c>
+      <c r="M273" t="n">
+        <v>0.01705196648212479</v>
+      </c>
+      <c r="N273" t="n">
+        <v>0.0008796111703089444</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -10855,6 +12497,12 @@
       <c r="L274" t="n">
         <v>0.6433332066229824</v>
       </c>
+      <c r="M274" t="n">
+        <v>0.0009783178765007099</v>
+      </c>
+      <c r="N274" t="n">
+        <v>0.01557584958345053</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -10893,6 +12541,12 @@
       <c r="L275" t="n">
         <v>0.8681569630873355</v>
       </c>
+      <c r="M275" t="n">
+        <v>0.00564123813667874</v>
+      </c>
+      <c r="N275" t="n">
+        <v>0.002689725170209173</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -10931,6 +12585,12 @@
       <c r="L276" t="n">
         <v>0.8991374658087414</v>
       </c>
+      <c r="M276" t="n">
+        <v>0.001914353959281598</v>
+      </c>
+      <c r="N276" t="n">
+        <v>0.007954827088662858</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -10969,6 +12629,12 @@
       <c r="L277" t="n">
         <v>0.9146578050654532</v>
       </c>
+      <c r="M277" t="n">
+        <v>0.002641235262061763</v>
+      </c>
+      <c r="N277" t="n">
+        <v>0.005762076463102034</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -11007,6 +12673,12 @@
       <c r="L278" t="n">
         <v>0.9819802668948447</v>
       </c>
+      <c r="M278" t="n">
+        <v>0.03058424301319492</v>
+      </c>
+      <c r="N278" t="n">
+        <v>0.0004835665483752416</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -11045,6 +12717,12 @@
       <c r="L279" t="n">
         <v>0.8792195240688843</v>
       </c>
+      <c r="M279" t="n">
+        <v>0.001755344356701814</v>
+      </c>
+      <c r="N279" t="n">
+        <v>0.00867584714689641</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -11083,6 +12761,12 @@
       <c r="L280" t="n">
         <v>0.9243281466226101</v>
       </c>
+      <c r="M280" t="n">
+        <v>0.001463917183603044</v>
+      </c>
+      <c r="N280" t="n">
+        <v>0.01040584207259646</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -11121,6 +12805,12 @@
       <c r="L281" t="n">
         <v>0.9307685067341129</v>
       </c>
+      <c r="M281" t="n">
+        <v>0.001708235619197961</v>
+      </c>
+      <c r="N281" t="n">
+        <v>0.008914660750911563</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -11159,6 +12849,12 @@
       <c r="L282" t="n">
         <v>0.5961091037318739</v>
       </c>
+      <c r="M282" t="n">
+        <v>0.001073038907351269</v>
+      </c>
+      <c r="N282" t="n">
+        <v>0.01420497905972862</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -11197,6 +12893,12 @@
       <c r="L283" t="n">
         <v>0.982572255338854</v>
       </c>
+      <c r="M283" t="n">
+        <v>0.0175480793141274</v>
+      </c>
+      <c r="N283" t="n">
+        <v>0.0008540626546501919</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -11235,6 +12937,12 @@
       <c r="L284" t="n">
         <v>0.9684885632475095</v>
       </c>
+      <c r="M284" t="n">
+        <v>0.02028029720313783</v>
+      </c>
+      <c r="N284" t="n">
+        <v>0.0007376414853671293</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -11273,6 +12981,12 @@
       <c r="L285" t="n">
         <v>0.6571402109718041</v>
       </c>
+      <c r="M285" t="n">
+        <v>0.0007159375058689875</v>
+      </c>
+      <c r="N285" t="n">
+        <v>0.02129769089771023</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -11311,6 +13025,12 @@
       <c r="L286" t="n">
         <v>0.7428648587218862</v>
       </c>
+      <c r="M286" t="n">
+        <v>0.0008434506522589653</v>
+      </c>
+      <c r="N286" t="n">
+        <v>0.01807543172120406</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -11349,6 +13069,12 @@
       <c r="L287" t="n">
         <v>0.9180192215607205</v>
       </c>
+      <c r="M287" t="n">
+        <v>0.008705156447044142</v>
+      </c>
+      <c r="N287" t="n">
+        <v>0.001737892821926003</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -11387,6 +13113,12 @@
       <c r="L288" t="n">
         <v>0.9633757784735134</v>
       </c>
+      <c r="M288" t="n">
+        <v>0.01186717513511009</v>
+      </c>
+      <c r="N288" t="n">
+        <v>0.001270874253069922</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -11425,6 +13157,12 @@
       <c r="L289" t="n">
         <v>0.8908778848280997</v>
       </c>
+      <c r="M289" t="n">
+        <v>0.001999471968026713</v>
+      </c>
+      <c r="N289" t="n">
+        <v>0.007616328930149986</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -11463,6 +13201,12 @@
       <c r="L290" t="n">
         <v>0.9329901498755331</v>
       </c>
+      <c r="M290" t="n">
+        <v>0.005135452292620566</v>
+      </c>
+      <c r="N290" t="n">
+        <v>0.002954094487853614</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -11501,6 +13245,12 @@
       <c r="L291" t="n">
         <v>0.9259803365652562</v>
       </c>
+      <c r="M291" t="n">
+        <v>0.003573500338624289</v>
+      </c>
+      <c r="N291" t="n">
+        <v>0.00425495271347191</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -11539,6 +13289,12 @@
       <c r="L292" t="n">
         <v>0.9850540489995552</v>
       </c>
+      <c r="M292" t="n">
+        <v>0.03089734183090495</v>
+      </c>
+      <c r="N292" t="n">
+        <v>0.0004791274310119366</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -11577,6 +13333,12 @@
       <c r="L293" t="n">
         <v>0.7441293323203787</v>
       </c>
+      <c r="M293" t="n">
+        <v>0.001639922697814201</v>
+      </c>
+      <c r="N293" t="n">
+        <v>0.009289372536550343</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -11615,6 +13377,12 @@
       <c r="L294" t="n">
         <v>0.8835231333463617</v>
       </c>
+      <c r="M294" t="n">
+        <v>0.001979284204648908</v>
+      </c>
+      <c r="N294" t="n">
+        <v>0.007693443013937347</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -11653,6 +13421,12 @@
       <c r="L295" t="n">
         <v>0.9130048115469466</v>
       </c>
+      <c r="M295" t="n">
+        <v>0.002243599063302623</v>
+      </c>
+      <c r="N295" t="n">
+        <v>0.006786024217325186</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -11691,6 +13465,12 @@
       <c r="L296" t="n">
         <v>0.9183456137908315</v>
       </c>
+      <c r="M296" t="n">
+        <v>0.002752772244577866</v>
+      </c>
+      <c r="N296" t="n">
+        <v>0.005534820269498943</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -11729,6 +13509,12 @@
       <c r="L297" t="n">
         <v>0.7768874989707971</v>
       </c>
+      <c r="M297" t="n">
+        <v>0.001481526444280776</v>
+      </c>
+      <c r="N297" t="n">
+        <v>0.010284292032983</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -11767,6 +13553,12 @@
       <c r="L298" t="n">
         <v>0.984453792444229</v>
       </c>
+      <c r="M298" t="n">
+        <v>0.02354579972990765</v>
+      </c>
+      <c r="N298" t="n">
+        <v>0.000632643172258181</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -11805,6 +13597,12 @@
       <c r="L299" t="n">
         <v>0.86261229421437</v>
       </c>
+      <c r="M299" t="n">
+        <v>0.001811302455531656</v>
+      </c>
+      <c r="N299" t="n">
+        <v>0.008409000819273971</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -11843,6 +13641,12 @@
       <c r="L300" t="n">
         <v>0.792767420406301</v>
       </c>
+      <c r="M300" t="n">
+        <v>0.003898635466862853</v>
+      </c>
+      <c r="N300" t="n">
+        <v>0.003898715439185597</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -11880,6 +13684,12 @@
       </c>
       <c r="L301" t="n">
         <v>0.8768936634016369</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0.001259322889230552</v>
+      </c>
+      <c r="N301" t="n">
+        <v>0.01210323934647391</v>
       </c>
     </row>
   </sheetData>
